--- a/Annotated_for_health.xlsx
+++ b/Annotated_for_health.xlsx
@@ -1,1128 +1,1150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susan McRoy\Dropbox\IR 2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8E0E0B-439E-4BAF-8F28-CD4A09BA054A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="360">
   <si>
-    <t>Can anyone explain "farm strength?" I was reading about Herschel Walker recently. In one interview he said something like "I figured if all these farm hands could get big and strong by eating like this and lifting hay bales that I could too." That reminded me of a few people I ve met over the years that are "farm strong." These guys eat once a day (coffee for breakfast next to nothing for lunch steak and potatoes for dinner) don t count macros or anything don t use a routine no supplements no steroids and they use the same muscles every single day without much of a break. Most of them smoked or used some kind of tobacco drank on a regular basis and never played organized sports (with the exception of one or two). Yet somehow they re insanely strong people. A handful of them have stepped into the gym once in their lives and throw up 300+ lbs on the bench press like it s nothing. I ve met probably 10 people like this. Some of them in my family and others I ve met in passing. All of them think I m</t>
-  </si>
-  <si>
-    <t>Questions about those wearable weights Hey so the semester ends in less than a week and then I ll spend a month back home with a small gym in the basement before the next semester starts. And on a related note I was watching Naruto and noticed the weight stuff Bushy Brows wears. What are they? Would they work to help me not lose what I ve gained? Maybe I can perform calisthenetics while wearing them sorta like the character does? If anyones trained in a similar way can you share how the experience was? The gym that I have back on campus is pretty complete but I will be too far from it to go on a regular basis.</t>
-  </si>
-  <si>
-    <t>Is StartBodyweight going offline? (repost fro r/bodyweightfitness I just came upon this post in my facebook feed http //www.startbodyweight.com/2017/12/help-keep-startbodyweight-online.html I have always found the progressions far more useful than those of the recommended routine and it d be a shame to see this resource disappearing... I hope that the owner keeps it online! Meanwhile I suggest you grab the infographic pdf before it disappears it has all the main exercises and progressions. I think you can still download it from the site.</t>
-  </si>
-  <si>
-    <t>I wing my scapula when I do heavy dumbbell curls. How do I fox this? I ve got a good posture and my shoulder blades are most of the time retracted but when I perform heavy dumbbell curls my shoulder blades instantly want to wing. Help would be appreciated!</t>
-  </si>
-  <si>
-    <t>Deloading during bulk? Hello redditors Soon I will be doing a deload week my question is should I lower my calories for the week. Currently bulking eating 4000 kcal(hard gainer life) a day. And what is the best way to do a deload? After a quick search most people reccomend to use 60% of your regular lifting weight.</t>
-  </si>
-  <si>
-    <t>Triceps taking all the abuse during arm workouts. Is this common? This has always been an issue for me... my triceps seem to take all the abuse on just about every arm workout (dumbbell press bicep curls hammer curls power clean etc). I ve checked my form and even lowered weight volume to mask sure I m doing things right... At this point my burning triceps are holding things back! I can t get my biceps to burn after a set of hammer curls because my triceps can t take any more abuse... Has this happened to anyone else? What is the workaround?</t>
-  </si>
-  <si>
-    <t>Lack of progress... Starting to feel depressed. Can anyone please give me some pointers? Short background I started lifting about 3 or 4 years ago as I was very skinny in highschool and wanted to feel a bit more confident about myself. I put on a but if muscle in about a year and... That s about it. Since then I think I ve been pretty much putting on and losing the same 10lbs over and over. I ve got slightly stronger but nothing spectacular. Here s how I look right now https //imgur.com/a/UKrBr Not even going to bother posting what I looked like one year ago or two years ago as I look the same lol. As you can also see I m holding quite a bit of fat. I try eat as clean as I can mostly brown rice chicken and veggies. Occasional cheat meal but this usually just ends up being a bowl of sugary cereal or the odd burger never anything insane like 3 pizzas and 5 large big macs. Gym about 3 times a week push day pull day legs where u try and go as hard as I can. I change my workouts every 4-6 week</t>
-  </si>
-  <si>
-    <t>How long after working out does your body begin to build muscle? As a sub question: What time period after working out is muscle building the most prevalent? Should you be in the highest caloric surplus during that time?</t>
-  </si>
-  <si>
-    <t>Programs for machine lifting? Hello r/fitness I just moved to a new city and the gym at my new apartment has every machine you could imagine and dumbbells. Are there any good premade plans for gyms without free weights? I didn t see anything on the sidebar for machines maybe I m just overlooking it right now though. If starting stats matter I m 5 11" 190 I haven t been lifting for about 3 months. In the past I did PPL which I could probably adapt for machines but I wasn t sure. Anyone who has to use machines have any advice? I tested all of the machines this afternoon so that I could get a fell for them the squat machine feels way different then a real squat but that was the only big difference I noticed.</t>
-  </si>
-  <si>
-    <t>Fitness Question I am 22 year old male who began the Couch-to-5K programme in November in a bid to get healthier and lose a bit of weight (168lbs starting weight). I have lost about 5lbs from lowering my caloric intake and doing 3 Couch-to-5k sessions a week. These results are pretty pleasing and I do feel both physically and mentally healthier than I have been for a while. I have just finished run 3 week 5 which consisted of a 20 minute run which I was able to cope with - there are only 3 weeks left of the programme now. I still want to keep doing 90 minutes of running (30 minutes each day for 3 days of the week) after I have "graduated" from the programme. I also do want to do some weight training exercise to build muscle mass as well. So my question is is it possible to keep doing my running/cardio whilst doing weight training exercises?</t>
-  </si>
-  <si>
-    <t>What would be considered low carb for me? Hi all I m beginning to lose 60 pounds. I ve lost almost this amount before but did it very poorly (not eating). Obviously I gained it all back when I went to college. I m still in college and I want to lose that weight that I ve gained. I m currently 225. I m trying to get down to 160ish or so since I ve recently joined the military and they need me to lose some weight. I want to cut carbs out. Well not completely but I want to drastically cut carbs. If I plan on losing 2 pounds a week how many carbs should I be eating a day? Or roughly I don t know. Doing things the right way is new to me so to say. Thank you so much!</t>
-  </si>
-  <si>
-    <t>Why do my abs and lower back get so tired during dumbbell rows on my right side? When I do db rows with my right arm my lower back and abs feel like they re working really hard and limit how many reps I can do. When I do my left side though I don t feel them at all and it feels perfectly fine. Both sides look the same when I look in the mirror while doing it. What s causing this and how do I fix it?</t>
-  </si>
-  <si>
-    <t>Anyone have shoe recommendations for a gym floor Playing Lacrosse for my school in a gym right now and I keep falling the treds on my ultra boosts are awful anyone have any recommendations?</t>
-  </si>
-  <si>
-    <t>I know not to go to the gym when sick. But what s the time frame for that? I know I ve read before not to go to the gym when your sick. But how long do I stay away? My toddler gave me strep throat (first time in 20 years I ve had it). I know it s something adults usually get over but I m on antibiotics for that and I ve had an upper respiratory infection since Dec 1. The hospital didn t want to test the respiratory infection but I finally have medicine. My husband told me not to go to the gym last night besides getting others sick. My breathing hasn t been perfect. Is their a general amount of time or is it just when I m done with medicine?</t>
-  </si>
-  <si>
-    <t>Is it okay to climb on my rest day or should I move it to a different day of the week? I ve been running PPL 6 days and usually go Pull Push Legs in that order (with a Sunday rest day). I ve been wanting to do some more climbing (just as a fun side thing to do with my friends). Would it be okay to go climb in the mornings on my rest day? Or would it be better for recovery for my pull muscles to move it to Saturday with my legs? Basically I want to climb but I don t want to overwork my muscles and end up either hurting myself or find myself unable to progress as well in my Pull related exercises. I also might just be overthinking this but I was hoping to get your opinions on this.</t>
-  </si>
-  <si>
-    <t>Cheap ways to eat healthy while loosing pounds. HI reddit fitness, I'm a 20 yr old Male about 5'10 weighing about 170, I'm looking for any tips on loosing weight and a way to eat healthy while on a college budget, if anyone could help out that'd be great. Also I'm just looking for tips on loosing weight, I'll worry about gaining muscle after I loose the fat.</t>
-  </si>
-  <si>
-    <t>My first cut. Having some questions on my deficit. Hi as the title mentions I am about to start my first ever "cutting phase". Basic Information I am 6 1 tall (185cm) and weigh around 192 lbs (87 kg). My TDEE is 2276 kcal (spending most of my time at a desk when i am not working out). I will be aiming for 1900 kcal a day and am working out 5 times a week. Been tracking my macros and meal sizes with myfitnesspal and a small kitchen scale. My actual question Like I already mentioned my daily intake will be at 1900 kcal/day but this will not account for my workout-sessions. So should I up the intake on my workout-days and stick to 1900kcal on restdays or do I maintain 1900kcal throughout the entire cut? EDIT thank you very much!</t>
-  </si>
-  <si>
-    <t>2 weeks Minicut to maintain form on bulk extreme muscle loss? I am 18 years old 190m 87kg@about 15% bodyfat. Stringations on chest and unflexed abs but lovehandles and appetite is near zero which only happens to me when my bf goes too high. My maintainence is at ~36k when only workig out and not having to go to school or work + driving to everywhere. I do get my 6000 steps while walking between weights in the gym and around the house though. Thought about a minicut for 2 weeks at 1000 calories deficit to shed some fat and get appetite to come back. I would be adding in about 400 calories of LISS a day and maintain my usual DUP 6 days a week program but lower the volume. Are high muscle losses to be expected or is there anything else i should look for. Also is this an absolutely awful idea? I could find some about minicuts but nowhere any source if muscles are actually kept to a larger degree if you keep cuts short but high deficit. To clarify I am not fat and do not want to look stage ready after the</t>
-  </si>
-  <si>
-    <t>What books would you recommend to someone who wants to get into weightlifting (Dieting nutrition supplementation training and workouts) ?. I am going back into weightlifting after not doing it for a while and i have since forgotten alot of the important things and want to learn and educate myself on the subject aswell as learn how to properly execute and do the different things (Dieting nutrition supplementation training and workouts).</t>
-  </si>
-  <si>
-    <t>Been lifting for years but have no goals? I m 24 and have been lifting heavy since I was in high school. I used to workout at least 4 times a week now it s usually 2-3 times a week just alternating body parts each time. I find myself very bored &amp;amp; not motivated at the gym for the last year or even longer...when I started working out I was really skinny and had motivation to get big. I m not trying to toot my own horn but I m in I m good shape and get compliments on my body all the time. How can I find some goals to make my workouts fun again? I feel like I m just maintaining and going through the motions. I ve never been into bulking and have never had weight problems since I m extremely lucky to be able to eat like a horse and not gain any weight. Help!</t>
-  </si>
-  <si>
-    <t>Are there any gyms under $30 a month that are worth looking into in Texas? I have power lifted for years and love the sport. I don t compete as I have switched my main focus to boxing but I still wanna lift as it is a great addition to my routine and makes me feel better. That said my wallet doesn t need a workout. Does anyone have any recommendations ?</t>
-  </si>
-  <si>
-    <t>once and for all is training every day hard sometimes 2/days hurting any progress? i really enjoy being in the gym. when work permits i do 2/days strength/bodybuilding in the AM and met con in the evenings. a total of 2-3 hours...i d say i average that 5 days a week the other two days maybe only 60-90 minutes of training. i make sure to get at least 8 hours sleep (work permitting) and I get in all my calories. when i am bulking i gain at around .5 pounds a week and when i am cutting i lose at about .5 a week. as long as i monitor my weight and i feel ok is "over training" really an issue? would be interested to hear some experienced peoples opinions thanks !</t>
-  </si>
-  <si>
-    <t>lifting heavy on an empty stomach I ve tried doing research on this topic but there s a lot of evidence for both sides. Do any of you have any experience with lifting heavy in the morning on an empty stomach? In some articles I ve read that your body uses your muscle as a source of energy on an empty stomach. Other articles I ve read that your body actually uses fat as an energy source on an empty stomach. Which one is true? Just wondering what you guys know thanks</t>
-  </si>
-  <si>
-    <t>For some reason I m not enjoying working out and I m not really seeing any progress anymore In the past working out has given me a good feeling of progress of getting stronger but recently working out has become almost a chore that I really don t enjoy doing and I never see or feel any improvements. Am I just in a slump and need to snap out of it or is this something others have experienced?</t>
-  </si>
-  <si>
-    <t>Why do people say 5/3/1 is low volume? After doing Warm up sets Main sets with last set AMRAP Joker Sets First Set Last BBB Accessories Please explain why this is seen as low volume?</t>
-  </si>
-  <si>
-    <t>I ve realized my form on the squat and deadlift isn t up to par. What s a good rep range and percentage of 1RM to use while I relearn how to do these movements? I m 6 0 and 165 lbs Squat 1RM 225 lbs Deadlift 1RM 315 lbs My squat turns into a good morning when I m using anything north of 75% of my 1RM and I can t feel my hamstrings engage at all during my deadlift. I ve been using 3x5x70% 3x5x80% and 3x3x90% to train these two lifts but I ve mostly just been winging the technique. So I want to deload and relearn how to squat and deadlift properly but I m not sure what parameters I should be using.</t>
-  </si>
-  <si>
-    <t>The uses of maltodextrin? I m a noob and I just went to buy whey powder for the first time. They guy working there told me that for purposes of building muscle and gaining some mass whey alone isn t enough. He said I needed some carbohydrates. He gave me maltodextrin. Now as I understand it apart from energy and recovery it s supposed to give you those extra calories you have no will to eat so that you might grow. There is technically no need (and it would in fact be bad) to take those if you eat your perfect amount of calories every day. Am I right in understanding it? Its only purpose is to give you extra calories and revitalize you right? Nothing extraordinary?</t>
-  </si>
-  <si>
-    <t>Tri-Trap Bars? https //www.flamanfitness.com/olympic-tri-trap-international-bar.html A salesman talked someone into buying one of these guys for me for Christmas. I m finding benching it is very awkward as I have to hold it on the inside grips to balance the weight which means I have a more limited range of motion. designed to work on this bar. Anyone have experience with one of these or resources to point me in the right direction?</t>
-  </si>
-  <si>
-    <t>Running/cardio while on a caloric deficit and lifting heavy and frequently? I m 18M 165lbs 5 7" between 16-18% body fat and I am still a beginner lifter (3 months). When I first started weightlifting I was overweight high body fat (23-26% according to visual guides and my mirror). I researched and came to the conclusion that it was optimal to cut and lift since I can still be at a catabolic and anabolic state almost simultaneously and I have seen tremendous progress. I run a 5-6 day lifting split. Would running be really detrimental in this case? My goals ranked highest to lowest priority Losing fat (weight) gaining muscle mass losing bodyweight just overall. Since I m on a cut will running (like 3-5 miles on a given rest day from lifting) help me burn my fat (glycogen stores) or will my body just start to break down protein (my muscles) because I m not eating enough food? On cheat days like this upcoming winter vacation I have from college where I will inevitably be eating a lot of food i</t>
-  </si>
-  <si>
-    <t>Mechanical Advantage due to number of pulleys on a cable machine Hi all. I was just wondering if most cable-based machines are calibrated to take into account the number of pulleys the cable passes over in order to lift the weight and the mechanical advantage that can occur? For example a cable passing over two pulleys is capable of lifting twice as much weight for a given amount of energy when compared to a cable passing over only one pulley. Thanks.</t>
-  </si>
-  <si>
-    <t>Folks some of you will be trying a rare Christmas swim in the next few day so here s some expert advice (from mod of r/Swimming extreme cold water &amp;amp; Channel swimmer). Also if you read nothing else please DO NOT DRINK before swimming. At Christmas time many people who would never consider getting in cold water will be thinking of a Christmas Eve Christmas Day or New Year s Day dip. If you are wondering WHY you might or should do it apart from * Taking part in a local tradition in many places; * Having a hot punch at the coast; * Supporting a local charity; * The great craic of meeting lots of people having similar fun; * Doing something that will add more zest and flavour to your Christmas dinner than anything else... A cold water dip results in a positive physical sense of well-being that occurs when warm blood displaces cold blood and the sensation never lessens with repetition unlike pretty much everything else in life and the reason many of us are called *"addicts to cold"*. **PREP</t>
-  </si>
-  <si>
-    <t>What should I include in my TDEE calculation? I m trying to lose weight and I go to a big university where I bike everywhere and different amounts each day. I was wondering if I should include that in my TDEE calculation or count that as a separate cardio exercise. I plan to go lift heavy 3/7 days of the week and was wondering if I should include that in my TDEE too or just a separate exercise each day. I have a Fitbit that can track calories burned. I know it s not the most reliable thing but seems better than nothing. Thank you!</t>
-  </si>
-  <si>
-    <t>Legs not straight I really did not know where to post this I wrote posture in the search bar and it popped up Fitnes.. I recently noticed when checking a picture of me that my legs are oddly rotating in It tough to describe but its like my thighs are pointing internally and my knees are caved in..Giving the shape that so when I stand its like the knees are approaching each other while the calves are further out it really looks weird and girly I dont recall having this before for whats its worth I worked out at the beginnig of this year for 4 months on SL5x5 ( and did have ALOT of growth in legs cuz SKWATS Im a lower body dominant person ) Is this a posture thing that can be fixed or a medical condition or is it normal.. I am sorry I couldnt include photos now phone broke</t>
-  </si>
-  <si>
-    <t>Triceps gains questions Been back at the gym for 2-3 months now and my arms have grown significantly however I want to know how to make my triceps actually "pop" so to speak. On one hand I read things that say you need to not overwork your arms. But on the other hand I see posts saying you need to hit them hard. What do?</t>
-  </si>
-  <si>
-    <t>Temporary callous replacement / hand protection? I lost the callous below my ring finger doing DLs yesterday exposing raw skin below. What s the best way to cover it up until the new skin hardens? Large band-aid? My ego will not survive wearing gloves.</t>
-  </si>
-  <si>
-    <t>Does anyone else shake when you lift? Through the military and school whenever I would workout I will shake, like Im struggling, but Im really not. Its mostly when I perform chest exercises. Does anyone else do this? As an example, 2 days ago I was doing DB press and Incline DB press. I had 60lb DB's and my arms were shaking like I was stuck outside during a blizzard, but I finished off 4x8 eventually getting to 70lbs for my last set without any issue. Incline was the same way. I was using 55lb DB's and noticed on my 3rd set (doing another 4x8) I can finish, up'ed to 60lb and completed 8 reps without any issues, but was shaking. I broke my wrist a long time ago could this be an issue (though I feel no pain)? What is my weak point? What would cause me to shake - stabilizer muscles?</t>
-  </si>
-  <si>
-    <t>What does r/fitness think about Dr. Greger s "Daily Dozen"? Here s a link if you re unfamiliar https //nutritionfacts.org/video/dr-gregers-daily-dozen-checklist/ It consists of * Beans (3 servings) * Berries (1 serving) * Other fruits (3 servings) * Cruciferous vegetables (1 serving) * Other greens (1 serving) * Other vegetables (2 servings) * Flaxseeds (1 serving) * Nuts (1 serving) * Spices (1 serving) * Whole grains (3 servings) * 5+ cups of water * Are these all actually good guidelines to follow?</t>
-  </si>
-  <si>
-    <t>Where can I purchase a good weight set with the tools I need Hi r/fitness over the last year I ve worked pretty hard at losing weight and getting in shape and it s going well so far! I ve gotten down to a good weight and gotten my cardio up with running/biking but when I started looking into getting stronger I saw two main options Body weight workouts and weightlifting. BW is hard for me because a number of preexisting wrist injuries that make handstands/pushups etc kind of a bad idea so I figured weight lifting was the way to go (most of the wrist issue is being pushed at/past 90 degrees like in a pushup or handstand). I decided to buy a weight set but honestly I m having trouble finding any good weight sets and I feel like I dont quite know what I need on top of that. I tried using the side bar but didn t see much about it past what workouts I should do (which did help me get an idea of what I need to buy a bit). Does anyone have any recommendations or advice on this? Thanks!</t>
-  </si>
-  <si>
-    <t>Looking for a pull-up bar that fits the funky tall wide and thick door trim of an older house! Hey fitness as the title says the door trims in my house are all sizes the world hasn t built since 1928. The trim is high up the walls are thick and the frame is wide. [So as you can see from this pic](https //imgur.com/75d1xY5) I need a pull up bar that is sufficiently wide sufficiently tall and sufficiently deep to accommodate my awkwardly sized dwelling. I d rather not bolt something in because I rent and don t want to risk losing any deposit. I only spent a few minutes on Amazon trying to find something like this and without success. I m surprised there aren t more options. Plenty of people live in older houses right? Thanks for your help!</t>
-  </si>
-  <si>
-    <t>Should I measure my farmer s walks by time or steps? So I ve added farmer s walks to my pull days for grip strength. I do them with a Fat Gripz on the dumbbell handles because I hate myself. I was thinking about how I should be measuring them. I would use distance but I have a home gym with really limited space so I m constantly turning around making it kind of pointless. So far I ve been using steps (3x32 steps) but I wonder if time would be a better measurement of progress. Maybe it doesn t really matter but does anyone have any opinion on this? What amount of steps or time would be the best for strength?</t>
-  </si>
-  <si>
-    <t>What are the best type of resistance bands? I workout at home and have the non-handle type. I have a sneaking suspicion that they get more elastic over time (less resistance). Anyone have the handle type resistance bands? Are they any better?</t>
-  </si>
-  <si>
-    <t>What happens if somebody doesn’t eat enough protein? Bodybuilding/powerlifting/weightlifting wise, what happens if an athlete doesn’t consume enough protein? Mental and physical effects? The rate that they gain strength and or mass?</t>
-  </si>
-  <si>
-    <t>M/20/6" - Why is my bench press so inconsistent? I go to just one gym which only has the one barbell. Load it up with the same plates Some days 65kg is easy other it s impossible and even struggle with 60/62.5kg. Following the Ice Cream Fitness program and while everything else is progressing bench is going nowhere. Should I strip it back to ~50kg and start again from there?</t>
-  </si>
-  <si>
-    <t>(M) 22 Need to Train for a Marathon Alright so I m 22 rounding out my last year at University and getting married soon after graduation in May. With all that going on I had to postpone my plans to run a marathon so now I m setting my sights on April 2019! I ve finished a half marathon before and have reached pretty good levels of fitness but that was a few years ago and since then I ve put on about 30 pounds and haven t exercised regularly at all. I know I have plenty of time to train but I wanna make sure I don t wait too long or get injured so I have a couple questions 1. Is there anything specific to look for when choosing a training plan? There are dozens of them out there all touting themselves as the best and I need to sift through them somehow. 2. How best can I avoid joint or fatigue injuries? I have noticed some hip and knee discomfort (I have had various minor injuries including both knees) recently when I got back into exercising. Is lifting something I should incorporate as well? And if s</t>
-  </si>
-  <si>
-    <t>Cable tricep pushdown and extensions?for push days I ve been doing both cable tricep pushdowns and cable tricep extensions after one another. Though recently I realized the latter excercise is actually supposed to be *overhead* cable tricep extensions (the app omits "overhead"). So I guess I m gonna switch to that next time? I ve been trying to figure out what the difference is between normal cable tricep pushdown and extensions - I thought the difference was between using a short bar and a rope but I m getting conflicting information searching. I also can t seem to figure out how these two excercises differ in which muscles are trained. Any help?</t>
-  </si>
-  <si>
-    <t>Phrak's Variant of the Greyskull LP program has no ab/core Hello I'm super super new to fitness in general. I'm starting out with Phrak's Variant of the Greyskull LP program since that's what was recommended after reading the getting started text. I have some questions: First I'm fat and never worked out before 6ft 230lbs of fat. Can't do pull-ups program calls for negatives instead I'm confused on how to do that. There's also nothing for core(ab area) in this program should I add planking or something? I also feel like this is just a super light program any recommendations on additional work with it? Thank you everyone</t>
-  </si>
-  <si>
-    <t>How much sugar is okay to consume per day/ meal for healthy bulking? Just started bulking and tracking my meals a little while ago. It seems that I consume about 170g of sugar per day on what I thought was a healthy vegetarian meal plan. What should my limit be for sugar intake or is this something I shouldn t worry about? 5 11" 130 lbs 22 High Activity Level 3900 Calories Workout 5 days in a week</t>
-  </si>
-  <si>
-    <t>Which days to eat protein on? I m currently training with weights 3/5 weekdays after work. On my lunch break in work I can afford to eat a high protein salad 2 or 3 times a week the other days opting for a more carb and fat heavy lunch. In my head it makes sense to have the carb lunch on days I train (energy) and the protein meal on rest days (recovery) but I know that s very basic. I will still have a whey protein shake after a weight session regardless of the lunch I ve had. I wanted to see if anyone had some advice on which way I should be doing this?</t>
-  </si>
-  <si>
-    <t>Can you combine IF healthy diet and some occasional "bad" carbs? Hey guys I have a question regarding my current eating and exercising pattern. I (20y.o.f) have never been seriously overweight and have never had really unhealthy patterns (I mean I could occasionally eat some white bread sweets fried foods etc. but along with some really nutritious foods and lots of fruit and vegetables). But almost all of my life I was on the "puffier" side don t know how else I can describe it and it was extremely hard for me to loose weight and appear leaner even though I couldn t imagine my life without being active (not always in the gym sometimes running swimming dancing lots of walking on a daily basis etc.) Almost half a year ago I started really really focusing on eliminating as much sugar and white bread from my diet as possible and I maintained this lifestyle with very minor cheats for approximately 4 months. However even though I combined this eating pattern with my usual active lifestyle my wei</t>
-  </si>
-  <si>
-    <t>Nothing but "GPP"? I m getting back into exercise after a long lay-off. When I go into the gym I find myself drawn towards high-intensity cardio and "GPP." For instance tonight I did 2000 meters on the rower and several rounds of prowler pushes super-setted with farmers walks. If I did nothing but workouts like this for a while say several weeks what might be the pros and cons? Is this just a stupid idea? For context I m mostly interested in losing fat. I know this comes down to nutrition.</t>
-  </si>
-  <si>
-    <t>Question about nutrition for Shortcut to Shred by Jim Stoppani Hey guys Im a 21M that is slightly overweight and looking to lean out. I ve always been very athletic and active but have never been able to stick to a diet. I was reading over the nutrition plan recommended by Dr. Jim Stoppani for the workout routine short cut to shred which I just started. He uses a 200lb male as an example for how many calories to eat/day and what % of macros. I am a 200lb male so I found this convenient. However he states that a 200lb male should start his cut eating 3700 calories per day (1.5g/lb Protein 2g/lb Carb .5g/lb Fat). Now I workout twice a day with lifting and Jiu-Jitsu and am very active but never in my life have I even considered a CUT that would afford me the ability to eat almost 4000 calories a day. That seems incredibly excessive since most plans for my body type recommend &amp;lt;2500 calories. Do you think it is a good idea to give this a shot and see if it actually works or should I just stick to</t>
-  </si>
-  <si>
-    <t>Having a hard time hitting ~3000 calories. So background. I m 21 and weigh 155 and 5"11 tall. I ve been trying to bulk up but I feel like I hit a wall when it comes to eating. My appetite is really low (mainly because if my thyroid problems) and I m feeling frustrated that my progress is being stunted because of this. Has anyone had any similar problems ? And how did you overcome it?</t>
-  </si>
-  <si>
-    <t>I weigh 280 lbs and I have to run up stairs for work 6 days a week, will I destroy my knees? So I recently got a job as a newspaper delivery man and the job involves running up a lot of stairs, it's very difficult to estimate how much, but I'd say all in all, my 4 hour shift involves perhaps 1-1,5 hours of running up stairs. Considering I weigh 280 lbs, I'm a bit worried that I am destroying my knees doing this, people have advised me before to not run until I get down to 230-ish lbs or so and I'm guessing running up stairs is worse. My stats are: 21 years old, 6 foot 2, 280 lbs. I will be doing this job for 1-2 years, 6 days a week and even if I lose the weight rather quickly I will put stress on my knees for several months, could this leave me with permanent damage? Should I be worried?</t>
-  </si>
-  <si>
-    <t>Winter break home routine equipment purchase Hey all College student here home for 1 month for winter break. Gym membership cost not worth it for just 1 month decided to work out at home. Planning to buy this [60-lb dumbbell set](https //www.amazon.com/dp/B0077XVIS6) and this [pull-up bar](https //www.amazon.com/dp/B000HBUNAO). Using the dumbbells for bench press hammer curls bicep curls overhead triceps extensions shoulder press side lateral raises and dumbbell squats. Using the pull-up bar for (obv) pull ups. Any suggestions/tips would be appreciated. Thanks.</t>
-  </si>
-  <si>
-    <t>Time spent at the gym? When I first started lifting it was a couple years back when my friend at college started. He had started a couple months before me and convinced me to get into it too. I started working out with him and he seemed pretty knowledgeable and we d spend 2-3 hours in the gym. I m out of school know have been for about a year and a half and workout on my own. Doing some browsing on my own advice that comes up a lot is you don t need to spend that long in the gym. On my own I ve been spending anywhere from 1.5hrs in the gym to 2.5hrs between 2-4 days a week. Apparently that s too long. I can maybe see the 2-3hrs in there if I was lifting with a partner but I m not anymore and it does seem like I spend too long in the gym. I usually hit 3 different parts with 3-4 different lifts 4 sets 8-10 reps but I don t really have a set rest time- just whenever I feel ready to start the next set I ll start. Is my problem too long of rest or too many lifts/sets/reps? How long do you spend in the gym</t>
-  </si>
-  <si>
-    <t>3x5 For Hypertrophy? If volume is king in inducing hypertrophy then why do so many hypertrophic routines like PPL use a 3x5 rep scheme on compound lifts?</t>
-  </si>
-  <si>
-    <t>Question regarding calories.. Hi all! Sorry if this is a stupid question but I have heard mixed reviews regarding this question! So I am cutting on about 15-1700 calories a day (TDEE of 2400) however I usually have a day off for drinks/dinner etc! What I wondered was (exaggerated example) say I cut 1000 calories a day 6 days a week so a 6000 calorie deficit but then on one day I had went to a 7000 surplus (just on the one day) would I technically get fat? Or can your body only consume so much? Thanks In advance!</t>
-  </si>
-  <si>
-    <t>Is lifting 6 times a week too much? Hey everyone! By no means I am trying to sound arrogant or anything it‘s just that lifting became a really fun hobby of mine and I was wondering whether 6 days/week are just too much? I‘ve read on multiple sites online that you should avoid training more than 4 times a week. Are 6 days hurting me more than benefiting and should I slow down or am I okay with going that frequently? I am currently doing a PPL routine. Never longer than ~60 mins @ the gym. Any help/advise/insight would be greatly appreciated! &amp;lt;3</t>
-  </si>
-  <si>
-    <t>Is it true that this leg machine is useless? A friend of mine who works out quite a bit recently told me that the leg machine that s suppose to work your inner and outer thighs(opening and closing your legs) is actually useless. Just curious about your input!</t>
-  </si>
-  <si>
-    <t>Is there former fat guy muscle memory? Hi Everybody lets for example take 2 people 6 feet tall. One weighs 250lbs and the other one 150lbs. Now the 250lbs person loses weight just by reducing calories and goes down to about 150lbs bodyweight. Now if both people start resistance training will the former fat person regain the muscles he lost during the weightloss and therefore build muscle faster than the skinny person?</t>
-  </si>
-  <si>
-    <t>Downsides to fasting for 12 days instead of 12 week cut? So over the last 5 days I've kinda not been eating that much. Maybe 400-500 calories a day. And I have been shedding weight. Around .75-1 lbs per day. I've been trying to get back on the cut routine for the last 3 weeks or so and have been having a hard time getting the scale to move downwards (hovering at around 155-157.) . But over the last 5 days I have lost 5 lbs. But this is my logic. If I am loosing 1 lbs a day, its only 12 days of a really shitty life compared to 90 days of a sorta shitty life. I would rather just knock it out as fast as possible and then start the traditional 12 week slow bulk. My question is, is the weight I am loosing right now the same as the weight I would be loosing over a 12 week cut? From what I've read the body primarily eats fat for energy when fasting. It's only when fat is gone it will then start to use muscle (I understand there is SOME muscle loss when cutting, but its primarily fat.)</t>
-  </si>
-  <si>
-    <t>A burning question about arm wrestles Me and my friend started working out about a year ago. Before we started my friend was already naturally stronger than me and beat me every time at arm wrestles. His biceps and triceps just happened to be leaner and larger than my own. A year later (note we both have been exercising in very similar amounts) I ve gained some noticeable muscle but my friend as expected has clearly stayed ahead of me with stronger bi s tri s and forearms (we lift the same amount of weights usually) But strangely enough this time around I managed to beat him. I ve tried looking into the muscles that work when arm wrestling but all of his seem more stronger at the touch. And yes I made sure to check if I was accidentally wrestling using incorrect form which I wasn t. Is there more to muscles than just size and toughness that may be taken into account to explain this? (Arm length is about the same)</t>
-  </si>
-  <si>
-    <t>Burning calories walking vs running If you are going a distance say 5km do you burn the same amount of calories more or less if you walk or if you run? Obviously running the heart rate goes up more but you are quicker so you get there faster which means less time moving. Walking is more gentle but you will be walking for a longer time so in terms of calories burned does it work out more or less the same?</t>
-  </si>
-  <si>
-    <t>Is it possible to get a six pack without diet? (Male here 1.78m 78kg) As if not consuming more than 1700-2000 kcal per day but other than that eating whatever. Can I get a six pack just by working out? If so how much harder than a combination with proper nutrition would it be?</t>
-  </si>
-  <si>
-    <t>I'm doing cheerleading, and I'm a base. I have lots of leg strength, but I want to get more explosive power. Are there any exercises I can do to increase explosive leg power? Edit: I just wanted to say thank you for all of this great advice. I'm reading through it all right now, and I'm very excited to incorporate it into my workouts. My main goal is to impress the coaches and team, and I think that I'll be able to by the first competition! Thank you for helping make this rookie better!</t>
-  </si>
-  <si>
-    <t>Wide vs close grip pull-ups? Which variant do you prefer? And could you please announce what differs between those two variants? Thanks and a nice rest weekend</t>
-  </si>
-  <si>
-    <t>1.5 Months to decrease mile time by a minute. I currently run about an 8 00 mile and I d like to get it down to as close to 7 00 as possible in about a month and a half. I currently run 3-4 times a week (can t do anymore because of school/lifting for my sport). Any tips or suggestions would be greatly appreciated.</t>
-  </si>
-  <si>
-    <t>Beginner Maintaining Pace? I'm a beginner. Can run a non-strenuous mile in 9.5min as of now a 5k in 35-40 min.In all my runs I get slower as the run progresses. In 1 mile runs the pace can go from 9min-10.5min/mile. In 5k runs it can go from 11min/mile to 15min/mile.Which means I'm running too fast to start and maybe also not pushing myself at the end?I've been using RunKeeper (free). RunKeeper seems to have a a shortest audio stat interval of 1 min.Is there an app that will tell me to speed up / slow down based on desired pace range? Is there an app that will tell me (somewhat accurately) my current pace in 30 second intervals.Or should I just not worry about pace and go at whatever pace feels sustainable?</t>
-  </si>
-  <si>
-    <t>Really confused about the deadlift Should you tilt your pelvis forward or "tuck the butt in" and tilt it backwards? So I m quite the newbie. Started about a month back doing Phrak s GSLP. I ve noticed that in the deadlift not only am I feeling nothing in my hamstrings and glutes - I m also putting a huge load on my quads. It just feels like a fancy squat with my quads being fatiqued before any other muscle (and lower back also taking some beating though not a lot). Filming myself I noticed I have problems with the lockout. I feel like I squeeze my glutes completely but in the video I just look like a duck with my butt sticking out. Heard in a few places that you should tuck your butt and go into posterior pelvic tilt and initiate the movement by hinging at the hips but also seen wayyy more people advocate to "push the butt back". I m completely lost. What is the right answer? Thanks in advance! Tell me if you want a video of my atrocious duck-deadlift. Hope this thread will help other confused l</t>
-  </si>
-  <si>
-    <t>Please help me pick which piece of equipment! I am having a little trouble deciding which of these two machines I should buy GHD https //www.titan.fitness/gym-equipment/other-gym-equipment/glute-hamstring-developer/glute-hamstring-developer.html OR this Dual Hyperextension https //www.titan.fitness/gym-equipment/other-gym-equipment/glute-hamstring-developer/dual-hyperextension.html I have never used a GHD and I am wondering if you can still do hyperextensions (albeit 90*) on them effectively? The thing that I like about the dual Hyper is that you can do them at 45* and 90*. I have a setup in my garage gym to do Nordic Ham curls and I kind of suck at doing them so a proper GHD might make it a bit easier and more comfortable to get better. There are lot of other exercises that I can do to effectively strengthen my hams and glutes but I am still confused. Can you do hypers effectively on a GHD? If you guys/gals had to pick one of these pieces of equipment which would it be and why? Thank you so m</t>
-  </si>
-  <si>
-    <t>Soon-to-be-homeowner planning my garage powerlifting gym. Advice? Wife and I signed on our first house last week and I am really pumped (so to speak) about putting in a home gym in the garage. Nothing fancy power rack &amp;amp; bench olympic and hex bars some plates and barbells. My reasoning for investing in this setup is mostly to save on time - between work &amp;amp; baby taking time away at the gym is getting harder and harder. I also just like being at home and don t really see the gym as a social place. For those of you who have invested in a similar setup any advice? Dos/don ts? Non-obvious stuff I should spend on versus stuff I shouldn t?</t>
-  </si>
-  <si>
-    <t>PPL at Planet Fitness Had to relocate for work. They offer free membership to Planet Fitness. Is it possible to get a good PPL workout with them not having many free weights or racks?</t>
-  </si>
-  <si>
-    <t>Science of Growth Hypertrophy and Building Muscle w/ Brad Schoenfeld [Video](https //youtu.be/Uc265c-tLGY) Brad Schoenfeld is perhaps the preeminent researcher of the science behind building muscle. In this video he discusses what peer-reviewed studies have shown about * How important is nutrient timing? * How much protein is required? How much can your body use at once? * Are dirty bulks necessary or can lean muscle be added without fat gain? * How many sets are shown to work best for muscle gains? (10 sets/muscle/week much better than 4) * Reps per set doesn t matter (as long as you hit a certain *volume load* ~~level~~) for hypertrophy but for strength lower rep ranges are vastly superior * Edit Short rest periods aren t the gospel. Long ones work better for squats even at light load. There s much more than what I ve summarized. Tons of information packed into one 46 minute video (which can be watched faster on a computer by hitting the &amp;gt; key). Give it a view and discuss. Edit I s</t>
-  </si>
-  <si>
-    <t>Question about starting Bigger Leaner Stronger About to begin the program but unfortunately due to cash limitations at the moment I will be going to a Planet Fitness. Would it be more beneficial for me to begin the workouts using the Smith Machine or just replace all the barbell exercises with using dumbbells? The one I go to has dumbbells that go up to I think 70-80 range. Or should I use the dumbbells for bench and Smith for squats? I m fairly new to lifting but I ve always been in decent shape (runner body weight stuff).</t>
-  </si>
-  <si>
-    <t>Caffeine and long winters. Questions! Hey I m from northern Norway and it gets really dark here. I mean we get no daylight at all. I ve been drinking Monsters Zero Sugar Free and it helps but I m wondering if I should stop? Without them I cant really focus or do anything since I m kind of half awake. I workout 6 times a week + the little daylight fucks me up bad. I eat 4 big meals daily. Any advice to keep my energy level good?</t>
-  </si>
-  <si>
-    <t>Got sick during recovery week Hello All So I took a break from lifting 4 days ago just to recover for one week. But during those 4 days I got sick and felt really tired and bad. I am recovered now. So right now I am not sure my body rested enough and If I should extend the week couple days more or not. What is your advice?</t>
-  </si>
-  <si>
-    <t>What can I do to prepare the night prior in order to have a great lifting session the next day? What things could I do between now and bed time in order to have a great lifting sesh tomorrow? Furthermore what things can I do from when I wake up to when I actually hit the gym? Ideally someone would give me a time line of the 24 hours prior to getting into the gym that lead to the best lifting session of my life. Thanks all!</t>
-  </si>
-  <si>
-    <t>1 chin-ups day 1 2 during day 2....365 on day 365. Hey All Just wanted to ask a bit of advice. A new years resolution of mine is above. Throughout the year I am increasing my chinups up to 365 during dec 31st (not all in one set!). I am not the workout type but have a solid pullup bar and enjoy them so thought why not! Going on day 22 so good so far but curious what people s opinions were. What are your main pieces of advice? I assume the top one is to keep good form but I expect there are many I just havent thought of! I appreciate any input. Cheers! EDIT I apparently havent made it clear sorry. This isnt 365 in a set. Its 365 in an entire day.</t>
-  </si>
-  <si>
-    <t>Very sore in lower back after squats Doing 531 for beginners and getting very very sore in my lower back after squat day. As in can t really put on my socks while standing sore. Previously done Phraks for 3 months like the wiki recommends. Didn t have this big an issue then. Thinking it might have something to do with my form? Here s a video of my amrap set at the second week (85% if I remember correctly) [Form check ](https //streamable.com/fggiy) Doing plenty of warm ups (agile 8 plus box jumps plus 40% 50% 60% build up before 531) and trying to stretch every evening before bed. Anyone see anything obviously wrong with the form?</t>
-  </si>
-  <si>
-    <t>Has anyone tried Kris Gethin s 4 weeks 2 shred? If so what were your results/opinions of it. Has anyone done this plan? I d like to hear your results issues criticisms of it as I m trying out right now for myself and wonder if there is anything I should modify about it.</t>
-  </si>
-  <si>
-    <t>Going maintenance after cutting; considering switching macros. A few questions. Hi all. I m a 25 yr old M 5 8" and just weighed in at 141 lbs after cutting down from 183. I want to start doing maintenance for a few weeks before I begin bulking and have been tracking my weight with MyFitnessPal. For the past several weeks I have had a daily net calories of 1520 and now that I switched my goal to maintenance the app is jumping my net calories all the way up 2020 per day. This seems very extreme and I m afraid going from 1520 to 2020 will cause me to gain weight (fat) because my body is used to a very low number of calories. Should I gradually build up to 2020 in maybe 100 calorie increments per week? Or should 2020 be ok to maintain? ******* Also I m thinking of switching my macros around. I ve been at 55% fat 35% protein 10% carbs for several months but now I want to take 25% from fat and add it to carbs (in the form of more vegetables fruits fiber). As long as the calories are controll</t>
-  </si>
-  <si>
-    <t>Best way to do HIIT on exercise bike? And just in general - I m mainly wondering intervals for time. I m not new to HIIT but I ve taken a break from it and want to get back into it. I used to do longer intervals but I feel like in order to give my 100% effort the sprint intervals need to be shorter. What has worked best for you/what is recommended?</t>
-  </si>
-  <si>
-    <t>Can cables essentially be used as weighted versions of resistant bands? What I mean is that resistant bands have a certain amount of resistance to them and by using cables you can increase the resistance and become stronger at the same time.</t>
-  </si>
-  <si>
-    <t>Generally is muscle lost on a deficit more than fat is gained on a surplus? More specifically if I know I am *not going to be lifting for some time* should I eat above maintenance to preserve muscle or below maintenance to stray off fat gain? I know the answer is “its preference” but assuming I don t want fat as equally as I want muscle which is the better answer? Intuitively I would figure that I should eat below maintenance but with more protein. Is this correct for my aforementioned situation? Thank you in advance and if anyone could at the least point me to a resource that would be great!</t>
-  </si>
-  <si>
-    <t>If you failed a PR, should you go for round two right after? Recently I attempted a deadlift PR and failed, and it got me thinking if I should really go for a round two or not (I did try and fail again lol). On one hand it seems kinda irresponsible since you might take a trip to snap city, but on the other I've seen people do multiple attempts on different lifts. Bonus question: If your form on a PR was pretty bad, would you redo it/not count it?</t>
-  </si>
-  <si>
-    <t>Question about cycling preworkout. I researched preworkouts and bought Transparent lab s preseries seeing that it was the "safest" and had no proprietary blends. This is my first time taking preworkout and I know that you have to cycle them. But that s assuming you took preworkout every single day that you go to the gym. I was wondering if I only took preworkout twice a week (M/Th bench days) would I still have to cycle? And if so after around how many weeks? Thanks.</t>
-  </si>
-  <si>
-    <t>Chin-ups goal I have 50 days to go from being able to do 5 chin ups to being able to do 10. I weight about 65kg. Any advice appreciated I understand it may not seem like a big goal (I dunno?) but I have never done routine exercise like this sets or whatever. Should I just do as many as I can every 30 minutes or hour (I have a pullup bar)? Or should I do a few repetitive sets? Thanks</t>
-  </si>
-  <si>
-    <t>PPL 4 day split? Hey I ve been researching doing PPL and everything I ve read has been super helpful but the workout I want to do is a little bit different. I can only do 4 days a week and I am running on the off days. My was to do Push pull legs and an upper body workout to get each major muscle group a second time. Any advice on this? I know starting strength would work for me but the squatting/leg work been affecting my running performance. Newbie question and I know I don t need to fill out the next part but oh well the more info I can get to you the better. Weight 83.2 KG Height 6 ft Sex Male Age 26 Your Goals Muscle gain lean body Any injuries or disorders that we should know about Nope Do you smoke? No Do you have access to a gym? Yes</t>
-  </si>
-  <si>
-    <t>warning sign on myprotein (lab door) I was browsing labdoor.com and was startled by a warning sign on a protein product i ve used multiple times. (myprotein impact whey) https //labdoor.com/review/myprotein-impact-whey-protein [WARNING These products contain lead and mercury chemicals known to the State of California to cause cancer and birth defects or other reproductive harm.] what does this mean? Does the powder itself contain these chemicals? or maybe the plastic tub itself? Got me worried! Thanks</t>
-  </si>
-  <si>
-    <t>Question about fasting Hello all. Over the past few months I ve been reading up and watching videos about intermittent fasting (mainly Dr. Berg videos). I ve also been trying to get in that routine but my current work schedule makes it a little difficult. I work a weird night shift schedule T W off off Sa Su Mo off off Th Fri off off off. So my sleep schedule changes every couple of days to where I m up all night and sleep during the day when I work and back to sleeping at night when I m off. I typically stay up when I get off at noon on my last work day so I can sleep that night. My question is how do I manage the eating and fasting times with this schedule? I m trying to do the 8/16 but not sure if or how I should adjust the hours. Thankfully I m only working this shift for another couple months but id like to get the process started if I can. Thanks for the advice in advance.</t>
-  </si>
-  <si>
-    <t>Best type of exercise for overall fitness and mental acuity? I don t have any sport or competition goals nor do I want to be a specific body type or size. What s most important to me is - Being able to execute a wide range of physical tasks (digging hauling construction materials long-distance walking climbing lots of stairs running with dogs playing with children etc.) without feeling like my body is going to fall apart. These are all activities I feel that I should be able to do in fairly high volumes. - Maximizing mental acuity. I currently feel foggy and like I m operating at about 50% of my mental capacity all the time. This is also likely influenced by diet and sleep (which I m working on improving) but exercise plays a huge role as well. For context I m a 27-year old male with beginner lifting experience (I ve done 3x5 Stronglifts in the past but not in several months) and several high school sports. My current activity level is walking up and down the 4 flights of stairs to my apartment</t>
-  </si>
-  <si>
-    <t>Running at various times of the day Curious if it matters. Is there a reason one should try to run in the mornings/evenings? Any tangential health impacts (positive or negative)?</t>
-  </si>
-  <si>
-    <t>I am afraid of doing heavy squats and deadlifts because of an old accident. About 2 years ago I injuried my lower back while doing a pretty light deadlift because of my terrible form. I think I did everything wrong while lifting that weight and I immedietly knew something was wrong. I couldn't move out of my bad for 2 days, the pain was too intense in my back, especially in the lower part. I could not do any sports for around 3 months because of terrible lower back pain. So in that period of time I was doing stretches, I went to chiropractor few times and after like 5 months of taking care of myself, everything went back to normal. Even though I managed to do a 90 kg / 200 lbs deadlift today, my buddy says I could easily do 110 kg / 240 lbs. But I am afraid as hell, how do I overcome this? Do I have a 100% gurantee that with a perfect posture and technique I won't injure myself?</t>
-  </si>
-  <si>
-    <t>Logging progress Can I get some recommendations for an App on iPhone or Android for logging how much I m lifting for each exercise. I could make an excel sheet but I m lazy</t>
-  </si>
-  <si>
-    <t>Did incorporating or increasing your carbs improve your workouts and lifts? I ve been on Keto for a while now. Fell off a few times but the past 2-3 months I ve been pretty strict and dropped about 20 pounds of which I had put on over the Summer eating junk. The last week or so have been really hard. Really feel that burn almost 24x7. I am at that point where my goal has changed from losing weight to actually putting on some mass but first I would actually like to drop a few more pounds before I start eating at a surplus. This is a question for anyone that has been limiting their carbs; did you start feeling a little better and did your workouts improve when you started incorporating more carbs post workout? When I say increasing carbs I mean maybe around 100-150g. Edit I think I am going to start with maybe 100-120g of carbs daily. Will start small and see how that works. What would be best - before or after your workouts or split them evenly before and after? Am definitely no planning on eating any c</t>
-  </si>
-  <si>
-    <t>Question on hitting macros I have hard time hitting my protein goals since I'm broken af. But I do have access to eat good carbs and healthy fatty foods. Will it impact my muscle growth? I hardly cross 100gms in protein. Are there any protein sources that are cheap and affordable?</t>
-  </si>
-  <si>
-    <t>Tracking calories burnt on a stationary bike I recently got a stationary exercise bike in the house planning on using it daily for at least 30 min and once my stamina isn t as bad go into HIIT for fat burn. I have a fitbit Alta HR and was wondering if the exercise reading on it combined with the heart rate sensor would be a good indication of calorie burn? Also how should I start with the bike? I do weight training but I haven t really done cardio in a while so am quite out of shape.</t>
-  </si>
-  <si>
-    <t>Weak squat Anyone else have a relatively very weak squat? Im doing the beginner ppl routine and my current bench max is 5 sets of 120 x 5. This is the exact same weight/reps/sets as my back squat max. I understand that a typical ratio has a bench number at approximately 75% of back squat. Does anyone else have or had this weakness? Did it "correct" itself over time? I.e. Did your squat progress faster than your bench until that approximate 75% ratio was achieved? Im doing my best to stay with perfect form. I could squat heavier but not without letting my knees float inwards or have my back lean forwards.</t>
-  </si>
-  <si>
-    <t>What do I do to improve my balance? My balance pretty much sucks and I would like to know if there are any exercises I can do to improve it? Edit thanks for all the great responses guys and gals I m sure I ll be solid as a statue in no time haha</t>
-  </si>
-  <si>
-    <t>At a turning point with my fitness goals and am unsure about nutrition. F/29/5 5"/128 lbs. A few years ago I was 235 pounds and finally decided to do something about it. It took me a really long time but I finally hit a BMI of 21 and am pretty happy here. I have been lifting casually for a little over a year and recently (within the past three months) have gotten more serious about it. I went from barely being able to squat an empty bar to squatting 130 today which isn t really impressive but it s a huge turning point for me. My problem is this I am ravenously hungry all of the time. I am maintaining on 1500 calories (with ~1700 calories on weekends since this is when I train the hardest). I tried maintaining on 1700 a day two months ago but I ended up gaining some obvious fat and went on a cut for a month. Now I m back to 1500. I try to reach an absolute minimum of 80g/protein a day but even when I m well over that goal I m HUNGRY. According to SailRabbit s TDEE calculator at my current activity</t>
-  </si>
-  <si>
-    <t>Mixing high reps and low reps on different days in same week Yes I read the wiki and my question is NOT "what rep range should I aim for." My question is "is it better to focus only on one particular rep range or can I shift between rep ranges in the same week?" For example suppose I do a full body workout 3 days a week and I do bench on all 3 days. On Day 1 I aim for high reps (12-16 reps) on dumbbell flat bench. On Day 2 I do one-arm dumbbell bench press (both low and high reps). On Day 3 I aim for high weight but low reps (4-8 reps) on dumbbell flat bench. Or suppose that I pick one rep range and keep increasing weight from there? Which of the two is "better?"</t>
-  </si>
-  <si>
-    <t>Two questions from a complete beginner Hi everyone I ve been doing bodyweight exercises for about a week and feel ready to start hitting the gym starting next Monday. I have found this program which I feel suits my needs (I want to be in good shape to start volleyball after half a year of pause with pretty demanding trainings and I also want to gain some muscle mass) https //www.muscleandfitness.com/workouts/workout-routines/complete-mf-beginners-training-guide-plan I have two questions regarding the training though 1) I m really a noob concerning weight what weight should I be using for the exercises? If it depends on my own capacity what sensation should I go for? 2) I m wondering how much time is ideal between sets. Also should I do all three sets one after the other or go around every exercise thrice (or does it even matter)? Thanks in advance for your precious insight!</t>
-  </si>
-  <si>
-    <t>Help with diet and exercise for someone who struggles to grasp it. I have visited this subreddit for years never participated but have read the FAQ and applied some CICO. I ve gone from 225 to 180 pounds (6 1" 30 year old male). All things considered I m proud of what I ve done. It s still a struggle at times to not binge. My goal is to get down to 165. So that said I ve done all this without focusing on working out and without focusing on the content of what I eat just focused on calories. CICO is very easy. That said I ve hit a major plateau and I need to add exercise and start focusing on carbs and all that I think to hit my goal or at least lose some fat and gain muscle weight and end up somewhere around the goal and my current weight but with less body fat. I don t know if I have an undiagnosed learning disability like ADD or what but the moment I start reading about working out the science behind it and things like protein and carbs and all that that effects your progress when trying to ge</t>
-  </si>
-  <si>
-    <t>HIIT advice I like lifting but I feel like I m not getting the weight loss What are the best types of programs to use ( ex. Insanity) in order to cut the fat quickly?</t>
-  </si>
-  <si>
-    <t>Are Planks really that bad? I ve seen a ton of people say planks are a waste of time and that you should do things like cable crunches and leg raises. I just dont feel much of anything when I do cable crunches and my grip strength fails on me. I cant do hanging leg raises and I know about the progression but I always end up skipping those because they bore me. Ive always liked Planks and i feel insane burning in my abs when i do them (the good kind). I know they arent the best ab exercise but are they really a waste of time? Will they not build a solid enough core until it s strong enough to handle the standing ab roller? Are there any plank variations that are more effective?</t>
-  </si>
-  <si>
-    <t>10 weeks to prepare for basic. Hi. So in high school before i had kids i ran on cross country played basketball and softball. I tore myACL twice it s been repaired. That was 4 years ago the surgery. Well i leave for basic training Feb 6th. I have 10 weeks. How can i prepare my body. My mile is 9 30 right now trying to improve that. My push ups are miserable. I can do 10 in 2 minutes right now. But i started out at 0 in August. I can do 1 pull up which is pathetic to me but to pass the final PT test you aren t required to do any. What are tips to improve my body anyway possible I m heading back to get a gym membership tomorrow. I m 5 8 and 138. I eat pretty healthy when i remember to eat (#MomLife).</t>
-  </si>
-  <si>
-    <t>Can t keep up with muscle gaining routines because of depression Hey folks. Haven t been on this subreddit before so hopefully I m not breaking any rules or anything. I m an 18 year old skinny male who weighs 130 lbs (also 5 9 if that helps). I m not completely out of shape; I m able to do cardio 3 times a week on my treadmill (about 5k which takes around 40 minutes). Our family owns one of those [home gyms](https //www.amazon.com/Marcy-150-lb-Multifunctional-Station-MWM-990/dp/B00JGRBSS6/ref=sr_1_4?s=exercise-and-fitness&amp;amp;ie=UTF8&amp;amp;qid=1512110698&amp;amp;sr=1-4&amp;amp;keywords=home+gym) and I ve attempted a couple of apps and workout routines in an attempt to gain muscle off and on over the past year. I struggle with depression and subsequently the motivation to complete a workout. I m too exhausted (from depression often) to go to failure and never see enough gain to keep me going. Couldn t keep up the energy to make protein filled meals and stuff like that. I just can t do it. I ve done some googling</t>
-  </si>
-  <si>
-    <t>Do you guys test your 1RMs? If so how? Before your workout? And do you just test a particular weight and if you can do it properly wait until the next workout to do it again with 5lbs added? Or do you just plug in your 5RM or other weights into an online calculator to figure it out?</t>
-  </si>
-  <si>
-    <t>Guys with "skinny" forearms or feel like their forearms are why they look small in a shirt I m a small person height and weight wise and I feel like because of my small forearms I just look like I m the same size as if I didn t lift at all ever if I m wearing a shirt that covers up my upper arm. So I ve decided to start incorporating some forearm exercises into some days of my workouts. Might even consider doing it two times a week just to see how big I can get it in a month or so. I know that genetics play a role and you can t ever actually change the size of your wrists... but like I read the only way to make your forearms bigger would be to work them out directly... and while you can t make them bigger than your genetic limitations you *can* still make them bigger -- so that s why I m trying to give this a go. Just wondering if anyone here had any experiences with lack of size on the forearms and actually started working it out and noticed a difference. Even though I ve been lifting for almost 10 mo</t>
-  </si>
-  <si>
-    <t>Is the cold bad for muscle growth? You need post workout inflammation for muscle growth the cold combats inflammation. So will taking cold showers or not dressing warm fuck with your potential to grow bigger?</t>
-  </si>
-  <si>
-    <t>Why do legs cramp more often than other muscle groups? I m just getting back into lifting. Nothing too strenuous. After a workout my arms back chest etc is tight . That good kind of tightness. However during and after my leg workouts my muscles just go crazy. I stretch a ton before and during but my leg muscles seem to hurt a lot more than any other group. Is this true for everyone or is it just something I need to work through? For example I can do 40lb dumbell curls and be fine but just using my bodyweight for calf raises causes cramps. What s the deal??</t>
-  </si>
-  <si>
-    <t>Is there a consensus on whether to lockout during exercises? After noticing a comment today and after having never really thought about it I was wondering if there is any consensus or science behind whether to lockout say your arms during bench press etc? Is locking out dangerous? After doing some research I m just finding conflicting opinions with each side claiming to be right and having data to back up their claims but in true internet forum fashion the follow up never arrives. Personally have always locked out for a brief second each rep as to me that felt like I had done the full ROM but seeing people saying not locking out prevents bad tension on joints and allows the muscles to be continually under tension and that it s better not to lock out.</t>
-  </si>
-  <si>
-    <t>How much protein from supplements vs other sources? So I m trying to put together a new solid diet plan and I m unsure how to figure how much protein to consume from the source vs consuming whey protein supplements. What s a good target? Currently I m aiming for 220 grams approx 50 from supplements. Can I do 75 grams or more instead? Tired of cooking and eating so damn much!</t>
-  </si>
-  <si>
-    <t>Is Fat always stored in the same places? So let's say you cut down a big deal of weight and make those sweet face gains, will the body, when bulking again, store fat in the face again or is it just random where fat will be stored?</t>
-  </si>
-  <si>
-    <t>Micro weights / plates for more consistent progress / faster plateau breaking Hi reddit! The smallest plates at my gym are 1.25kg and the dumbbells increase by 2.5kg each which makes the transition to the next higher one a tad hard sometimes. 1) What are common places to buy your own 0.625kg plates at? 2) Is there any way to add weight to non-plate dumbbells at a gym? If there was a way for me to add 1.25kg per side it would greatly benefit my progress. I thought of light chains that I could wrap around / lay on the handle or smth. similar but that sounds kinda wack tbh. Looking forward to your ideas</t>
-  </si>
-  <si>
-    <t>Muscles look smaller during weight gain? Hello Is it normal for muscles to look smaller while bulking? I feel like my chest looks flatter now compared to what they looked like 5-6 lbs ago. Am I imagining it? Maybe as my stomach gets bigger it makes my chest look smaller? Here s some background naturally slim guy. In September 2016 I was about 155-160 lbs (5 11") but went all the way down to 142-143 lbs by April 2017 because of health problems. In April I started doing Body Beast again while increasing my calorie intake. I am currently 161-163 lbs and working on gaining more (my current target is 170 lbs once I reach that I will probably try another 10 pounds then cut). Trying to eat 3200 calories a day; mostly milk bread goat cheese tomatoes cucumber butter honey Nutella banana yogurt orange juice potatoes ground beef stew meat whey protein (sometimes ice cream and fruits.) Thanks.</t>
-  </si>
-  <si>
-    <t>Doing bench squats and Deadlifts on same day for all body workout? Is this a bad idea? If so how do you fit the big three into a balanced all body workout</t>
-  </si>
-  <si>
-    <t>Will doing squats and no deadlift be bad for my knees?? I have never been a serious deadlifter. It s the most exhausting one and whenever I do it I feel super lazy the rest of the workout so usually I just do all other exercises first and sometimes do deadlift last. I squat 3x a week. Because squats don t work hamstrings as much as deadlift if I keep squashing a lot and don t do any hamstring direct work will somehow damage my knees? Or is the amount worked in squats enough? For the record my knees still feel healthy now..</t>
-  </si>
-  <si>
-    <t>Nutrition Q for vegetarians - where does your protein come from? I m trying to phase meat out of my diet but struggling to get 120-130g protein per day without it. I usually have a double scoop protein shake (50g protein) each day and can only eat so many eggs. Where does the bulk of your protein come from? ++ if it s meal prep-friendly</t>
-  </si>
-  <si>
-    <t>What is the relationship between energy balance and muscle gain? Does a diet with a caloric surplus of 1000 kcals result in more muscle gain than a diet with a caloric surplus of 500 kcals assuming that the only difference is 500 extra kcals of rice (for example) and not something nutritionally important? Has anyone performed any studies on this? Another interesting question is if you have a low caloric surplus of let s say 100 kcals (being this precise is of course almost impossible but think hypothetically) and assuming you regularly do resistance training will all of your weight gained be muscle as opposed to fat or will you always gain a certain amount of fat no matter how small your caloric surplus is?</t>
-  </si>
-  <si>
-    <t>Let s talk about the resting squat So we know that squaring is a very primal movement. As babies and children we get into this position constantly with no thought at all It is believed that our ancestors did as well. In less developed countries you can see people going into a flat foot squat to relax to eat or hangout. They ll sit in this position the way we sit in chairs for extended periods of time. It s theorized that the sitting position we do in chairs is unnatural for human bodies and causes imbalances and loss of mobility in the hips and thighs. It s also theorized that by hanging out in a resting squat throughout your day you might even be able to reverse some of this damage done! What are your thoughts on this?</t>
-  </si>
-  <si>
-    <t>Deadlift stuck with varying results each training day. I m at a complete loss so I ll ask how I should proceed. At the start of November I progressed in deadlift to 185kg lift after managing 180kg X 5 set. After that results have varied a lot. Some days I only get 1 rep sometimes 3 or 4. However I have not reached 5 reps in one month. I m currently on a cut but how should I proceed? Should I keep hitting the 185kg lifts in deadlift or deload a bit? Edit Thanks for all the responses! I ll go with a slight deload and then work my way back up!</t>
-  </si>
-  <si>
-    <t>Is it a waste to go to the gym if you can only get 5 hrs of sleep a day Due to working graveyard shifts and being a full-time student I only get 5 hours of sleep but I still want to build lean muscle</t>
-  </si>
-  <si>
-    <t>Nutrition Labels Are Inaccurate. And that Doesn t Matter. #[Link to Article](https //www.strongerbyscience.com/nutrition-labels/) An article by Greg Nuckols it is a response to and expansion on [a previous article from Precision Nutrition](https //www.precisionnutrition.com/problem-with-calorie-counting-calories-in). Greg explores the variability in nutritional labels and food but ultimately shows that the variation tends to cancel itself out in the long term. &amp;gt;**TL;DR** Yes nutrition labels have errors. The errors on individual foods are sometimes (often perhaps) much larger than people assume. However unless those errors all skew in one direction your daily calorie counts will still be quite accurate and precise and their average accuracy will increase over time. If those errors do all skew in one direction your calorie counts will be less accurate but they ll probably be more precise (which ultimately is more useful anyway). In all but one fringe case knowing about the labeling error</t>
-  </si>
-  <si>
-    <t>Increasing front squat wrist flexibility I ve recently added front squats into my leg day routine and as much as I hated it at the start it s really growing on me. My problem is I ve never been able to clean grip the bar always cross armed which at heavier weights tends to compromise a little leading to some bicep pain. What s the easiest way I could increase my wrist flexibly to easily clean grip the bar?</t>
-  </si>
-  <si>
-    <t>Is there a major downside of not doing deadlift? Hello. I have been diagnosed some years ago with scoliosis and kyphosis. I ve been to a specialized doctor like 2 months ago and he told me to avoid any exercice which is about lifting the weight from the ground. So I know I can t do deadlifts. Is there any big downside to this?</t>
-  </si>
-  <si>
-    <t>Viability of Zercher squats as an assistance movement in 531 for Beginners?? Been looking for a quad dominant assistance movement that also hits the upper body well and the Zercher squat appears to fit the bill. How wise would it be to program it in and what TM% should be used?? A few things to consider and thought process as to why I want to add these as an accessory movement * I do BJJ and the movement itself appears to have more crossover/application than a front squat. Want to make my assistance work for now heavier on push/pull movements as my upper body is lacking in comparison to my lower body. The Zercher appears to kill two birds with one stone and helps greatly with the training economy. For reference I already have GHRs and Reverse Hypers programmed for core/leg assistance work so definitely looking for something that hits the anterior chest</t>
-  </si>
-  <si>
-    <t>Mobility issues with squats Ive been working out seriously for about 4 months and while things have been going great my squat has been struggling. Its because im feeling tightness in the pelvic area and in the hips. Is there any mobility exercises you guys recommend?</t>
-  </si>
-  <si>
-    <t>Why do programs such as 5/3/1 SL SS etc focus on push so much but less on pull ? So in all strength programs the basic is - Get your bench squat deadlift up. Ocasionally this will include OHP but why isn t this evened out by rows and pull-ups ? It s always said that we should equal our pushing with our pulling or even exceed it so why do all the programs focus on pushing only ? 5/3/1 SS and many others do not include this. Hell even SL which includes rows as a basic lift does not include pull-ups as a must to even out OHP (counting it just as an accessory lift). Is it because people focus on "powerlifting" style training ?</t>
-  </si>
-  <si>
-    <t>Micronutrients - I want to know what I need comprehensively. So I ve been lifting for 6 years now. I started in college and over the last year or so I ve started to get comprehensive with my nutrition. My macros are on point and I ve learned a lot about building muscle. I calculated my macros down to the gram I use a combination of shakes and lean high protein foods in a well-designed diet. How about micros? What do I need to be getting on a daily or weekly basis? How do micronutrients work? Are there numbers I need to hit like with macros?? How do most people hit micros? Any other tips are great too. Thanks</t>
-  </si>
-  <si>
-    <t>How extreme is too extreme when it comes to caloric deficit *TLDR;* I m not sure if I m getting a healthy level calories in my current diet. Age 24 6 2” 220lb Male *Backstory * I was very fit in high school as a 3 sport athlete weighing 195lb with BF somewhere sub 10%. Got to college didn t have coaches forcing me to workout so for the most part I didn t. Also went on a primarily whiskey and beer diet. Fast forward to graduation I weighed in around 230lb with BF ~25%. Now after getting back into the real world I ve gotten back to the gym lifting regularly (5 days a week). For the past 6 months I noticed my lift weights getting much higher (almost back to where I was in my peak) but my diet was fairly poor. Typically eating a healthy breakfast and lunch then grabbing fast food for dinner. I was also going out to the bars at least once per weekend. My weight stayed pretty constant around 228lb. Starting in January I ve added cardio to my workout routine I ve cut binge drinking and start</t>
-  </si>
-  <si>
-    <t>trying to restart my lifting again have few questions I m not so sure about... i sprained my L3-L4 vertebrae last year in a squat accident and had to stop lifting heavy and am fine now but due to issues i don t really want to get into more or less stopped going to the gym regularly. so now I ve been going to the gym again and have a few worries 1. I ve lost at least 10 pounds of muscle how long would it take to get that back? or where could i look to get a better know-how of this? 2. my lifts where 215/435/415 on a proper power lifting program how long would it take to get there again? even if its a few good sources for where i could go could you guys help?</t>
-  </si>
-  <si>
-    <t>Routine Recommendation I am 32 years old, 6'3'' and weigh approximately 310 lbs. Here is my problem - my workouts have always been strength/football based. Squats, dead lifts, bench press, etc. with very little cardio. I am still fairly strong despite not working our regularly recently (bench max ~ 325 for example) but I want to now focus on losing weight. I have read over routines here but want to get general advice for workouts that are generally &lt;1 hour and geared towards losing weight. TL;DR - Looking for workouts for 3-4 days/wk focused on weight loss while maintaining some athleticism.</t>
-  </si>
-  <si>
-    <t>Can you work your diaphragm with a "lift"? Lays night I was doing brachial hangs and was breathing really trying to expand my chest. My body generally lifts up a bit then relaxes down. Is this not a "lift" for the diaphragm as the only muscles engaged in my body are my forearms and the breathing muscles?</t>
-  </si>
-  <si>
-    <t>Should I hire a personal trainer to learn how to lift? I am 36 years old guy who has almost never lifted free weights. My fitness regime mostly consists of cardio (running cycling spinning hiking) but I started using some machines few months ago (shoulder press chest press leg extension). I also do pull-ups regularly. Now I want to include free weights in my routine but I am a bit intimidated because my right shoulder is prone to dislocation. Is it a good idea to hire a personal trainer for 2-3 sessions just to learn how to do some basic lifts with good form?</t>
-  </si>
-  <si>
-    <t>Will This Intermittent Fasting Schedule Work? So I want to try Intermittent fasting. I usually skip breakfast and work out in the morning so the 16 hr fast schedule (eating from 12-8) seems like it will work best. However I only lift 3 days a week. Will only fasting on these days work or do I really need to do it every day? EDIT I guess more specifically my question is will it have any positive affect on my overall health or goals. My goal isn t really to lose weight. In fact I m lifting to gain muscle and during the eating period I would be putting down significant protein for that goal. I honestly heard a few big fitness guys (Terry Crews for example) talk about it and say they really liked it so I figured I d give it a shot.</t>
-  </si>
-  <si>
-    <t>Do ab wheel rollouts activate your traps? At the end of the rep are your traps antagonist movers to the weight load under your shoulder joints? It s been a minute since I took anatomy and I ve forgotten a lot</t>
-  </si>
-  <si>
-    <t>What happens to my body composition if I stop lifting and eat at maintenance with high protein? I m sick fairly regularly and advised not to do much exercise then and my usual strategy is to cut down my calories to maintenance (taking into account the lowered exercise too) and keep protein high. I always feel like my muscles shrink a bit over this period and my fat level increases is this in my head? It s usually for 1-3 weeks. And my bodyweight stays the same (measured right after waking up). I know that muscle doesnt turn into fat. But I know that you need to do a minimum amount of lifting to maintain muscle which I don t do during this time. And I also know that since I m eating at maintenance then my bodyweight is staying the same. So putting the two together doesn t that mean that I have to be gaining fat in order to compensate for the lost muscle?</t>
-  </si>
-  <si>
-    <t>When doing sets that alternate arms do set amounts refer to the total amount or the amount per arm? For example if a routine calls for 4x10 hammer curls would I hit 40 reps each hand or 40 reps total?</t>
-  </si>
-  <si>
-    <t>Going too hard your first time Hey guys hopefully this is the right sub. I just have a question about beginning to lift. To preface I m no stranger to lifting. I used to play college football so I understand the principals and technique and all that. 3 days ago I went back into the gym for the first time in about 6 years with my buddy who is pretty into lifting and we hit back and biceps pretty hard. Afterwards (like maybe an hour after leaving the gym) I was the sorest I have ever been. I couldn t even straighten my arms because they were so tight. The next day my biceps looked a little swollen and my limited range of motion only got worse I could seriously only extend my elbows to about 45 degrees. Yesterday was worse still and today my left arm is feeling a little better but the pain in my right arm is starting to move down into the top of my forearm. Has anyone experienced anything like this? Did I just go too hard on my first day? Any advice on how to speed up the healing process? I still can t fu</t>
-  </si>
-  <si>
-    <t>Exercises to Strengthen Deadlift? Info 17 M 160lbs 5 8 2 years about lifting maybe 18 months of legitimate training Basically today was not my day and I knew it from the beginning. Around Thanksgiving I hit a 25lb PR from 2 months prior by hitting 390 Lbs on Deadlift for a rep. After working all the way up to 390 I tried 395 for the fuck of it but was obviously way too tired and just didn t bother a 2nd go at it. Fast forward to today I try it again I work up to it and I go for 395 I was able to get it off the floor about 3 inches but not able to actually bring it up at all. I am kind of dissapointed and it is half cause I wasn t feeling it but also I feel like I need to strengthen certain areas of my deadlift. What would you guys recommend for getting me past 395 and onto 4 plates in terms of exercises to help my deadlift specifically variations I could dabble with on my leg days. Any help is appreciated thank you in advance.</t>
-  </si>
-  <si>
-    <t>The bench press perplexes me Hey all just like the title says. I ve been youtubing Alan Thrall s tutorials omar athleanx buff dudes you name it I ve seen guides I know to retract my scapula I ve seen the videos on how to retract it keeping a flat back the arch and all that yet I m still struggling like a motherfucker. Some stats before we continue 1.74cm / 75kg / 28years male. Bench 80kg Deadlift 140kg Squat 100kg OHP 60kg I just don t get it it s like there is no mind to muscle connection when I start to get into the heavier rounds. With a spotter with a good one that calls me a little bitch and boosts my morale maybe I ll push my 1rm to 100kg but lifting solo with all those guides in the back of my mind I still struggle to go beyond 3reps on 80kg. Advices or some tips?</t>
-  </si>
-  <si>
-    <t>eating before sleep after a good workout? My understanding is that if you eat late at night your body tends to store more of the calories as fat. Is that correct? If I have a good workout in the evening will eating a big dinner before bed result in more calories being stored as fat or would my body make use of all of the food I ate for recovery? In other words is it better to eat a big breakfast the next day and keep dinner small? or does it matter at all?</t>
-  </si>
-  <si>
-    <t>Insight on Powdered Food/meal replacements? Hi friends. Has anyone had any experience with Huel for meal replacements? It seems a little too good to be true 500 calories 16g fat 47g carb 37g protein per serving. It seems fine and healthy but would it kill me to have something like this several times a week? I tend not to trust testimonials and reviews on product sites. Anyone with experience consuming Huel or just advice on meal replacements would be great. I m not aiming to use this for every meal but it would be nice to have something decent to fall back on for whenever I work late and end up with something fast and unhealthy. Thanks! Nutritional facts https //us.huel.com/pages/nutritional-information-and-ingredients</t>
-  </si>
-  <si>
-    <t>Scared to deadlift again Hi all About a year and a half ago I was doing my warmup sets and my back popped leaving me basically bed ridden for a couple of days I never went to the doctor and stopped doing deads for a few months and everything felt back to normal. I finally figured I d give them another go and the exact same thing happened to me during my first warm up set. I made it home and once again was bed ridden for almost 5 days with extreme pain and couldn t take a step . My wife had to help me put my pants on it was a serious blow to the ego. I went to a physio therapist and turned out that I had pinched a nerve in my spine. I completed all of the treatments and started feeling better and the past 6 months or so have not had a bit of pain or bad feeling in my lower back . My doctor said I d be totally fine to get back to it . I m honestly scared shitless to try deadlifting again but miss them so badly in my routine . Would you guys get back into them or take it as a sign to forget about it.</t>
-  </si>
-  <si>
-    <t>Is there a reason why I get sick after a hard workout? Genuinely curious this is the 3rd or 4th time where I ve pushed myself more than I normally do at the gym and the next day I always feel like straight shit. It s either flu-like symptoms like fatigue sore throat loss of energy runny nose things like that. This doesn t happen normally only when I push myself far which kind of sucks because I really want to test my limits but I can t without getting sick. I figure it might have something to do with recovery time but I m not too sure. Any thoughts?</t>
-  </si>
-  <si>
-    <t>How should I counteract over-strengthened muscles from dumbbell side bends? Well first thank you for any advice. Background mid 20s male overweight but not completely out of shape (~170 lbs); otherwise healthy except for too much stress. What I did a few weeks ago is tried to jumpstart my workout routine with dumbbell side bends at home at 40lbs. Dumb idea. When I was in an actual routine some months ago I did them at 20-25 instead. I wanted to get going again and I found I could lift 40 with the set I have. I also figured more muscle in the core will help build my foundation. Problem is I m pretty sure this is the cause to some lower back pain and some misalignment on my spine. I m also feeling more prone to slouch when I sit as a result. Are there any exercises stretches or other things I should do to balance or counteract what I did? If so what are they? Thank you &amp;gt;To save this from being deleted (Not asking for a diagnosis here. I have read the sidebar and I have talked to others a</t>
-  </si>
-  <si>
-    <t>When its a barbell I can only squat 50kg. When I squat with a human body on my back I can easily squat 70+kg. Why is that? Hey guys I am a kinda new lifter been doing it for a few months now althought not always consistently because of injuries and such but I am improving. To my question I am working with Greyskull LP and I found it very good. Currently when it comes to squat I am able to do 50kg for reps (I know I am weak af). I do them focused and I really have to put all in it to do so. However if I am joking around with my wife (65kg) or my brother (73kg) and carry them like [this](https //media.defense.gov/2016/Nov/03/2001663446/-1/-1/0/161025-M-KS936-309.JPG) I can easily squat them attg. What is the reason for this? Is there a difference in bodymechanics when squatting barbells and humans/other things (e.g. sandbag)? Thanks</t>
-  </si>
-  <si>
-    <t>What to eat before working out in the morning? I am planning to start heading to the gym in the morning. I have class at 9am and it takes me an hour to get to school so I have to be at my bus stop by 8am. I figure that the time it ll take for me to wake up get ready head to the gym workout shower and have breakfast will be 2 1/2 hours so I will wake up at 5 30 am. But the question is I need fuel to workout and in such a small time span what can I eat that s small but is easy to digest and will fuel my workout?</t>
-  </si>
-  <si>
-    <t>Best Bodyspace Workout Program For Small Gym? I just finished the Jim Stoppani 12 week shortcut to size program but a lot of the workouts I was unable to do or had to Jimmy rig it (no pun intended) in order to finish them due to my small gym. I have a nice set of dumbbells (from 5 all the way to 50s) a good bench some small risers workout mat treadmill and an Apollo 7000 series workout system. Does anybody have any good programs I should look into? I don t think I need a bigger gym because I think what I have is plenty enough I just want to find a decent program to fit what I already have. Thanks! EDIT Also I really liked how Jim Stoppani 12 week shortcut to size program was 4 days a week. I m sort of in a busy time so 4 days a week is a great balance for me mentally. That d be awesome of the work out someone suggests has a similar schedule. Maybe I ll just have to create my own.</t>
-  </si>
-  <si>
-    <t>Bare Steel vs high humidity I was looking into the Rogue Ohio Power Bar and I don t have much money. So this makes the stainless steel out of my price range but like the reviews of the bare steel. I live in northern Florida where it is pretty humid (average of 60-90% humidity annually) and am worried about rust. I looked into the black zinc option but hear that it wears off and turns into bare steel anyways. Does anyone else live in the south/humid areas and have had problems with upkeep? Or does a weekly coat of 3-in-1 take care of any problems?</t>
-  </si>
-  <si>
-    <t>Same weight for Incline and Flat Press Just started working out pretty seriously last couple months. I keep hearing that Incline Bench is usually pretty harder than the Flat. For some reason I tend to bench more or same as the Flat(200lbs). Any reason for this and any isolation work I can do separately to increase my Flat Press weight?</t>
-  </si>
-  <si>
-    <t>Does the Repeated Bout Effect reduce Muscle Growth? I m curious to know whether the Repeated Bout Effect has any affect on muscle growth. I recall hearing that it s important to switch up exercises to keep the body challenged and it seems like this might be related to that. However I ve never seen any evidence that it would actually reduce muscle growth. It seems that if the Repeated Bout Effect reduced muscle growth then a lot of athletes would find themselves on a never-ending plateau. But then again why do some many programs emphasize switching up the types of exercises one does?</t>
-  </si>
-  <si>
-    <t>Gym only has benches with "dips" in them; no flat ones (picture included). Feels weird/unsafe(?) for me so I wanted to check with /r/Fitness. [Here s what the bench looks like.](https //imgur.com/a/43nor) Hopefully the angle isn t too crappy but as you can see there s a little dip in the bench where your butt should go. I don t think it s affecting my form but it feels weird since I m used to flat benches. But other than preferring flat benches is there anything inherently wrong with using a bench like this for bench press? Has anyone used something similar at their own gym? I live in Tokyo and access to gyms with plenty of free weights is limited so it s not like I can be super picky. And again I don t think it s affecting my form and benching isn t painful or anything like that but I just thought I d ask for posterity. Thanks.</t>
-  </si>
-  <si>
-    <t>Legs cramp up at the start of a workout? A few squats or deadlifts will lock them up even after a good warm up. I m fat and out of shape but I was also fat and out of shape when I started lifting in highschool/college and this never happened then. I m only 26 so I m not THAT old. What gives? How do I fix it? I m unable to do a propper leg day. Other body parts are normal.</t>
-  </si>
-  <si>
-    <t>Really confused about the deadlift Should you tilt your pelvis forward or "tuck the butt in" and tilt it backwards? So I m quite the newbie. Started about a month back doing Phrak s GSLP. I ve noticed that in the deadlift not only am I feeling nothing in my hamstrings and glutes - I m also putting a huge load on my quads. It just feels like a fancy squat with my quads being fatiqued before any other muscle. Filming myself I noticed I have problems with the lockout. I feel like I squeeze my glutes completely but in the video I just look like a duck with my butt sticking out. Heard in a few places that you should tuck your butt and go into posterior pelvic tilt and initiate the movement by hinging at the hips but also seen wayyy more people advocate to "push the butt back". I m completely lost. What is the right answer? Thanks in advance! Tell me if you want a video of my atrocious duck-deadlift. Hope this thread will help other confused l</t>
-  </si>
-  <si>
-    <t>Are supplements that "reduce muscle damage" good or bad for gaining muscles? Hi there I have a bunch of supplements that i ordered in a druge frenzy that i now take daily until they run out. i didnt order them for the weight lifting purposes but some of them do seem to have benefits in this regard. theres are 4 things i currently take that examine.com states that they "reduce muscle damage". the supplements are Acetyl L-Carnitine Ashwagandha-extract Coenzyme Q10 and Vitamin C. now lets say they really do this and reduce biomarker of muscle damage. is that something i want when trying to gain muscle weight? or is it the opposite and i should avoid those substances because in my understanding it is exactly the muscle damage that needs to happen for the muscle to grow afterwards. thanks for your replies in advance</t>
-  </si>
-  <si>
-    <t>What to look for in Stationary Cardio equipment TLDR How do I know if a Stationary bike/Treadmill is any good before buying? I have a Powercage in the garage and am looking to get some (hopefully cheap - 200ish) Cardio equipment to compliment my lifting; preferably a bike otherwise a treadmill or other alternative will do. I have young Children and work out whilst they sleep so have a monitor on hand in case they wake up (hence cannot get my Cardio outside). Any hints on what to buy/look for? Thanks!</t>
-  </si>
-  <si>
-    <t>Military and weightlifting As it sitd right now the maximum weight allowed is 178 lbs for me and that is what I m at. I lve always been a fat body a few months ago and ive hit the gym hard but I m about to go past that weight. I will fail the bf % which is 22% and I don t know what to do. Am I able to cut more often and drop some weight then bulk it back up until I can get past the bf taping?</t>
-  </si>
-  <si>
-    <t>Good hobbies for gaining muscle/getting into shape? I have been working out for a few months and have really been putting in work but I need something else. I have been working out everyday until I feel my body needs a break. I was thinking about looking more into boxing or jiu jitsu. Any ideas?</t>
-  </si>
-  <si>
-    <t>Should I pause lifting when having cramped muscles? I have outer buttocks cramped muscles because of weak abductors. I work on them including physiotherapy strength exercises and stretches. Still as my training weight goes up I feel this area more and more. Is there a good way to handle the cramped muscles without impeding my training program (SL5x5)?</t>
-  </si>
-  <si>
-    <t>If my gym doesn't have a squat rack, what are some good alternatives to build lower body strength? I know squats are one of the, if not the best leg exercise. I don't want to miss out on the benefits I can get from squats. Although there might not be a complete alternative, what are exercises I can do to mitigate this loss? Lunges, leg press?</t>
-  </si>
-  <si>
-    <t>Can I do multiple variations of squats in one workout? Will it break me or will it create ultimate gainz? Could I do overhead squatfront squat and back squats while pyramiding up the weight in one session?</t>
-  </si>
-  <si>
-    <t>How fast can you add to a caloric surplus? Coming off of what id now consider an incredibly stupid diet of 1200 calories. Going to the gym 6 days a week and working a job that has me lifting steel all day. Ive climbed up to 2200 over a 6 month period by slowly adding calories. (Around 100-150 a week) The past few bumps in calories has produced no weight gain im still fairly lean so id like to jump up in weight and cal before cutting in the late spring early summer. Is a jump of 300 or 400 cal and staying there a good idea? Whats the best approach to adding cal for a bulk?</t>
-  </si>
-  <si>
-    <t>Silly question from a fitness noob. So when I was in high school I was 190 pounds (I'm 6'3"). I got real sick and the meds they put me on bumped me up to 320 pounds over a year and a half. Now through just monitoring my portions and foods I'm down to 240. But my real fitness question is about exercise. I want to get back to where I was and better. My career goal is to be a police officer. That requires a physical test. The sit ups portion I am close to getting. And the run I am close to getting. I think I can get those in my time frame. However the test also has pushups. I can only do like 2 good pushups but the test requires 33 pushups in 1 minute. I guess my question is how fast can you get progress with pushups? I have 3 and 1/2 weeks to get there. If I work my ass off is it possible or should I take it slow and catch the next application opportunity (which could be who knows when)?</t>
-  </si>
-  <si>
-    <t>Has anyone ever successfully transformed the dreaded "V" shaped butt? I m helping my girlfriend get back into shape...and have been researching some workout plans for her. She has a very classic hourglass figure...which is good. But she stores her weight on her hips and belly. She really wants to transform her butt. The shape would be described as the "V" shaped. The lower outsides (the upper/outer portion of the thigh) are pretty underdeveloped &amp;amp; look indented from the back. Almost like she s clenching all the time. From what I understand this is typical with older women due to hormonal changes (but she s only 29...and has had this butt shape her whole life). I m not sure if maybe she has an undiagnosed hormonal imbalance or its just her natural shape. But would love to be able to give her some hope she can round it out.</t>
-  </si>
-  <si>
-    <t>Doing 1x5 vs 5x1 with minimal rest on deadlifts Hello just started deadlifting last week. Im following alan thralls five steps for performing the movement and so far so good. My first rep looks good to me but im not so sure with the other 4 in the set mainly because i have to do it right away without setting up from the start. Can i do 5 singlets instead where the only rest would be in setting up from step 1( 7 to 10 sec) or would that be detrimental to my strenght progression? Thanks in advance</t>
-  </si>
-  <si>
-    <t>Did some weights for the first time today I ve run into a few problems Hey reddit Today I hit the gym to exclusively train my upper body and arms with barbells dumbbells and an ab crunch to finish off. When using the barbells My right hand felt like it was rubbing against the bar when I took my hand away it had all black marks on it my left hand did not. When doing the dumbbells My left arm failed to lift a 16KG weight My right arm always has to be ready to support any wild movements when my muscles fail. I feel like both are affected by a inequality in my upper body strength How can I go about fixing this?</t>
-  </si>
-  <si>
-    <t>One Hundred Pushups I m back to lifting after a year or two of crippling depression! Yaaay!! I want to be able to do 100 pushups in one go. I ve been struggling with starting [this program](http //hundredpushups.com/week1.html) and could use some advice. Currently it feels like the outside of my pecs toward the shoulder are tiring out first. What other exercise can help alleviate this? If I am unable to complete one of the days as prescribed what should I do? Maybe just wait 10 minutes and try again? Obviously I should repeat that day later that week until I can succeed. I m doing light dumb bell work otherwise to help even things out. My reason for wanting to do 100 pushups is that I want to feel a sense of pride and satisfaction. I ll be going to a gym also.</t>
-  </si>
-  <si>
-    <t>Preacher curl advice When performing preacher curls I feel like my wrist is performing a lot of the work despite me keeping my wrist completely straight and not moving it during the curl. How do I make sure my biceps are doing most of the work? During the preacher I feel more of a strain on the biceps compared to more of a burn during concentration curls. What sensation should I be looking for in a proper curl?</t>
-  </si>
-  <si>
-    <t>Wall sit plate rows ? I saw a guy at the gym doing wall sits while rowing two 25lb plates. It looked like a good lat finisher but i didnt get a good look on the form. Has anyone done these before and could elaborate or link me anything thatd help ? Much appreciated</t>
-  </si>
-  <si>
-    <t>Will carbs from last night carry me through my workout this morning? I had a big dinner last night with alot of protein a few simple carbs and also complex carbs. That was at 8pm last night. Now it s 8am today and I don t have enough time to eat a meal and let it settle before I hit the gym. Will that carbs I ate last night fuel my workout?</t>
-  </si>
-  <si>
-    <t>Pins and needles/itchy when starting to run Hey guys. Weird thing has been happening to me for the past month or two. Whenever I try to start running within 30 seconds I get these weird pins and needles/itchy sensations across my face head and torso (front and back). It usually only continues for a couple minutes but it s extremely annoying and kinda worrying. I was running outside so I thought maybe it was allergies but allergy meds didn t help and it still happens when running on a treadmill. Has anyone else experienced this? What fixed it?</t>
-  </si>
-  <si>
-    <t>Lifesum on my android wear smartwatch just sort of guesses the calories?! is this doable?! Like Im enticed by the idea of not having to be specific(which i can do on the phone version) but it kind of eeks me out. Like I can see it being useful for getting through lazy days I guess but idk what do you guys think? Basically it asks how big your meal was and then depending on if you said small medium or large plops down an assumed amount of calories. I guess I could just try it for like 2 weeks and see what it do.</t>
-  </si>
-  <si>
-    <t>What are some activities that really involve your brain? Ive been trying to get back into excercising since my main method of longboarding doesn t work for me anymore I mean I can but its light and only for a few minutes. I enjoyed "parkour" in highschool and love riding horses. But I live away from them and keeps me from trying training for parkour again. I noticed the link between all this is that my brain is actively scanning my environment and making quick decisions. I don t get the same feeling from going to the gym and completing repetitive sets. Any ideas of what I can pick up? Or how i can make the gym more interesting? Tldr version Need some ideas on how to get my brain actively involved in workouts instead of staring at the ceiling in repetitive boredom.</t>
-  </si>
-  <si>
-    <t>When to switch off of a program like ICF? I am about to complete the first 12 weeks of ICF. I haven t missed a day yet and have been progressing pretty well. My squats have really shot passed everything else my deadlift is now pretty close to what I m squatting and my bench is lagging way behind. I am unable to do OHP due to an old injury so I do 45 degree incline bench press. I have added a couple of extra accessories like Face Pulls and cable flys but other than those changes I have stuck to the program. Here are my lifts 5x5 progression is in a bit less than 12 weeks * Squat 80lbs &amp;gt; 250lbs (deloaded down to 225lbs and do more reps.) * Deadlift 80lbs &amp;gt; 250lbs * OHP started at 50lbs and made it to 65lbs before aggravating an old injury and switching to incline at the recommendation of my doctor. Now I am up to about 120lbs incline * Bench started at 70lbs and am up to 140lbs also 37M 5 10" 180lbs My main question is even though I am still progressing... I am getting a little bored with this</t>
-  </si>
-  <si>
-    <t>Will increasing activity level and increasing calories have an impact on progress? For example would a person who only does weight training and eats at a maintenance of 2500 calories see different results than somebody who does a lot of cardio and eats at a maintenance of 3500?</t>
-  </si>
-  <si>
-    <t>Failed Squats Because I was Afraid. Doing the Strong Lifts 5x5 and it's been going well. Got up to 260lbs on back squats today and knocked on the first two sets struggling a bit. I got through the third, but really started getting tired. When I went for the fourth, I went down halfway on a rep, got scared and put the weight back. I couldn't get myself to continue at the weight and just moved on to the next exercise. Any advice from you guys? Should I just try again next time or deload?</t>
-  </si>
-  <si>
-    <t>Shaking wrists during bench press - issue with the equipment? I go to multiple different gyms and at one in particular I always have issues keeping my wrists straight during the bench press. This is not a problem at any other gym and further I ve noticed that other people usually have this problem when bench pressing at this gym as well. I suspect it has something to do with the equipment . Sore wrist afterwards. Any insights or workarounds for this issue would be appreciated.</t>
-  </si>
-  <si>
-    <t>What else should I do during Smolov Jr. for bench? Looking for advice from people who have been through a Smolov Jr. cycle. During January I m going to try the 3-day program (4 weeks instead of 3) to see if it helps get my bench numbers up. I usually run a full-body routine twice a week (time constraints). For chest I ll do bench press and then one accessory usually dips or flyes. I know it s recommended to cut accessories during a Smolov cycle so I ll stop those during the Smolov cycle. But what about shoulder work? I usually do military press and side raises to finish. Would it be wise to reduce this as well if I m benching 3 times a week? I ll keep on doing the usual back and leg work but I m cautious of burning out since I find squats pretty brutal at the best of times. I don t do deadlifts because it interferes with my running so rows and pull-ups usually. Thanks guys!</t>
-  </si>
-  <si>
-    <t>Would i have too much volume? Just started cutting while doing Coolcicada s PPL. Id also like to started couch to 5k to improve my cardio fitness. Would that be too much volume while on a cut or will it be ok? Im 18 and 6 3 if that changes anything.</t>
-  </si>
-  <si>
-    <t>Kettlebell Vertical Pull Is this a real exercise? So I was looking for vertical pulling exercises that aren t pull-ups and found [this](https //www.youtube.com/watch?v=82JpPncFq9c) on Youtube. I ve been doing them and enjoy them. However I cannot find any other mention or demonstration of this exercise anywhere else. The video has no comments and does not appear to be from a "big name" fitness person (not that that s ironclad but it s at least somewhat reassuring \^_\^). As a lifting newb I wanted to check if this is a "real" and safe exercise? Or maybe I just don t have the right keyword? Thanks for the help!</t>
-  </si>
-  <si>
-    <t>Which sheiko s program works best for me Hi Been running nsuns since august and wanted to switch things up. My lifts are Bench 105kg *2 reps Squat 140kg * 1rep Deadlift 185kg *3reps I want to get my bench up but also still focus on the other two. Has anyone run a sheiko program and could you tell me your experience with it? I was thinking about starting 29 then 37. But Im not sure when and how much to increase the weights. UPDATE I m going to run Sheikos Universal 1 followed by Universal 2</t>
-  </si>
-  <si>
-    <t>Is working out in the evening detrimental? I ve been researching this question online and could not find a conclusive answer on whether it hinders or helps an individual s sleep cycle/weight maintenance regime.</t>
-  </si>
-  <si>
-    <t>I ve only got access to a small gym @ my apartment complex. Can I get good results using only these machines? So I am unable to access a commercial gym but there is a "home gym" at my apartment complex. It has machines which offer these exercises (no free weights all machined) **Weights ** - Bench Press Incline Press Shoulder Press - Lat Pulldown Low Row - Tricep Pushdown Bicep Curl - Leg Press **Cardio ** - Treadmill - Bike - Rowing Machine - Elliptical I am 30yo 5.5ft (165cm) and weight 130lb (58kg) I think I am around 20% bf right now. I have really high metabolism and have stayed at a steady 58kg for the last 5+ years. My goal is just to build lean muscle and cut my bf% to around 10-12%. I am happy to exercise 6 days a week 1 day rest and can commit up to 60 minutes a day. Can I develop a good routine just using what s available to me (including doing body-weight exercise)? I am totally new to fitness what would you recommend?</t>
-  </si>
-  <si>
-    <t>How to protect my knees when doing squats/deadlifts/lower body lifting? I ve started doing a lot of lower body lifting recently and I can tell that it puts a lot of pressure on my knees. I wear the proper shoes and I always gently stretch before and after. I make sure the weight isn t too much but I am definitely trying to push myself. How can i make sure to protect my knees from future damage when I get older while still making lower body gains?</t>
-  </si>
-  <si>
-    <t>Why do we have to eat so much to bulk? So as we all know you have to eat big to get big and if you bulk hard then you gain fat in addition to muscle. But why does "dirty" bulking lead to more muscle gain than "clean" bulking? I usually hear from experts and more experienced lifters that there s a certain "maximum" amount of muscle you can gain in a certain amount of time (though there s a lot of debate as to what that is). Why can t we just eat enough protein to build that muscle enough carbs to refill glycogen stores and enough surplus energy to fulfill those metabolic processes required to build muscle and thus gain only muscle without fat? Does the body partition some of the energy to fat storage while there s still potential muscle that can be gained?</t>
-  </si>
-  <si>
-    <t>Calories in vs Calories out taking in account insulin and hormonal response CICO is probably the most spread "theory" here on r/Fitness and it s basically how I guide myself too. Question is is it really the way it works? Not just in terms of weight gain I understand that CICO might work well for weight changes but how about muscle vs fat gain? Specially considering sugars but not only. Given the same amount of calories will there be a difference in terms of lean gains between a person on a high fat vs low fat diet? How about eating a lot of carbs just before bed? I understand that it doesn t make a difference in terms of weight gain but what about muscle gain? Wouldn t fat be better vs carbs just before bed?</t>
-  </si>
-  <si>
-    <t>please explain the science behind stretching 1. Why should we stretch at all? 2. Why we shouldn t stretch before workout? 3. Why we should we always stretch after workout? 4. Should we stretch static or dynamic or both? 5. When to do static stretch and when for dynamic? 6. Like how warm up depends on the main routine we follow is it same with stretching also? thank you!</t>
-  </si>
-  <si>
-    <t>Grip holding me back? Especially the thumb? After bent over rows seated rows and heavy shrugs my forearms are destroyed. So much so that my thumb isn t even able to grasp any decent sized weight. I m a new lifter so will this go away on its own?</t>
-  </si>
-  <si>
-    <t>Looking to lose weight so I can get date/go to prom my senior year(next year).. I'm 17 at 6,0" and 300lbs Last Saturday was my school's prom, I realized I was home alone just sitting on my ass playing video games and I should do something. I've gotten stretch marks on my upper arms, my stomach, and the sides of my chest. I started working out yesterday. I did 8 sprints, on a 500 ft sidewalk. I paused about 20-30 sec between each. I did it after sunset because I'm embarrassed that someone will see me. What other workouts do you guys recommend.</t>
-  </si>
-  <si>
-    <t>What to eat before working out in the morning? But the question is I need fuel to workout and in such a small time span what can I eat that s small but is easy to digest and will fuel my workout?</t>
-  </si>
-  <si>
-    <t>Sumo deadlifts make me dizzy as hell am I doing something wrong? Anyone else experience this? Conventional deadlifts take a lot out of me and I start sweating and panting halfway through my sets. But I never get super dizzy or feel like I m about to faint. With sumo deadlifts I barely go half my normal deadlift max and by the third set I start seeing stars and feel like I m about to faint. Am I doing it wrong or is this normal? Does it have anything to do with how wide my stance is? Kinda avoiding sumos now and sometimes finish without doing all my sets because i m worried i m hurting myself. It s such a good workout though and my hamstrings need the additional isolations so idk what to do. Edit forgot to add I only started lifting a couple months ago</t>
-  </si>
-  <si>
-    <t>Workout Program Calculator I remember there used to be a cool calculator that would ask you a bunch of questions and based on your answers would recommend you a workout plan. I ve looked everywhere on both google and this subreddit using the search function but couldn t find anything. If someone can provide the link to it I d be really thankful )</t>
-  </si>
-  <si>
-    <t>531 ohp Hello. I am doing the 531 for beginners routine. I am trying to OHP and it just does not feel good. I try to listen to my body to avoid any issues. I ve researched correct form and no matter what I do it feels bad and I end up stopping. I warm up with facepulls/dislocates but still does not feel good. However I have found that standing neutral grip dumbbell press feels very good. Compounds are very important to me as I am doing a 3 day full body routine. I have adjustable dumbbells with 2.5 plates that go up to 150 lbs so I can progress with them. My question is will replacing the barbell OHP with this standing neutral grip dumbbell press still give me the same benefits and what are your thoughts on this variation?</t>
-  </si>
-  <si>
-    <t>How to regain my diet discipline? Ever since I started working 40 hours a week I ve been going on these huge binges after work causing me to eat like 5000 calories instead of the planned 3600. I went from 190 to 210 in like 5 weeks and since I was at like 7% no real harm has been done yet but if this keeps up I m going to become fat. The good thing is that the food I binge on is still healthy and full of nutrients but it s still a ton of extra calories. Sometimes I think I enjoy the food in my diet too much.</t>
-  </si>
-  <si>
-    <t>Why is that most people in the gym are for ever beginners? Like I see lots of people who after years of lifting... or whatever.. they keep lifting with terrible technique they add more weight and the work out looks has lost all its shape and they think they are cool but they will never get any results doing all bad.</t>
-  </si>
-  <si>
-    <t>Hiking and Powerlifting - a tricky combo How can I train for Powerlifting while keeping fit enough to enjoy long distance (multi-day) often uphill hikes? I feel any endurance work I do detracts from my strength performance. I have traditionally done little cardio as part of my strength routines as I m unsure how to best combine the two. In the hikes I ve done recently the muscle burn is agonizing after a few flights of steps and so it d be great to learn how to develop both strength and endurance based muscle.</t>
-  </si>
-  <si>
-    <t>How accurate are these suggested optimal volume ranges? [link](https //www.aworkoutroutine.com/optimal-workout-volume/) In the article it states "For each bigger muscle group about 60-120 total reps PER WEEK. For each smaller muscle group about 30-60 total reps PER WEEK." Does this fall into your volume per week?</t>
-  </si>
-  <si>
-    <t>How does "muscle memory" work? Hey guys I haven t worked out consistently in about a year and a half. Now I m getting back to the gym as often as possible and I m curious if "muscle memory" (if that s even a thing I haven t heard a dedicated answer) Will help me out a bit after a few weeks of working out again? Thanks</t>
-  </si>
-  <si>
-    <t>Is a monotonous diet okay? Is it ok to eat a monotonous diet as long as the macros are correct? I m very good with no variation diets. I ve lost a lot of weight before doing intermittent fasting eating once a day the same basic meal for months on end. It worked though I was starving myself and not lifting so I lost all my muscle and just got skinny-fat. But the point is I was mentally fine with a monotonous diet indeed it s the only kind I succeed at because constantly needing to recalculate for different foods discourages me and I quit. Now I m lifting and trying to do a cut that will actually preserve muscle so my goals are only 1-1.5 lbs lost a week eating ~1800 calories (my BMR) eating 175g protein (one per pound body weight) and 50g fat (25% of total calories) My monotonous plan is this four whey protein shakes a day plus six servings of these Tyson chicken strips I found with some mixed veggies thrown in. The whey is 120 calories per serving 24g protein 1g fat. The chicken strips are 1</t>
-  </si>
-  <si>
-    <t>Is it possible to gain muscle with low protein intake? I am 20/m. Been vegetarian for almost 2 years. Cutting since mid summer but it s about time I start gaining something useful. My problem is the daily protein intake (somewhere just below average). Is it possible to gain muscle like that even if it s very slow and not optimal as long as I am not in a caloric deficit. I am not aiming at being a beast. Just looking and performing a little better. Edit Came home just now and read what you guys wrote. Replying to every single one of you who gave advise here will be a bit time consuming but I still want to let you know that I am thankful for your time and help! Although the way I asked the question was pretty shitty I still got what I needed and I will definetly look into all the possible ways of acquiring protein.</t>
-  </si>
-  <si>
-    <t>Why is there so much conflicting information? I have had this problem with both diet. The latest example would be finding these charts and planning to do one chart per day but immediately in the comments I see users warning how bad they are and they destroy the body. Then there are forum posts and blogs providing conflicting information about how great/terrible the humble egg is. Why does all this have to be so complicated? Link to the charts https //imgur.com/a/iP2gK</t>
-  </si>
-  <si>
-    <t>Is it ok to hunch over while running on a treadmill? I m trying to lose some weight and have a bowflex and treadmill to help me do so. The problem with the treadmill though is it is in a room with a 6 2" ceiling. I m 6 4" to begin with and when standing on the treadmill I m even taller. So if I run on it I have to lean over pretty far. When I looked at tutorials and guides for running on a treadmill they are always running with their backs straight. So I was wondering if it is ok to be hunched over while running?</t>
-  </si>
-  <si>
-    <t>What Program/Routine Should I Follow Given Available Equipment? Goal Put on lean mass look good aesthetically Wrist wraps solve this issue for weightlifting. Experience-wise I m still a beginner. I had been lifting for about six months prior to my injury but was eating at maintenance so I didn t gain much. I m trying to figure out what kind of program/routine I should follow given the equipment I have available to me at home. I have a small home gym upstairs that has dumbbells a pullup bar a bench and machines for leg press lat pulldown cable rows tricep pushdowns etc. What I m lacking is a barbell and power rack for barbell deadlifts and squats. Bench hasn t been a big issue since I ve been able to use dumbbells. In addition to this home gym I use my school gym available to me during a fitness class.</t>
-  </si>
-  <si>
-    <t>Getting back to the Grind I use to work out a lot from 16-22 of age. I use to work out 3 times a day. Gym run and rock climb surf or basket ball. I heard about strong lifts 2 years ago I was dedicated for like 2 months than quit. I m 27 now. I ve been doing strong lifts for the past 6 weeks. I went from 240 to 225. I don t really care about my weight. I just want to burn my fat off to get my 8 pack back. I m 5 ft 11. Just curious if its bad to just stick to strong lifts? I read that some people start it up but than end up doing other things.</t>
-  </si>
-  <si>
-    <t>Lift weights without getting sore? Is it possible? I m a professional (classical) musician so my hands and arms are my livelihood. I cannot under any circumstances let them get sore stiff or injured. On the other hand after a lifetime of being careful not to ever stress them out my (male) 30-something-year-old upper body is about the same as a 12 year-old s. I m very aerobically healthy thanks to a life of running and competitive cycling but as I age I d like to build a little bit of muscle to help prevent problems in the future. So is it possible to build a very moderate amount of muscle without getting sore?</t>
-  </si>
-  <si>
-    <t>Help putting together a program for my 75 yr old father. Like the post title says, we want to start him lifting. Currently he walks 5-6 miles a few times a week, and we have recently gotten him to start using an elliptical for 45min a couple times a week, as well. He is in excellent shape for his age, but he is losing strength and wants to regain it. I am open to any suggestions for routines etc. The last time he trained was when he was in the Marines around 1960-63. Thanks in advance!</t>
-  </si>
-  <si>
-    <t>Different Upper/Lower split routines There are many Upper/Lower routines but each routine has some different exercises. Does this matter or is it the same thing just a little different?</t>
-  </si>
-  <si>
-    <t>What do you eat to boost your workout? Hello /r/fitness, I am anything but a professional, I just workout every few days to keep my body in a good shape. Even so, I am interested in making the most of my workout. I've been consuming some energy bars to boost my workout, but not too much. Few days ago, I've come across some post about the health benefits of raisins (1), and I've read that they are as good as any energy bar or sport snack, only natural and healthier. This was backed up by a study (2) proving this to be true. I am wondering what do you think about this from your personal experience - are raisins (or other dried fruits) as effective? Are there other, better options, to boost your workout? Thanks in advance for sharing your opinions!</t>
-  </si>
-  <si>
-    <t>Advice for breathing patterns during leg press I m having issues with pressure building up in my face while doing leg press. I m pushing 570 at 3x10 and at this point it is really hard to remind myself to breath and relax. It is heavy as fuck but I m comfortable with the weight itself. Advice?</t>
-  </si>
-  <si>
-    <t>Work outs for tennis beginners I don t know if any of you guys would have a lot of knowledge for this specifically but my news years goal was to actually get going to the gym on a regular basis and to start playing tennis (though weather isn t very conducive to that). I was curious if anyone knew about workouts geared towards beginners in the sport. I use this website to help me plan out routines previously. Take a look I ll probably understand better in the context of it anyway. https //www.bodbot.com/Workout_Generator.html</t>
-  </si>
-  <si>
-    <t>Is it better to squat as low as you can versus just going below parallel? I'm 28 and 5'8" and I been back squatting for about 7 weeks now and I've noticed some things that I don't really know how to use to help me improve. My form has been good so far but my main concern is just how low should I squat, almost ass to ground or just below parallel? But if I squat to just below parallel it feels better and I just have normal fatigue the next day and no soreness in my hip flexors. I am currently squatting around 80% max to work on my form because I cannot always keep my back straight past 80%.</t>
-  </si>
-  <si>
-    <t>Is my insomnia negatively affecting muscle growth? Normally I wake up about 3 times during the night however the past week I ve been waking up 7 or 8 times during the night. Is this negatively affecting my muscle growth? What fixed could be done to perhaps cure the problem?</t>
-  </si>
-  <si>
-    <t>The heart s response to low intensity training vs high intensity training Hey r/fitness So I recently found out about something pretty cool that I had no idea about. Many of us know about the benefits of exercise to the heart but I had no idea that the type of exercise you do determines what specific adaptations your heart makes to cope with the stress being placed on it. The left ventricle is responsible for holding oxygenated blood before it gets pumped out to the rest of the body. With any form of exercise that ventricle gets stressed with an increased volume of blood to fuel the increased energy requirement demanded by the exercise. Exercise that results in a high diastole blood pressure (such as high intensity strength training) results in a concentric hypertrophy of this left ventricle. This means the walls in the heart grow thicker to get better at forcing blood through your body very rapidly. The ventricle gets bigger but only because of an increased wall thickness while the ventricle space fo</t>
-  </si>
-  <si>
-    <t>Am I progressing??? **Am I making progress so far?** Starting at 145lbs two and a half months ago I have been eating 2800cal a day at 1g protein/lb while doing Nsuns lift routine. In college and very busy this semester so I can only go to the gym 4x a week. I missed about a week as well so far due to work. I look to get to a normal 5-6x a week next semester though. I was failing sets little too often so I bumped by cal from 2700 up to 2800 about half way into it and made sure i was getting protein by eating chicken breasts since they get me lots of protein while not making me go over ***My lifts Two and Half Months Ago*** Squat - 170lb x 3 Bench - 120lb x 3 Deadlift - 225lb x 3 [me then](https //imgur.com/a/Spx7Z) ***My lifts Two Now*** Squat - 185lb x 3 Bench - 135lb x 3 Deadlift - 240lb x 3 [me now](https //imgur.com/a/AkPK6) It seems as though 95% of my fat is in my torso Chest belly lower back area. However I have been hitting every set for the past two weeks. Just seems like I m ga</t>
-  </si>
-  <si>
-    <t>How Can I Use DXA Scan Information? Hey all just got a DXA scan done by Body Spec. 26yo male 5 foot 10 200lbs. My resting metabolic rate (RMR) is 1799 cal/day. Fat tissue 48.8lbs Lean tissue 147 lbs I am curious as to how to use the above information to aid in weight loss goals. Namely I am wondering what to do with RMR as I was planning on simply eating around 2000 cal/day. Any information would be great thank you!</t>
-  </si>
-  <si>
-    <t>How long does it take for your heart to be back to normal after intense workouts? Hi So I ve been reading a lot about how fast the heart should come back down to rest pulse and that it can take several hours even after heavy workouts. How long does it take for your heart to be back at "normal" rest beats and no exhaustion? I ve just restarted training after a year of inactivity and I find my heart taking several hours to get back to normal state and I feel quite exhausted after an intense workout. I wonder if I am pushing myself too hard or if this is just beginner problems as in that my heart is not used to this kind of activity given that I barely get my pulse up in the past year of inactivity. Please share your progress and if you are having the same thing? I also read that hydration could be playing a role but I drank a lot after training yesterday and it didn t seem to do any difference on it so I wonder if it s just poor cardio and that it takes time?</t>
-  </si>
-  <si>
-    <t>How do you know when a muscle is lagging behind? I read a Flex article a long time ago by Ron Coleman who was discussing power moves vs isolation. He mentioned that by cycling a routine that focuses on isolation you can get that fine muscles that you miss with big moves which will help your big lifts. But how do you keep track of the strength gains on individual muscles in big groups of muscles? If my (whatever tiny muscle way down there) is weak and I don t know it how do I know to address it. If my main goal is to be strong is it even necessary to stress over things like this? Edit Already I m seeing a classic discrepancy on this topic. Some say one thing and others say another.</t>
-  </si>
-  <si>
-    <t>Plates under heels when squatting ? I just had a coaching session with a good coach (former professional weightlifter/powerlifter I don t remember for 10 years). Although I m not tall by any means I have a pretty long torso and short legs. He said that because of this I m leaning too much forward when squatting (especially at higher weights) and that this is causing a sort of good morning when coming back up (which would be bad for my lower back). He then said that I should warmup with some sets of front squats before squats and that I should put plates under my heels so that I stay a bit more upright when back squatting. Is he right ? I do notice that I have a problem with forward lean at high weights but he said that even at low weights there was a problem. The plates under heels technique feels weird but maybe it s just a matter of time before it becomes ok. Good depth isn t a problem for me so I don t think mobility plays a big role in this</t>
-  </si>
-  <si>
-    <t>Why do we protract the scapulae during a pushup but not on bench? There s a popular pushup video by /u/antranik https //youtu.be/4dF1DOWzf20?t=55s in which he mentions that retracting the scapulae can lead to scapular winging which is painful and bad for your shoulders. There s also this bench video https //youtu.be/JJ5iCcKzg2Q?t=1m54s which says you have to retract the fuckin scapula to protect your shoulders on bench. Are they both right? What makes these exercises different from each other?</t>
-  </si>
-  <si>
-    <t>Will squatting with a small weight under your heels slow your progress? Ive read that putting a small weight under your heels when you squat will help with ankle mobility. Would using them hinder your progress at all? My goal is just to add on muscle mass so its not like Im looking to compete professionally. Would using small weights hurt me at all?</t>
-  </si>
-  <si>
-    <t>What are some additional exercises I should do on top of Stronglifts 5x5? I like using SL 5x5 as it is simple and straightforward but I ve heard it will not help you look any bigger as it is not a hypertrophy work out. I want to build strength but I also want it to show in muscle size. Are there any modifications to SL 5x5 I should do or extra lifts or exercises i should do to achieve this? I m about 6 3" and 175 lb</t>
-  </si>
-  <si>
-    <t>No pain in the 8-12 rep range To preface my goals are 1.) Not getting injured. 2.) Physique. I d say I m an intermediate lifter. I hear people all the time talk about pain or burn (lactic acid buildup) when lifting in the hypertrophy range but I never feel any. I can go to failure and it s difficult but I only ever feel pain when I exceed 15 reps do a drop set or really exaggerate the contraction. 1.) Is this a sign that I m doing something wrong? 2.) Is there any merit to chasing pain? Ex. Doing 15 reps rather than 10 because it has the burn. I m still seeing good results but I m only on my 3rd month of getting back into lifting so that doesn t mean much.</t>
-  </si>
-  <si>
-    <t>Why We Fell For Clean Eating - The Guardian A compelling long read from The Guardian describing the who what and why of the clean eating movement -- and its links to disordered eating. I think it s hard to comprehend just how pervasive this movement has been in our society and how we are all changing our behaviours and language in response. The history the author has compiled brings to light a number of issues with the movement including something that I have always struggled with -- that loudest voices in the room are young traditionally beautiful able-bodied women who are convinced that their diet changes are all that is stopping the general populace from also becoming all of the above. View the article [here](https //www.theguardian.com/lifeandstyle/2017/aug/11/why-we-fell-for-clean-eating?CMP=share_btn_fb)</t>
-  </si>
-  <si>
-    <t>Need basic advice stuck for a year So I ve been lifting for ~2 years now. The first year progress was great. Ate at a high deficit lost a lot of fat gained a lot of strength. I was going by the PPL routine got my bench up to around 150 squat to 245 deadlift to 315 (5rm for all). Bench was always my weakpoint. Through this time I had some weird injury that had me lose a lot of bench strength that I had to rebuild. After that year I was still lifting but my diet started going to shit. My bench was slowly increasing but I was definitely getting fatter. These past couple months my diet was complete shit and my strength hasn t gone up that much. I hit 200 5x5 for bench and 345 1x5 for deadlift. Squats I hadn t done in about 2 months and I just built back up to 235 3x5. I just started counting calories again and am trying to stick to 2000 calories a day. I weigh 190-195 right now but have been looking back to my progress pics and looked the best around 170. I think I ve gotten bigger in muscle since</t>
-  </si>
-  <si>
-    <t>Does holding a flat-footed squat position improve posture? If so how? Hi! I don t remember where I read this but it is said that hold a flat footed squat for a long time improves posture particularly by reducing anterior pelvic tilt. I can t make sense of it though as I don t see what muscles would get stretched and what muscles would get strengthened in that position and to what degree that would help in posture? Does anyone well versed in biomechanics know an answer to that?</t>
-  </si>
-  <si>
-    <t>What happens if somebody doesn t eat enough protein? Bodybuilding/powerlifting/weightlifting wise what happens if an athlete doesn t consume enough protein? Mental and physical effects? The rate that they gain strength and or mass?</t>
-  </si>
-  <si>
-    <t>Climbing as an accessory to deadlifts Was just wondering if anyone had any experience of climbing (Bouldering or similar) having significant effects on their grip/back strength and how much carryover that could have to deadlifting. I find climbing quite fun so when I dial back my training (Currently going 7 days for a couple months with a few breaks) I wouldn t mind signing up to the bouldering gym near me.</t>
-  </si>
-  <si>
-    <t>Confusion about Transverse Abdominis Regarding the common suggestion of "engaging your abs" during various lifts I just realized I don t fully understand the optimal way of accomplishing this. Generally I just squeeze my abs as tight as possible without focusing on specific ab muscles. However after reading about the function of the transverse abdominis (TVA) I m not sure I m doing it right. My confusion stems from the fact that when you engage your TVA your stomach sucks in (e.g. vacuums). However when I squeeze my abs during a lift my abs tend to bulge out which I assume is the rectus abdominis. I though I was doing it right because when wearing a belt you are supposed to "press your abs into the belt". However I also see suggestions of pulling your stomach towards your spine. If I focus on pulling my stomach towards my spine I don t feel as supported as when I just focus on squeezing my abs. If I m squeezing my abs am I likely already engaging my TVA?</t>
-  </si>
-  <si>
-    <t>Rucking indoors? I often do rucking (walking with a weighted pack) I enjoy it and feels it is effective for me. However given the season and with it being so cold outside I find it hard to want to go outside in the cold (not to mention icy and snowy conditions). This last weekend I decided to try rucking indoors. My apartment isn t huge the longest route I have found is about 30 paces before I must turn. What I am wondering. Would you think that there is a significant disadvantage to rucking (or any exercise for that matter) where you must turn every 30 paces instead of being able to just go long stretches as one could outdoors?</t>
-  </si>
-  <si>
-    <t>During a cut/bulk as long as you re hitting your protein goals does the allocation of calories from fat and carbs make a difference? I ask both for a cut and bulk because I don t know if the situation changes depending on what you re doing. During a cut if you re trying to maintain muscle while losing fat I figure you d want to enough protein equal to at least your lean body weight. However does it matter how the remaining calories are allocated (so long as you re still at a deficit)? Is there any reason to focus fat over carbs or vice versa. Now I ask the same question but during a bulk phase. I imagine you want more carbs during bulking but ultimately is it going to make a difference? Will calories from fat fuel or help your muscles grow? Or are you better off with getting carbs and keeping fat intake low? Again your caloric surplus is anywhere from 200-500 calories.</t>
-  </si>
-  <si>
-    <t>Broader torso? So I was wondering How i could get a broader torso. I have broad shoulders and broad hips but my torso is still kinda small. Recently i ve began doing obliqes and dips but I wanna know if you got other good exercises.</t>
-  </si>
-  <si>
-    <t>Starting PPLPPL. Should I set "6-7 days a week exercising" for TDEE calculators? Like the title says. Most calculators online have that setting which allow you to switch between sedentary to active to whatever. Even MyFitnessPal has that Sedentary all the way to Very Active option. If I do PPLPPL 6 times a week should I put the highest value available? It really ups my calorie intake.</t>
-  </si>
-  <si>
-    <t>I don't want to have a rest day what should I do? Hey allSo I've constantly struggled with motivating myself to continue working out and training for various reasons - some I'm aware of and some I'm not; I've found that because of the issues with motivating myself I often end up slacking off or just stopping my workouts after I have a rest day. This happens within the first couple weeks of starting a new workout routine so I was wondering if it's okay for me to not have a rest day for the first few weeks so that I can maybe get stuck into the routine more and form a habit.Is this going to be detrimental to me? Everyone seems to say that rest days are necessary.</t>
-  </si>
-  <si>
-    <t>How to Milk Linear Progression Programs? (no results on Google and /r/fitness searches) Like the topic what is the protocol to "milk" linear progression (Squats specifically)? I ve searched it and it didn t yield any good answer It is? 3x5/ fail deload 10% ???? Squat 1x5/3x3/3x1 ??? then i ve read about 3x3 3x1 but not sure about those protocols (then i read practical programming at the novice section and still don t know understand(i know it changes to squat two times a week) atm i m doing Greyskull LP but i want to keep milking instead of switching to intermediate The reason that i ve brought this up is because i restarted training again(S/D/B/OHP) after 2months(and now im at 2 months training) but went to Greyskull and my OHP quickly failed when i ve reached 3x5 60kg(in the past and i m sure it ll continue stalling/where in Madcow i only gained 3kg after 3 cycles 64kg max) Not knowing what to do wit</t>
-  </si>
-  <si>
-    <t>Breathing exercises. Every time I go for a run or play a game of basketball I get winded. A friend suggested that I do some breathing exercises but I don t know any. Is there a direction anyone can point me to that will teach me these techniques? Also is there anything else I can do to improve my breathing?</t>
-  </si>
-  <si>
-    <t>Lunges Can t keep balance painful for the toes 50 yo male 5 10" 210 lbs. I never did lunges growing up but some programs including an aerobics class that I like emphasizes a lot of lunges. My balance sucks I can barely do it for a second which I think leads to the second problem - pain in my toes.</t>
-  </si>
-  <si>
-    <t>4 months of bodybuilding - when to cut? I ve lifted weights on and off for four years or so but recently started doing it properly and I m four months in with long term goals in mind. I m obviously not huge but have gained a reasonable amount of muscle. I m 6 2 and 226lbs/103kg - around 20% bf I want to lose weight I hate being at least 15-10kg overweight and FAT. 4 months in seems way too soon to cut but what about the 6 month mark? Or should I lift solid for a year and try to bulk as lean as possible?</t>
-  </si>
-  <si>
-    <t>Should I be adding my calorie burned through exercises when counting calories? I am currently trying to aim for 1800 calories a day to reach a calorie deficit of approximately 500 calories. I am doing strength training 5 times a week and doing cardio twice. Should I be including my calorie burned when exercising as to reach my 500 calories deficit a day goal?</t>
-  </si>
-  <si>
-    <t>Training for Mass during Hockey Season? I play hockey 4 times a week and i m trying to put on some mass since i m 5 11 138lbs &amp;amp; 16 playing with guys 30+ lbs heavier then me. My worry is if playing hockey every 2 days will have a big effect on my ability to gain lean muscle. I m especially worried about training legs since i ve heard you should avoid cardio the days before and after leg day. What are some tips you could give me to help me make sure i m putting on the weight i want to while playing hockey? Should i eat more? What should i be doing in general. Sorry for not asking a specific question just looking for some information that could help me along the way... Thanks in advance. )</t>
-  </si>
-  <si>
-    <t>Will Strength programs inhibit or assist with muscle up training? A long term goal of mine has been to perform a muscle up with reasonable good technique and while I have made some good progress with pull ups and dips I have a long way to go. At the moment I am also following Wendler s 5/3/1 to make some strength gains with the main 3 lifts but was wondering if there was a better/more suitable program to combine with a muscle up program? Basically I m asking is training for muscle ups going to have a large impact on strength gains?</t>
-  </si>
-  <si>
-    <t>Feel Like Passing Out After Each Set of Deadlifts Is it normal to feel faint after each set? I only feel this way when deadlifting with the trap bar. Everything gets dark blurry I see stars and I feel like I can t catch my breath. I do 10 reps a set starting with 1 plate each side and working up to 3 plates. I do cardio twice a week for about 20-30 each session. Thanks!</t>
-  </si>
-  <si>
-    <t>Uneven oblique/plank question 2 parts of this question thanks in advance to anyone for answers. First up my right oblique is considerably larger/more defined than my left. What is strange is that there is no strength difference that i can notice. Is it advisable to just work the left twice a week and the right once? Also simpler question. What side does a side plank work primarily? If I am on my right arm does it work my left side? Have tried once amd barely works</t>
-  </si>
-  <si>
-    <t>Is squatting wide dangerous? I have hip flexor/extensor pain when I squat with loaded weight. I have heard that squatting with your feet wider apart may be a solution but am worried if that is dangerous or otherwise harmful. All feedback welcome thank you!</t>
-  </si>
-  <si>
-    <t>Is post-workout sugar supplementing really safe in the long run? We all know that the best thing to do right after the workout is to eat some simple carbs mainly sugars and maltodextrins. It is one of the few truly scientifically proven facts in bodybuilding after all. My question is is all this sugar really safe in the long run? Has any serious trial ever been done on the subject?</t>
-  </si>
-  <si>
-    <t>How safe are adjustable dumbbells? I m looking at buying a set but I m scared of the clamp/screw breaking off and the weight falling on my face when I chest press. Is my fear rational? Does anyone have any experiences with them/suggestions?</t>
-  </si>
-  <si>
-    <t>What should I be able to Overhead Press in order to perform handstand pushups? Hi all I was wondering how much I should be able to Overhead Press (1RM) in terms of bodyweight percentage in order to be able to do 1 handstand pushup. Is it simply your bodyweight or do you have a different experience? Similarly what strength goals would you set for other barbell lifts if you wanted to achieve the strength necessary for the planche? People who can do the planche what can you bench and OHP?</t>
-  </si>
-  <si>
-    <t>Are fruit juices and veg juices a good substitute to the real thing? So I ve been working out trying to cook at home more and eat healthier. I don t get enough fruit or veggies but the veggies I m working on and have found I really like spinach and asparagus but to get my fruit intake up I ve been drinking bolthouse farms fruit juices. My question is are drinking this a safe and healthy substitute to eating fruit? It s much easier for me to drink one of the juices than to cut up a bunch of fruit that might no bad in a couple days. Are juices like these actually healthy and good substitutes to the real thing?</t>
-  </si>
-  <si>
-    <t>Water Fasting instead of Cutting I was wondering what your thoughts were on Water Fasting (only drinking water) instead of Cutting. Ideally I d bulk .5lbs a week for 7 weeks. Then water fast for 5 days losing 3lbs. Basically 1 week of fasting vs 3 weeks of cutting 1lb a week. Even if I lost muscle I d have 2 extra weeks to bulk to gain it back. Thoughts?</t>
-  </si>
-  <si>
-    <t>One side at a time vs leaning into the rack Ok so here is my question for everyone. I see it all the time in my gym and read about it on reddit. When re-racking the bar whilst squating I see/read of people racking one side then the other. To me this seems dangerous and unnecessary. I myself set the catches up so that I can get a slight lean into the rack before sliding down with both sides of the bar in contact with the rack. I feel this is safer and less prone to problems. It also doesn t require one to move their neck and do movements with their back and calfs whilst lifting heavy. Have I been squating incorrectly all this time? Which way is the correct way? And should I just accept that people have preference?</t>
-  </si>
-  <si>
-    <t>Wide vs close grip bench press Doing which could I lift more? When you re doing wide grip bench the ROM is shorter but you mostly use your chest muscles on the other hand when you re doing close grip bench the bar travels a longer distance but you re also using the triceps so in theory if I didn t care which muscles I trained and just wanted my 1RM on bench to be higher which should I do? (I realize that this depends on how strong my triceps and chest are but if I wanted to have higher bench in the long run which should I train for?).</t>
-  </si>
-  <si>
-    <t>Been doing leg squats and calf raises every week for years. What am I neglecting in my legs? In the last two years I ve noticed that 3 days after I go running I end up getting interior knee pain. This has caused me to cut out running altogether and stick with biking and elliptical even though I love running. I have been doing leg squats and calf raises on a machine every week for years now and the thought ran through my head...what am I neglecting in my legs and could it be the cause of my runners knee (pain)? I ve read many studies online that show that runners knee is often seen with a weak gluteus muscles. What type of other leg exercises would you suggest to help those leg muscles that I have been neglecting?</t>
-  </si>
-  <si>
-    <t>Can I workout my triceps/chest if my biceps/back are still sore? I m currently splitting my week into push pull and legs workouts. Wednesday was pull day (biceps/back). Tonight I want to focus on push muscles (triceps/back). Will this be okay given my biceps/back muscles are still sore?</t>
-  </si>
-  <si>
-    <t>Another EC stack question I didn t find an answer on here about timing per day. I wake up at different times every day. So one day it might be 7 am and another day it could be 10 am. Does it matter what time of day each dose is/ does it HAVE to be consistent? Or can I just do morning afternoon and evening? I ve been doing one dose about an hour after I wake up each day. I want to move on to having a 2nd dose about 4 hours later but if it s not consistent should I just stop now?</t>
-  </si>
-  <si>
-    <t>help with weight progression on PHUL Hi guys I am a beginner with the PHUL which i started like literally form last week. This is the program i follow - https //www.jefit.com/routines/workout-routine-database.php?id=24375 Now my concern is how do i go about on my weight progression every week? I currently do what is exactly mentioned in the program (for number of sets and reps) but i am unsure on how to increase weights every week as i progress. Any useful insights would be of immense help.</t>
-  </si>
-  <si>
-    <t>Split squat vs. lunges What is the consensus on which if these two single leg exercises is King? I am currently doing PHUL and I was looking to possibly substitute the BSS for the barbell lunges on hypertrophy day. I know substitution is usually a no no but I really like the BSS. Is there a benefit to the lunge that isn t present in the BSS? Anything else to consider here? I m still a relative newb so be gentle.</t>
-  </si>
-  <si>
-    <t>Which bands for chin/up assistance I am 5 7 185lbs and would like to buy some bands to assist with chin/ups. Any suggestions on specifics or brands I should look for ?</t>
-  </si>
-  <si>
-    <t>How does smoking really affect gains? Long time follower but it s the first time I m posting here. I ve been overweight for the past 3-4 years but it s really starting to affect my life now. I joined a gym now hoping to get my life back on track. I also happen to be a heavy smoker. My question is how does smoking directly affect my progress at the gym? First off I have this short term goal of losing 20 kgs in the next 4-6 months. I m not even sure if it is reasonable or not. But I ve made up mind (though not able to make up my mind to quit smoking). I currently weigh 98.1 kgs and my height is 5 11 . I m 19 if that matters. Also I d love to get tips from heavy smokers who quit on how to quit. Thank you. EDIT Smoking as in cigarettes.</t>
-  </si>
-  <si>
-    <t>What is with the difference in strength between individuals? I have been working out consistantly for 6 months and before that on and off. This fat guy (short not sure if that makes it easier for him) who drinks and does no exercise could do 50 push ups. I can do 20/15/10 for a total of 45 in 3 sets. I can bench 60kg 5 times. Is there something I m missing here? We are both males in our early 30 s I m somewhat athletic/normal build.</t>
-  </si>
-  <si>
-    <t>Bad form in my pull ups I've lost a lot of my strength gains due to the cross country season and not lifting for awhile. I can do a few pull ups but my shoulders are scrunched up and it really isn't activating my back. Should I start with lat pull down and build up? Or keep at the bad form pull ups until they get easier and I can do them with better form?Thanks!</t>
-  </si>
-  <si>
-    <t>Training for power followed immediately by hypertrophy -- overdoing it? Currently when doing the big 3 lifts I start with an easy warm-up set followed by 5 sets of 5 reps at around 90-95% max. Rest time is around 2 30 between sets. Then I *immediately* follow this by dropping the weight 20% and push 5 sets of 10 reps at around 70-75% max. 1 15 to 1 30 between sets. The idea here is I have 5 sets working for power followed immediately by 5 sets working for hypertrophy. Is my logic here correct or am I overdoing it by trying to do both in quick succession? (I also continue on to 25-40 minutes of assistance exercises following the big lift.) Or should I be doing something more along the lines of a split like PHAT?</t>
-  </si>
-  <si>
-    <t>Fish better for weightloss? Hi, So I am on a cut where I am trying to lose weight at a good pace. Currently I am under 300 calories daily but I am concerned that I am eating too much red meat. Would I see more weight loss if I switched to eating more fish instead? I am not worried about protein as I am just focused on losing wieght.</t>
-  </si>
-  <si>
-    <t>When is it safe to one rep max? I m part of the New Years resolution gym crowd but I m confident I ll stick with it. Not a complete beginner but it s been about 5 years between serious gym stints. My questions is is it too early to try my one rep max? I d like a benchmark to build on. I just don t want to hurt myself lol.</t>
-  </si>
-  <si>
-    <t>Programming multiple squat sessions per week (help). Hi all I m beginning to write my own programs and have wanted to increase my squatting frequency from once a week to 2 times (or even 3 times). I m using percentage of 1RM to determine my working weights but am not sure what percentage I would I could use during the 2nd or 3rd session of the week. For example session 1 of week 1 will be 4x5 @ 72% (on Monday). If I choose Thursday as my next squat day then would it be better to have it at a lower intensity or (assuming I m recovered from Monday) increase the intensity? I m not sure if this is the correct place to ask. Thanks</t>
-  </si>
-  <si>
-    <t>More sleep when on a demanding program? I ve 1 year training experience I always trained whatever I felt like on the day and pretty unsure about my goals and I don't want to end up causing any damage. But now after getting some help on this amazing subreddit I started a 2-splitprogram (press and pull) this week. Also eating 3200 calories but now 8 hours of sleep is not enough for me is this normal and will my body adapt?</t>
-  </si>
-  <si>
-    <t>Anterior Pelvic Tilt and Lifting I recently self-diagnosed myself with anterior pelvic tilt and would like to take the steps necessary to fix it. I did some searching and found [this video by Alan Thrall](https //www.youtube.com/watch?v=BEn61BL4Nwk) where he explains the syptoms and fixes for APT. My only issue is that Thrall recommends not doing squats and deadlifts to those fixing APT due to already having an overly tight lower back. I recently started SL5x5 and have been enjoying squats and deadlifts and learning to do the lifts. I intend to start all of my lifts with the stretches Thrall recommends but how much of a concern would it be if I continue to lift while trying to fix my APT?</t>
-  </si>
-  <si>
-    <t>Proper exercises to address asymmetric movement patterns Hey Guys I ve had a dominant left leg since as far as I can remember. Most likely from soccer and all the jumps shooting etcetera but no problems in regards to injuries. Left arch is stable and solid right one is dead(on the ground). I picked up main lifts 6-8 months ago coupled with squats/press and the problems are starting to catch up. My suspicion is that I have only reinforced the imbalances even more since I started with severe asymmetries. 1) What corrective exercise do you guys recommend to level the asymmetric imbalances? 2) One issue is my inability to push one knee out caused by an inability to rotate the ankle(externally). How can this be adressed? Thanks!</t>
-  </si>
-  <si>
-    <t>When running stairs I m limited by how fast my legs can move. I do not have the same issue with hills. How do I train/improve this? So when running up stairs I do not get out of breathe or feel weak. I just can t go faster my legs seem to have this limit of how fast they can move. They can go a lot faster downwards or when running hills. my brother for example seems to be able to rotate a lot faster again it not being an issue of endurance or muscle power. Is there a way to train or improve this?</t>
-  </si>
-  <si>
-    <t>What are people s opinion on intermittent fasting if your goal is to gain muscle? Is intermittent fasting a viable diet option if you are trying to gain muscle or is it only a good idea to use when trying to lose weight? If you still have a calorie surplus are there any pros of fasting? Would love some input and insight on this diet plan.</t>
-  </si>
-  <si>
-    <t>Thought on reverse pyramid training? Hey guys just wanted to know your thoughts about reverse pyramid training RPT for short. Basically what it is is that you have 3-4 sets excluding your warmup sets and your first set is your heaviest set. Decrease the weight by 10-15% and rest like 3 minutes. Then aim for 1-2 extra reps in your following set. Then decrease weight again and rest and aim for 1-2 more reps than the previous set. This method is great for increasing strength and i tried it myself and it works amazing. In september I was incline benching 135 for 5 reps. Now I am incline benching 155 for 7. This is the fastest rate of strength gains ever. Anyway what are your thoughts about RPT? Have y</t>
-  </si>
-  <si>
-    <t>post workout nutrition question Hi everyone! I have been working out for a while now (cardio + more focus on weight lifting) with the intent of losing weight and gaining muscle. I like to workout in the morning before I eat and would appreciate any input on my pre and post nutrition. Important to add that I do have metabolic syndrome so I try to keep my sugar/insulin lower and restrict fruit to berries and only after my workout. Pre greens+ supplement and 3/4 scoop vegan whey Post 1 scoop fermented l-glutamine and water (wait 5 minutes) then 1 scoop vegan protein water and 1 cup frozen berries Am I eating conscientiously to restore glucose stores repair muscles and prevent an insulin spike? I appreciate any help and input!</t>
-  </si>
-  <si>
-    <t>Tips dealing with the double squat sessions in sheiko programs? Hi I have been doing some sheiko programming for 3ish weeks now and I often find myself recently struggling with squat session B and my lower back tends to be sore in session B sometimes(not pain just sore) Does anyone else find this to be the case? heavy after the tons of squatting in session A. Is the answer to just suck it up and deal with it or is my squat form awful? I also do cardio sometimes and play hockey every now and then not sure if this is impeding recovery but I ve been doing this for a while</t>
-  </si>
-  <si>
-    <t>What is most effectice if you want to get your cardiovascular system healthy? I lift 3-6 times a week at high intensities and low reps. I am really short of breath quickly and since my father and others in my family died of early heartattacks i really want to start early keeping my heart healthy. What would be the most effectice way of doing so? I searched a lot on different sites and different sites say different things. HIT 3 times a week? "Normal" long dreading cardio on the treadmill? Are all kinds of cardio equally effetive? (Rows, bike, treadmill, calisthenics circles etc.) What equipment should i get? To be able to perform HIT i have to see my momentary HR because otherwise i couldn't be regulating to be in the right Zone. FitBit? Chestbelt?</t>
-  </si>
-  <si>
-    <t>Starting a full-body beginners workout this week. Hey guys. I m 16 and have never lifted before but after doing a ton of research I feel ready to begin my journey now. The problem I have now is that I haven t bought protein yet and while I have made a diet I still need to do the shopping. I ll probably have the money and time in midweek so for now is it cool to stick to my regular ways of eating and just have a banana as a pre-workout along with a lot of water? Or is the protein necessary. I ll only have this dilemma for about 2 workouts so I need some advice on what to do.</t>
-  </si>
-  <si>
-    <t>Ketogenic diet fat dilemma So I want to do the ketogenic diet for a few reasons but I run into the issue of most websites don t elaborate what foods are good fats besides salmon and avocados. I hate avocado but I m willing to eat it sometimes I love salmon but I ve seen in many sites that I shouldn t eat too much fish in comparison to beef and leafy greens. So for those who ve done the keto diet how do you get your fats and what would a normal meal day look like for you?</t>
-  </si>
-  <si>
-    <t>What are the downsides to working out two days in a row with Phraks as a beginner? I ve been working out since november and Im on phraks with the 3 day split. I was wondering is it a bad idea to train today if I trained yesterday? Will my body not progress as much? Thanks.</t>
-  </si>
-  <si>
-    <t>If you always wanted to start griptraining but don t know how here s the official /r/griptraining beginner routine as a video. # Detailed Video https //www.youtube.com/watch?v=FGuVJAj96SE *** Hey /r/Fitness if you haven t heard of /r/GripTraining it s a subreddit dedicated to grip strength and training. David Horne who s a world champion in grip sports of all kinds has created an official beginner routine some years ago and it s also the official routine we recommend for people with weak grip. If you want stronger grip or stronger wrists you should definitely check it out! It takes only 10 minutes to do and all you need is a barbell and plates. You can find the official routine description on David s website **[here](http //web.archive.org/web/20160427205159/http //www.davidhorne-gripmaster.com/basics.html)** - to make it easier to understand i ll provide pictures and a video in this post aswell. * The routine consists of 4 different exercises that focus on your pinch grip your wrist strength</t>
-  </si>
-  <si>
-    <t>Need opinions on "Burn Sets" Recently changed up my program as wasn t seeing results with the former (lifts were going down) so decided to try something a little more out there. Came across a 4 day split routine that included burn sets. Essentially it has you do 3-4 exercises per muscle group and on the last one makes you do as many reps as you can for 5 minutes. For example my last chest exercise is a dumbell bench press for 5 minutes. Does anyone know if these burn sets are at all effective? I ve come across some conflicting articles and after trying the routine out have come across some issues. For example in the dumbell bench press I either do a very light weight to finish the 5 minutes without stopping or I do a heavier weight and find myself needing to take breaks. What s the superior way to do this? And since my chest is pretty wrecked by the time im starting my burn set is there any point? Nobody I know does these so I m relying on Reddit to help me out.</t>
-  </si>
-  <si>
-    <t>Slingshot training How best would you suggest incorporating the slingshot into a bench press training regime? Currently pressing 230 for 1 225 for 2 and 200 for 5 as my maxes haven t been able to break this flat bench plateau for months now using traditional techniques and programs (floor press pause bench assisted reps rest pause sets etc). Squats at 325 and deadlift 420 switching the focus from hypertrophy to strength through 2018.</t>
-  </si>
-  <si>
-    <t>How do we physically lose weight? How do we physically lose weight? What I mean is conservation of mass dictates that if we lose weight we have to have expelled it somehow. So what is being expelled and how?</t>
-  </si>
-  <si>
-    <t>Which fruits and vegetables should be the anchor of any diet that aspires to be perfect in terms of micronutritional value? I see the term "superfood" thrown around pretty regurlarly and the amount of items that leave and join that list can tend to be quite confusing. I usually try to structure my meal plan into at least one fruit heavy and one vegetable heavy meal. The remaining meals I usually try to fill out with as much fiber and filling foods as possible. My daily diet as of right now (in terms of fruits and veggies) contain Berries Kiwis Bananas Spinache Broccoli and Peas/Carrots. Is there any item I should add to that list? Am I getting all I need to from it?</t>
-  </si>
-  <si>
-    <t>Simple visual/video explanation of what happens in the body during working out and recovering? Iâ€™m trying to learn the general process of working out, breaking down muscle, refilling glycogen levels, and muscles recovering in larger size. Some cartoon video would be helpful. Thanks.</t>
-  </si>
-  <si>
-    <t>Hi! I m looking for some help on my program! (F17) Hi! I recently got back into fitness after a few months of bad habits and want to gain muscle mass on the lower part of my body. I am 4 11" and weigh approximately 130 pounds. I plan to work out 4 times a week following a fitnessblender (a fitness youtube channel) program that consists of 3 workouts a week including hiit and strength training which are quite tough and then add in the weekend some low impact cardio. I also planned to eat 1800 calories of good food on the days I work out and 1500 (my maintainance calorie level) on the days I don t. What do you guys think? Could this be a good plan to develop some good muscle mass in the long run? I also would like to ask what my macros especially protein should look like. Today I reached 91 grams of protein 164 carbs 89 fat (i count them on myfitnesspal) but I m not sure if I m doing this right. I have been told that too much protein could harm me and I m a little scared to eat too much of it! Thank</t>
-  </si>
-  <si>
-    <t>Agility Warm Up? Currently I start my gym workouts with a short jog to warm up. I think I can make better use of that time by trading out the jog for a simple agility exercise. Preferably it would be something appropriate in a relatively crowded gym. Any suggestions?</t>
-  </si>
-  <si>
-    <t>Melatonin naps and recovery If sleep repairs the muscles Will naps help aid also If not tired I was thinking about taking a quarter a tab of melatonin to take naps Assuming I was to do this would this mess with my sleep even if I was to take melatonin before bed</t>
-  </si>
-  <si>
-    <t>Pre workout supplement and cardio I ve recently swapped out solo lifting heavier weights for classes; such as 15 minute abdominal training classes 60 minute classes of quick squats presses lifts and curls and cardio classes. Ive seen excellent results of stomach fat loss and toning. But would like to know if there s more I can do? I ve heard of pre workout drinks that increase fat burning during workouts. Is this thing and if so; what are your thoughts and advice.</t>
-  </si>
-  <si>
-    <t>When cutting can you eat at a larger deficit when you re body fat % is high compared to when its low? So say I m starting my cut at 20% body fat could I eat at a larger deficit (and maybe slightly less protein) than when I m at 15% body fat and still not risk an increased loss of muscle mass?</t>
-  </si>
-  <si>
-    <t>Lack of sleep when cutting I realize sleep is very important when bulking to build muscle and reduce soreness and heal etc but what about when cutting? Obviously getting more sleep would be better anyway but is the damage as big when cutting? I won t be building much if any muscle at all anyway but I don t see how it would cause your body to lose muscle either? Tried searching around but cant find much on this any ideas? Thx</t>
-  </si>
-  <si>
-    <t>Massive pump causing premature burnout? Hey there noob here just had a quick question. When doing any weight lifting I usually get a great pump and it feels really good however this pump I feel is reeealy big and I feel like I can t move very well afterwards. Like to the point where finishing 3 sets of anything is difficult due to limited movement alone because of my pump not to mention fatigue... Feels like water balloons strapped to my arms and chest.. I feel like I stretch pretty well before lifting should I stretch more? Lower my weight and focus on form and more reps? I usually try to lift heavy to build muscle could I be over lifting? Thanks in advance! Edit more info m/26 6 2" 250lbs formerly athletic trying to get back into shape with an actual program doing the recommend PPL routine been on it for 2 weeks now no particular diet plan for now trying to keep it to one large meal a day at around noon.</t>
-  </si>
-  <si>
-    <t>When and how should I readjust macros or increase cardio after weight loss? Happy New Year y all. I paid for online coaching for 12 weeks and lost some weight. I started the program at 170 lbs and now am 163 lbs. The coaching included a lifting and macro instruction. The program is coming to it s last week and I still want to continue reaching fitness goals but not sure how without the paid weekly instruction. I can follow instruction and advice but am afraid to create my own... I ve searched on /r/fitness about when to adjust macros but there I could not find any real consensus on how much cardio to increase or how much g s carbs fat or protein should change? Right now my macros are 70 f / 245 c / 150 p. On a refeed day my macros are 70f / 310 c/ 140 p. My cardio currently is 200 kcal 4 times a week. Edit I m 5 10 Progress pics Week 2 https //imgur.com/gHcLwfj Week 11 https //imgur.com/spXuYr6</t>
-  </si>
-  <si>
-    <t>As a lifter what is the best cardio I can do for health benefits? I know cardio can greatly improve your cardiovascular health so as someone who lifts what would be recommended? If I recall correctly moderate 120-ish BPM cardio for 20-30 minutes is quite good for your heart health? Does it beat out HIIT training or something more intense?</t>
-  </si>
-  <si>
-    <t>Does segmented sleep jeopardize gains (for both cutting/bulking) as opposed to uninterrupted sleep. If so is it negligible? Title pretty much sums it up. Let s say you sleep 5 hrs + 3 hrs later in the day. Given how important it is to "get those 8 hours" will it be comparatively inferior to uninterrupted sleep to a large degree?</t>
-  </si>
-  <si>
-    <t>Very light-headed after deadlifts. I have always noticed this today as soon as I did the first rep of the first set I was so so dizzy and I felt loke collapsing but I said screw it and did the next rep and it started to fade away a bit. Is this normal? Thanks wanna note that I m cutting and have always been since I started lifting and always experienced this dizziness but today it was just more powerful.</t>
-  </si>
-  <si>
-    <t>Pure hypertrophy programs Hello reddit! Im almost done with madcow 5x5, and so im looking to mix things up with a pure high volume hypertrophy program for the next 2-3 months. But I don't know, maybe it's a bad idea since most hypertrophy focused programs mix high and low volume days? I looked at German volume training, but found some sources claiming that people with lower volume had the same/better results. I've been doing high intensity programs for a long time, and I just feel like taking a break from all the really heavy lifting for a few months. So what do you guys think? Im a just wasting my time with that type of program? If you have any ideas/input I would really appreciate it!</t>
-  </si>
-  <si>
-    <t>Body composition and training types. Hello all I do not profess to be the all knowing fitness and training guru but I have a relatively simple question to ask to everyone who trains differently. I ask this in a purely aesthetic sense does the training regime/programmer ultimately effect the way you look? For example; If i were to train using a body building routine would this make me look somewhat different compared to a cross fit routine or strong man routine? Genetics are accountable for the look/mass and position of muscles I know this but does the training system effect the size definition? I know that Strong man makes you strong and Bodybuilding makes you look amazing but not necessary as strong. Thanks all sorry for the crud question.</t>
-  </si>
-  <si>
-    <t>How do I prepare the week before a half marathon? I am running my first half marathon on Saturday in the attempt to impress a girl and the thought of a weekend away with her sounded pretty good. I have had 3 weeks notice to prepare for it. I have also found out that its not 13 miles but 16 miles instead. Also its off road and over rolling hills. Yes I have bitten off more than I can chew but it s too late to back out now. I ve been training as much as i can but so far my longest run has been 10 miles. Now I have 5 days until the half marathon. What training should i be looking at doing this week to make sure that im fresh for Saturday? Also a lot of people talk about carb loading which i know involves eating carbs but any details of any particular carbs and when to start would be appreciated. Finally what is the ideal breakfast on the morning of the run? Thanks for any help!</t>
-  </si>
-  <si>
-    <t>Legs and triceps together any problem with that? I usually do shoulders and triceps together but today after shoulders I was just dead so I figured I d squeeze tris in on legs. Is there any negative effect to doing that as in being pointless? Thanks</t>
-  </si>
-  <si>
-    <t>Pick up new lifestyle Hey all, I've been out of shape for a while and I am looking get serious about dieting and running a routine to lose wieght. I have allegies to protein powder, so my diet will have to be changed around that. I have also tried doing a few routines that involve cardio and weighttraining, but my main goal is to lose wieght. I can't run or jog because of the weather, but can use treadmills. Any starter tips to lose weight with the best routine and diet?</t>
-  </si>
-  <si>
-    <t>Proper breathing with weak abdominal lining while lifting Recently I took a month off from lifting since it seemed to be bothering my lower abdomen. I have since returned to the gym but I feel like the need to force exhale every time I push (during bench press) pull (while dead lifting). I noticed that a lot of people on this sub advocate using the Valsalva Maneuver but I m scared that it might actually give me an inguinal hernia or something given my precarious condition. I can t seem to be able to inhale and exhale consistently after every rep so I m usually out of breath after a set. I ve noticed that continuously taking in large breaths of air after a set makes the funny abdominal feeling go away so I m wondering if the two are connected. How do people who lift with weak abdominal lining breathe? Any pointers?</t>
-  </si>
-  <si>
-    <t>Need some guidance on how to efficiently train given the time I have Hello r/Fitness first post here. I am 26 and have been going to the gym on and off since I was 17 but never really dedicated to it which is what I would like to change. I am currently able to go to the gym twice a week and I do some exercises at home when I m unable to go. I train my full body when I go and usually do 3 sets of 12 reps with a weight that barely allows me to complete my third set. I try to do different exercises everytime I go to train my muscles in different ways. I would like to understand how I can be more efficient in gaining mass by for example changing the weight and amount of reps or amount of sets. Also what should I be doing at home? Thanks a lot for your feedback!</t>
-  </si>
-  <si>
-    <t>Kettlebell weight question Hello everyone I m looking to buy a kettlebell but I m not sure which weight is the best. I tried out some in the store and the 16kg was the last i could lift overhead without thinking "omfg i ll drop it any moment" feel like that could be a good start for workouts or am i wrong? What s others experience with starting weights? 29yo out of shape guy</t>
-  </si>
-  <si>
-    <t>How should i decided what program to select based on current stats Current stats 25 5 9 177 male Current maxes Bench 250 Deadlift 385 Ohp 150 Squat unknown I have been running Alphadestiny Naturally Enhanced for a while but feel like I m getting nowhere for a couple reasons. Firstly exercise selection. I don t know where my weak points are and that s a big part of a program that s based off westside principles. In general feel like I can get more gains running a simpler program and make consistent weekly gains. If anyone has advice let me know. I was thinking of running a 531 template using the 351 variation along with joker sets but still not sure. My goals are to get big and strong as possible</t>
-  </si>
-  <si>
-    <t>Questions about "5/3/1 for Beginners". My English isn t very good so I don t really understand the instructions laid out in the wiki so sorry if these sound dumb. 1) It says I should do week 1 like this 1x5 @ 65% 1x5 @ 75% 1x5+ @ 85% But lower it says that for example in squats I should do "5/3/1 sets/reps then 5x5 FSL" so do I do it in the first week like 3x5+ (+ being the AMRAP set) and then in week two like 3x3+ and so on or am I interpreting this incorrectly? 2) When doing the assistance movements do I actually have to pick just one exercise from each category and do 50-100 reps of it or can I choose two or three exercises and do like 30 reps each? Because I would like to include more back/bicep work but I don t wanna do just 5x10 rows and would prefer 3x10 and 3x10 biceps curls way more. Thanks in advance!</t>
-  </si>
-  <si>
-    <t>Am I using too much weight for bench press? Been doing the 5x5 strong lift routine for about 2/3 months now and I m always having a dilemma of if I m pushing myself too hard on the weight or not. For example right now I m doing 50kg bench (shit i know) and I get through it but always feels like I have to rush it else I might not make it through. Usually the last few reps take a big push. My question is whether this is a good thing or not? I could lower the weight and have perfect form and do it slowly but then I wouldn t be really pushing myself just working within my comfort zone. Any advice? (And no I don t have a video unfortunately) Thanks!</t>
-  </si>
-  <si>
-    <t>I m having trouble engaging my glutes during squats. Any tips? Hey /fitness Its been good but I feel like I m not engaging my glutes during squats. Does anyone have some tips for me? Thanks in advance!</t>
-  </si>
-  <si>
-    <t>Right way to do single-leg leg presses? I was doing leg presses the other day one leg at a time when a personal trainer came over and said I was doing them wrong and that I should lean over and do them more sideways at a 45 degree angle. Kind of like [this](https //youtu.be/JvvrBu3lKpk). He was trying to explain other stuff too but he was speaking Chinese and my Chinese wasn t good enough to understand. Now to be honest I didn t think about the leg press form very much. I just adjusted to the seat as low as I could go without rounding my lower back placed my foot as low as possible because I m trying to target the quads and made sure not to lock out the knee since we ve all seen those leg press accident videos of people s legs getting folded over the wrong way. Besides those things I just pressed. fwiw it s a horizontal leg press machine with a sliding seat where you push yourself away from the foot pad. Does it really matter how you do it and what s the best way to go about it?</t>
-  </si>
-  <si>
-    <t>Only have gym access two days a week, what should I do? Due to commuting to college, having to work, and other things keeping me busy, I can only get to the gym two days a week. Tuesday and Thursday mornings I have a gap between classes where I normally go workout. I'm trying to cut right now, but want to lift to keep from losing too much muscle. I try to get some cardio in five days a week and swim twice a week. I was wondering if there is a program where I can hit most of my body on these two days, and what I can do at home without weights to hit other parts.</t>
-  </si>
-  <si>
-    <t>Endurance. So I realise this is a very basic question but I find myself getting drowned in too much detail. I m a big fat guy 167kg who goes to the gym and fitness classes. Over the last 6 months it s become apparent that I m plenty strong but I really struggle with High intensity bursts of exercise (burpees sprints HIIT) So to improve my Ôsprint capacity I should sprinting exercises? I own an assault bike so what would be the best exercise? As many cals as possible in 60 seconds and try to improve? Thanks I realise this is probably pretty straight forward but I m unsure.</t>
-  </si>
-  <si>
-    <t>Doing Only Cardio I just went overseas and put on some weight, and before I left, I was 83kg, and now am 86kg. I was going to gym three times a week, doing 20 minutes elliptical machine, and then 40 minutes of free weight bench (4 sets of 10 reps at 52kg), planks, assisted ab crunches on the machine, lat pull downs, free weight bench flies, arm raises, and kettle bell squats.But now that I've come back and just want to lose some of the chub, I was wondering if it'd be beneficial for me to simply just watch my diet as normal (no soda, fast food, less alcohol etc) and just put in an hour of cardio.I had my first day back today and did 20 minutes elliptical, 5 minutes on the stair machine, and 5 minutes rowing.I was wondering if it'd simply be more beneficial to go three days a week, and just do an hour of cardio.Or, should I ramp it up to 5 days a week of 30 minutes cardio?</t>
-  </si>
-  <si>
-    <t>Apart from cardiovascular health and calorie control are there any other benefits of combining cardio with a bulk? I m starting a bulk today but never thought about including cardio into my routine because I haven t thought it was necessary to control my diet as I think I m doing that well enough through eating. However if there was some sort of benefit for muscle growth recovery or something else in general than I wouldn t mind introducing it into my routine. However I would rather not eat any more food because currently my calories are high because I have a relatively fast metabolism and this is what has worked in the past (3300~ ATM) Thanks in advance</t>
-  </si>
-  <si>
-    <t>What is the minimum amount of recovery you need? background Male 18 183 pounds 13% BF measured by calipers 6 2. I am a stimulus addict. I love the experience of working out whether it be lifting weights cardio agility work plyometrics calisthenics it can be anything. My personality just doesn t allow me to be still I have severe ADHD and I need to constantly move so that may be part of it. I usually workout once a day for five days and on two to three of those days I will workout again depending. This is coupled with cardio on all of those five days usually twice. And I just do whatever on the weekends depending on how I feel weights or cardio. I don t get very sore or DOMS but I do notice that my lifts suffer depending on what workouts I do and how close they are to each other. I get 8-10 hours of sleep a night and drink water by the gallon. I have been doing this routine for about six months. Is this routine sustainable or should I tone it back? My main concern is acquiring overuse injuries.</t>
-  </si>
-  <si>
-    <t>Need some advice on cardio Hey guys I just basically need a little advice on cardio and would appreciate those of you who are big on it or excel at it to chip in. Basically I ve just started back to the gym a few days ago and I m probably in the worst shape I ve ever been in in my life. For the last several years both me and my girlfriend have got lazy as you do. Too much wine and too many greasy takeaways have taken their toll and we ve both put weight on. We therefore decided to start dieting and get back into training to slim down. We ve also said we d like to do the Tough Mudder in September near Manchester but honestly I think I d be dead within the first mile with my current stamina. I ve got back into weightlifting relatively easy as I m a pretty big guy and used to crush it...also I enjoy weightlifting so it s not a chore. The cardio side is more problematic though. I ve always hated it and never really been into jogging or whatever and it just creates tedium and I m jjpt so unfit stamina-wise.</t>
-  </si>
-  <si>
-    <t>hello friends I have a question about nutrients So I m currently on a diet plan and exercise plan to lose weight within 3-4 months. I used Cronometer to optimize my diet and track calories and I tried to get all the nutrients I needed with the least amount of calories because as a 16 year old I figured I needed them. daily I m getting 93% fiber 186% iron 110% calcium 646% vitamin A 174% vitamin C 258% vitamin b12 and 111% folate which is the main nutrients on the Cronometer. I generally eat foods part of a vegan diet because I figured it has the least calories overall and is most dense in nutrients. ( don t have any meat and minimal eggs) SO my question is out of all the main nutrients I m getting is there any I am "overdosing" on? I read that too much iron can be toxic and I m getting 186% of iron daily requirement or 20.4 mg. I read that there is heme and non-heme and non-heme iron which is what I m mostly getting from vegan sources so would the actual iron I m getting be less than the site sa</t>
-  </si>
-  <si>
-    <t>How can this guy claim that lower calories does not mean weight loss? Could anyone knowledgeable please tell me how can Dr Berg claim in [this](https //youtu.be/QaH56AeT1eI) and [this](https //youtu.be/mDGcXTGWzaY) video that low calories does not equal weight loss? Genuinely curious because I thought the law of calorie balance was unbreakable. Thanks!</t>
-  </si>
-  <si>
-    <t>Does lifting more frequently give better gains? Currently doing phraks greyskull LP (3 days a week). If I could comfortably find the time would I see better gains doing a 6 day program like 2-suns 5/3/1 for example?</t>
-  </si>
-  <si>
-    <t>Lunges hurting the back foot? I m practicing lunges (barefoot if it matters) and it kills my back foot more that the quad. Is it it something you just get used too like deadlift hands or am I messing up?</t>
-  </si>
-  <si>
-    <t>Wrist flexibility exercises I have cysts that grow in my wrist which make it difficult to bend them. Awhile ago I did some wrist curls and got rid of the cysts temporarily. When I told my doctor he suggested that I work and stretch my wrists to keep the cysts away and get rid of them when they show up. Are there any wrist stretches and exercises you would suggest?</t>
-  </si>
-  <si>
-    <t>When should I transition? Hey guys so I ve been working out since mid-September so around 4 months and have progressed decently. My question is should I consider switching to an intermediate program come the summer months (2 months). Also what kind of program do you guys recommend for bodybuilding. I m trying to focus a lot on physique rather than strength but am open to trying new things. My starting lifts (4 months ago) and current lifts are below. Bench (5x5) 75lbs --&amp;gt; 155lbs Squat (3x5) 95lbs --&amp;gt; 155lbs Deadlift (1x5) 115lbs --&amp;gt; 275lbs (focused on form in the beginning so probably not representative of how much I could actually lift) Barbell row (5x5) 45 lbs --&amp;gt; 105lbs Overhead Press (5x5) 55lbs --&amp;gt; 95lbs Any feedback is appreciated. Thanks! EDIT Currently doing Metallica s 6-day PPL</t>
-  </si>
-  <si>
-    <t>Is upping the amount of calories I eat just as important as getting enough protein to build muscle mass? I m a pretty skinny guy looking to get bigger and I was just wondering about this. I m just worried that I ll end up getting fat for whatever reason instead of building muscle if I keep my calorie intake higher than usual.</t>
-  </si>
-  <si>
-    <t>Ab progression Hey reddit Been going to the gym for 7 months now got really good gains in that period following PPL. Have kinda been ignoring ab and core work but starting them now. Ive been doing ab wheels for 3 sets of increasing reps and was wondering what I should be doing for progression. Tried some hanging leg raises cant do any except hanging knee raises. Think my grip strength needs improvement on that too. If anyone could suggest or point to a great ab progression exercises would appreciate it a lot Thanks</t>
-  </si>
-  <si>
-    <t>7 months until wedding, 80 lbs to drop? How feasible is this if I do cardio 4 days out of the week? I'm starting a new job driving a truck and wont have time nor equipment to work out (except pitiful hotel gyms). I will have physical activity since its furniture home delivery. Would this be possible? I'm currently eating clean with low carbs and sugar, hitting estimated 1500 calories a day post workout. 5'10 290 25 Years old Male. So much more support and information than I was expecting. Thank you everyone for your input!</t>
-  </si>
-  <si>
-    <t>Getting bogged down with minutiae. I have a obsessive procrastination when it comes to nutrition i obsess over macro nutrients and caloric amounts to the point i get frustrated and just quit. Do any of you guys suffer from the same problem ? If so what tips would you give to eliminate this needless endeavour ?</t>
-  </si>
-  <si>
-    <t>Cardio Equipment - Estimating Calories Burned By HR **My main question** concerns cardio equipment and the est. calories burned. When I was 18 I used an elliptical in the gym and normally after a 45-60min workout I d burn roughly anywhere between 700-900 calories or atleast the machine would claim. My HR back then I generally tried keeping it anywhere between 130-150. Also back then I would wear a waist trimmer + shirt + hoodie so I felt like I burned more and the machine reading wouldn t account for that. I m 25 now and I ve been trying to get back into excercising and dieting. I m doing upright excercise bike or elliptical for 45min aiming to keep my HR anywhere between 137-150 (Atleast 70% of my Max HR). But when I finish the workout the machine normally estimates that I only burned 350-450 calories. Is this accurate??? I visited a few sites that calculate calories burned off HR &amp;amp; Age &amp;amp; Gender entered the duration of 45 min and avg.HR maintained and those sites claim I burned roughly around 7</t>
-  </si>
-  <si>
-    <t>Do those revolving grip hex bars land easier on a floor than normal hex bars? Let s say you have someone doing the same movement same weight on both a normal hex bar and one of those [fancy looking hex bars](https //www.amazon.com/Valor-Fitness-Super-Hex-Trap/dp/B016NAGTVE/ref=sr_1_8?ie=UTF8&amp;amp;qid=1511849794&amp;amp;sr=8-8&amp;amp;keywords=hex+trap+bar). All bumper plates on both bars which one has a lower chance of damaging the floor? I d have to guess the normal trap bar because of the little rubber stops on the bottom of the revolving grip hex bar have less surface area when landing than around 315 lbs of bumpers. I could also be wrong about the surface area because there are 4 separate stops on that bar.</t>
-  </si>
-  <si>
-    <t>There are a million studies showing that leucine stimulates protein synthesis in skeletal muscle. But have there been any attempts to quantify this effect? Quantify as how much bigger will you get with leucine supplementation+exercise compared to exercise alone? (assuming all else being equal e.g. diet age genetics routine...) I m also a bit surprised after searching because /r/fitness appears to be quite critic of BCAAs as an anabolic trigger. Not for safety reasons of course it s not AAS but nearly everybody says BCAAs are useless if you re not training fasted. Well in light of all the studies that have shown the stimulus of protein synthesis this is a bit confusing especially because the same redditors who say this link to examine.com which actually confirms the protein synthesis statement. Anyway I m curious about studies that have measured the magnitude of this effect. Do you know about any?</t>
-  </si>
-  <si>
-    <t>Calories Burned From Consumption of Water Hey all Have a very "out there" kind of question? Water has 0 calories awesome. But does anyone know what the energy expenditure (calories burned) of processing water looks like? If someone drank tons of water per day besides the natural benefits would it also contribute some (even if just a few) burned calories? Just curious Edit I looked into it before posting this and I saw various websites say that it burns a considerable amount. I assumed this was bs but I wanted another opinion. And I m bulking btw so I m not trying to make shortcuts around cutting.</t>
-  </si>
-  <si>
-    <t>Is there a significant difference between muscle growtg and strength? So basically I m curious if signs of strength mean that you are getting bigger as well or does it certainly have to be low reps/high volume for strength and vice versa for size? I noticed getting stronger in the gym on some lifts but not getting bigger and on some body parts Im bigger but not stronger.</t>
-  </si>
-  <si>
-    <t>Am I Setting Myself Up For Even More Failure? I have been keeping track of my stats (weight bf waist lift 1RMs) for the past year and today I decided to take a look back and see where I progressed and to my absolute surprise all of my lifts stayed the same and only my weight and bf dropped and even not that much (-16lbs and -7.5% bf). This shows me I completely wasted a year in terms of lifting. I have decided to get my shit together and get on a plan that has had good reviews (nSuns). I had be running various PPL routines during the past year and they obviously didnt work well for me because I either didnt stick with them or the gains weren t there. I am looking to set a goal for January 2019 and was hoping to see if experienced lifters here can let me know if it is realistic or far-fetched. I have already wasted a lot of time and would not like to waste anymore and would like to get some goals that I can achieve. **Current Stats** - Weight 199lbs - BF% 24.4% - Waist 40.50in - Bench 245lbs - D</t>
-  </si>
-  <si>
-    <t>Powerlifting Belt on ATG High Bar Squats? I was gifted a 10cm wide 13mm belt. I m still squatting raw and I don t plan on using it soon. I ve recently decided to switch from low bar to high bar squats so a couple of things * High bar isn t as taxing on the core than LBBS. * Will the belt get in the way of the thighs and ribs when ATG? * Will the belt get in the way of the thighs when deadlifting? (without wearing the belt on my ribs) I saw WLers wearing tapered belts for their squats but maybe it s because they use the same belts for Oly lifts. I don t want to open the belt yet since it would lower the resale value and it takes a while to break in. Should I sell it keep it or trade it for a tapered belt?</t>
-  </si>
-  <si>
-    <t>Birth control and muscle gain? First time posting to r/fitness so hopefully I m doing this right! A little background I m a 24 year old female who recently started using weights more. Before I was strictly into cardio and would run bike or swim only. I wanted to mix it up a little and started lifting weights. Now I ve decided to set some new goals that include gaining some muscle. The other day I had to switch my birth control by doing this my doctor said it would change the balance of my hormones. That got me thinking can birth control effect muscle gain in females? I tried researching but I don t know enough to really understand how everything works. Was hoping someone could shed some light on this topic. Thanks )</t>
-  </si>
-  <si>
-    <t>Question about using jump rope for cardio Is there a trick or certain technique to jump rope without stopping or is it just one of those things that takes practice? I can hardly go 20 seconds without hitting the bottom of my foot and messing up.</t>
-  </si>
-  <si>
-    <t>how much more do you squat low bar vs high bar? I squat high bar and beltless right now but im wondering what i would squat if i did low bar with a belt too. right now my beltless high bar is about 150kg is there a semi-reliable way to work it out? how do they differ for you? is the discrepancy predictable?</t>
-  </si>
-  <si>
-    <t>Why does it feel easier and/or smoother to squat more weight? I am now on the verge of making my normal squat weight 100kg. I do 2 sets of 95kg then finish my workout with a set of 100kg. Its not a lot more weight but why does the 100kg feel "easier" or smoother to lift like feeling more stable with my form is more solid? I am thinking its at least partially mental like my mind is saying "this shit is heavy so concentrate and don t fuck up" more but it may just be bio mechanically easier as well. Whats going on?</t>
-  </si>
-  <si>
-    <t>If you re eating a deficit then exercise and eat those calories back will you still lose weight? Let s say your maintenance level is 2000 but you re eating 1400 calories a day. Then you go swimming for 30 minutes and burn 200 calories. Then you go and eat a 200 calorie meal. You re still eating at a deficit to lose weight right?</t>
-  </si>
-  <si>
-    <t>Workout for while I am extremely sore? So I worked out for the first time in a couple years. I used to be very athletic and competitive but some stuff changed and I ended up quitting. Now I am very sedantary just sitting at my desk all day. So I decided I would start working out again. I worked out on Saturday and woke up to discover that every single muscle hurt a lot. My arms are sore my shoulders are sore my abs are sore and my legs are sore. Any movement hurts. And today it is worse. I can t even walk normally. I tried to do one squat and it was nearly impossible. I was planning on working out again today what should I do? Should I just attempt to workout again like I did before should I skip it should I go for something lighter if so what?</t>
-  </si>
-  <si>
-    <t>Greasing the groove for cardio This is probably a stupid thing to ask but If I was to grease the groove with cardio throughout the day would it improve my cardiovascualr fitness? I still plan on doing cardio but wondering if this would help. Throughout the day I like to jump rope on the spot for ~200reps as fast as I can. Doing this would only last a short period of time so I assume it would be far less effective than say doing a jump rope workout for ~20 minutes. But if I did this as well as doing cardio would there be any noticable improvement to my cardiovascualr abillity or not?</t>
-  </si>
-  <si>
-    <t>Body Recomposition? Sorry if this is considered a "general" or simplistic question but would like someone to shed more light on this for me. Is body recomposition attainable under normal circumstances? Or should I just stick to bulking and then cutting? From this Livestrong article https //www.livestrong.com/article/362906-can-you-build-muscle-on-a-calorie-deficit/ it seems like muscle gain is possible on a caloric deficit if 1. You eat 1.6g protein per kilogram of bodyweight daily 2. You exercise with a high degree of intensity (I go to the gym 4 times a week doing HIIT exercises every other day.) How accurate is this article? I ve been following these steps although progress is hard to determine since BF% can usually only be estimated.</t>
-  </si>
-  <si>
-    <t>Starting to count my macros/calories.. and I suck at it Maybe I m making it harder than it should be but just seems to confusing to me. First off I m using myfitnesspal premium to help me but amyway How do you go about getting your calories and macros correct if you make your own spaghetti or something at home? Or for instance I went to buffalo wild wings and had a grilled chicken sandwich where do i find to put it in on myfitnesspal?</t>
-  </si>
-  <si>
-    <t>What do you do when you have weeks where it s hard? Some days it feels very hard to do the full routine and even though I m not hitting the gym enough to be overworked my body and mind feels like FUUUCK. I still go but I do like 20-30 minutes instead of 45-1hour. I am trying to gain muscle weight now. early 30 s/male/5 10/173lbs/medium-athletic build/ Been working out seriously about 4-5 times a week for 1 hour a day for about 6 months. I know there s a lot of people that will say "Just do it just push yourself all the way" but does that fit my goals? My goals are to look good and be somewhat thick. I m not competing for strong man or anything. But does that matter? What do you do?</t>
-  </si>
-  <si>
-    <t>Couple simple/quick questions about supplements various 40 yr old male used to work out quite a bit but haven t in 3 years about to hit it again. Current weight 179. I have no joint issues at all other than some slight shoulder pain when lifting arms above head but I truly think that due to being lazy the last 3 years -/ So I have a little fat I want to shed so I m gonna kick off with some cardio then gradually get into lifting only. Slowly but surely. However once I hit the weights I really want to build some muscle and I m thinking of using supplements for the first time ever really. So here s what I m for sure using but also considering creatine Whey protein shake and BCAA powder. From what I ve read I should be drinking BCAA just before or during workout then should be drinking whey protein shake immediately after workout. I plan to eat some 1% cottage cheese every night before sleep and maybe even take some BCAA pills immediately when I wake everyday after workout. I should ment</t>
-  </si>
-  <si>
-    <t>Eating Healthy and Counting Macros While Broke and Living with Parents So recently I decided to become more fit. I ve been hating how my body looks my energy levels have been extremely low and my body has been having more pains (back and hips) which I feel like is from having a sedentary lifestyle. I figured I would be better off getting fit while I am in my 20s that way I can maintain those habits throughout my life. I m still getting a handle on the exercise portion...my schedule really only allows me to go to the gym in the AM but I have problems waking up in the morning (lately I can t even get to work on time most days plus I m trying to find a trainer/gym to help me with proper form when it comes to exercises). But I feel like my biggest issue is probably going to be diet. I currently live at home and my mom cooks dinner most nights. The meals she makes while delicious are not the healthiest. I ve tried to ask her to cook healthier but it really isn t her responsibility to do so anymore especial</t>
-  </si>
-  <si>
-    <t>Fitness Machine Question Hi I posted here a couple of months ago asking about how many people actually used fitness machines and received lots of helpful replies. There were comments going either way but I came out of it feeling like I d benefit from buying a fitness machine. I ve not bought one yet though because they re very expensive especially the Concept 2 rowers that were very highly recommended. I was saving up to buy myself a new computer but considering that if I *would* use a fitness machine regularly it might change my life I think the new computer is less important right now. ------ I d like a bit of help with buying a fitness machine though - in particular - **Are there any reputable sites that sell second-hand fitness machines?** I have seen some listings on Ebay/Gumtree etc. for second hand machines but I m quite hesitant to buy off an individual with no guarantee of quality especially since I m not an expert myself and wouldn t know how to spot signs of wear/damage. -</t>
-  </si>
-  <si>
-    <t>Question regarding failure So I ve been following the reddit ppl for a a month and during Pull days and when I start with hammer curls 7.5Kgs (I can do 12 till failure) I do (With a 1 min rest time) 10 of them for the 1st set (leaving 2 in the tank) 9 of them in the 2nd 8 of them in the 3rd Barely 6 on the 4th By the time I get to Bicep Curls I can only do 5Kgs (Sets of 121 min rest time) Should I increase rest time between sets ?? Also I can t progress because if I go to 10Kgs I m gonna burn out by the 2nd or 3rd set So what should I do here ??</t>
-  </si>
-  <si>
-    <t>What is the proper breathing technique for pallof press? Exhale when stretching out and inhale when retracting? Or do you inhale flex core and hold breath stretch out retract exhale repeat?</t>
-  </si>
-  <si>
-    <t>When setting up for a deadlift by which method are you meant to make your shins touch the bar? By leaning forward into the bar or by dropping your butt down and leaning back slightly? I ve seen videos teaching both methods. Personally I feel as though the second method better engages the hamstrings and gives me a better sense that I am "pulling" something out of the ground.</t>
-  </si>
-  <si>
-    <t>Is it just as effective for me to do one muscle a day as of two? So I ve been doing PPL for just about 8 months now and I ve gotten pretty tired of it. I feel that I just wanna focus on one part when I get to the gym now leading me to not work hard on the other group i have to do that day. I go the gym 6 days straight and take a rest on the 7th so I was thinking will I be making equal or greater gains by working each muscle once a week for 8 exercises rather than what I ve done (4 exercises twice a week while doing another muscle)? It s not that I m looking for really more gains but I m trying to change my routine to something I like without losing gains.</t>
-  </si>
-  <si>
-    <t>transitioning from cutting to bulking phase. please share OWN experience. i ve been (and am) on a long cut. now that i m getting to the 10-12% bodyfat territory i wonder what it s best practice to get into bulking to the 15-17%? read about *reverse dieting* about *straight on bulking calories* and so on. all come with proves it s the best and only option. so it s kinda hard to make the choice this being the first proper cut and i don t want to spoil it all because i got it wrong the next step... please share YOUR OWN EXPERIENCE on this matter!</t>
-  </si>
-  <si>
-    <t>I need help understanding nSuns LP s worksheet... https //drive.google.com/file/d/0B8EbfzFB0mBrSjBFZ1NUUklHU1E/view Monday Bench 202.5 x8 235 x6 265 x4 265 x4 265 x4 250 x5 235 x6 220 x7 202.5 x8+ OHP 102.5 x6 122.5 x5 142.5 x3 142.5 x5 142.5 x7 142.5 x4 142.5 x6 142.5 x8 Assistance Chest Arms Back How do I read this and what are these numbers telling me?</t>
-  </si>
-  <si>
-    <t>Does fat truly go away? I saw an ad that said that fat never truly goes away that the fat cells just get smaller (so they can balloon back up quickly). How true is this?</t>
-  </si>
-  <si>
-    <t>Boxing for fitness - and muscle gain? I started going to boxing classes three times a week in december. It s grueling and tough sometimes. I m sure I m burning lots of calories in those classes but I d like to put on some muscle as well - will that happen just by boxing? We do push ups punch bags and stuff but overall it feels heavy on cardio. Anyone with experience/ tips?</t>
-  </si>
-  <si>
-    <t>can drinking too much fluid mess with supplement factors? i typically drink 8 water bottles a day for my gallon-goal through out the day. if i drink two right before downing my pre workout will this make the effects weaker? also by the time my workout is done i m usually at refill 5 or 6 of my water and my bladder is making me pee every 20 minutes or so. if i take my protein shake during this time will it be too watered down inside me to go into my muscles and get wasted? i try to take a sip after every workout set. i haven t tried creatine but i know i drink enough not to need it; i m still curious about it though.</t>
-  </si>
-  <si>
-    <t>Long term effects of the hook grip? Getting into the 500s on the deadlift. Other than muscular imbalances I m worried about biceps injuries on my supinated arm with a mixed grip as I move up in weight. I ve recently started experimenting with the hook grip. Does anyone know of any proven long term negative effects of the hook grip? I can suck it up and deal with the pain but I just want to make sure I m not doing serious nerve/ligament damage. TIA</t>
-  </si>
-  <si>
-    <t>Hey oldies ya know 50+ years of age... If you're someone who has been lifting 20 + years and have made it to the senior levels would you share with us what your life is like now? How did your training change throughout the years? Are you still training now? How is your health mobility and looks compared to friends/coworkers/family members of a similar age but who do not lift/exercise very much? Thanks for taking the time to share.</t>
-  </si>
-  <si>
-    <t>To anyone with a homegym deadlift substitute/replacements for best results? Hey fitness crew! I m very excited to be getting a power rack fid bench and weights soon for my second floor apt. I plan on following a program here but many of them involve deadlift. I plan on using plywood osb boards and thick rubber mats or horse stall mats for my platform for the power rack. My only slight concern is deadlifting. I won t be dropping any weights on the floor for any lift. Would I be okay with this lift or should I add in substitutes for the programs I want to follow? Thanks for advice!</t>
-  </si>
-  <si>
-    <t>Heart rate for burning fat during cardio? I've been trying to keep my heart rate in the high 170's when doing cardio but I was told by a trainer that doing so actually doesn't use calories stored as fat. He said that I should keep my heart rate in the mid 130's to encourage the body to use fat reserves. Is this a real thing? I've never heard this before.</t>
-  </si>
-  <si>
-    <t>Tight on time getting older question Yes I have read the rules and Q&amp;amp;A and there are multiple conflicting answers out there. Trying to separate hype and marketing from stuff that will work.Back story: was in fantastic shape in the military worked out constantly for years and felt great. Got married job kids still go to college and had a few years where I fell off the wagon. Not too far but cardio and lifting were replaced with occasional bike rides and light hiking when I had time. So now I am getting back into shape to change careers. Worked in slow took time and have been seeing results. I am in my late 30s now and it has been 6 or so years since I maintained a serious workout schedule. Now I am working out 3 - 5 days a week and have my 1.5 mile time ~10 minutes or a little less and have been focusing on core general strength exercise for about 6 months. My Questions: My ankles and lower legs have been aching not anything serious just general stiffness that has not improved as I have gotten</t>
-  </si>
-  <si>
-    <t>Which resistance bands have the most even resistance curve? I m looking for bands that have a very even resistance curve as close to linear as possible. I ve noticed some bands give more even resistance as you stretch them whereas others go from zero to 100 resistance all of a sudden.</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t xml:space="preserve">(M) 22 Need to Train for a Marathon Alright so I m 22 rounding out my last year at University and getting married soon after graduation in May. With all that going on I had to postpone my plans to run a marathon so now I m setting my sights on April 2019! I ve finished a half marathon before and have reached pretty good levels of fitness but that was a few years ago and since then I ve put on about 30 pounds and haven t exercised regularly at all. I know I have plenty of time to train but I wanna make sure I don t wait too long or get injured so I have a couple questions 1. Is there anything specific to look for when choosing a training plan? There are dozens of them out there all touting themselves as the best and I need to sift through them somehow. 2. How best can I avoid joint or fatigue injuries? I have noticed some hip and knee discomfort (I have had various minor injuries including both knees) recently when I got back into exercising. Is lifting something I should incorporate as well? And if s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 chin-ups day 1 2 during day 2....365 on day 365. Hey All Just wanted to ask a bit of advice. A new years resolution of mine is above. Throughout the year I am increasing my chinups up to 365 during dec 31st (not all in one set!). I am not the workout type but have a solid pullup bar and enjoy them so thought why not! Going on day 22 so good so far but curious what people s opinions were. What are your main pieces of advice? I assume the top one is to keep good form but I expect there are many I just havent thought of! I appreciate any input. Cheers! EDIT I apparently havent made it clear sorry. This isnt 365 in a set. Its 365 in an entire day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 Months to decrease mile time by a minute. I currently run about an 8 00 mile and I d like to get it down to as close to 7 00 as possible in about a month and a half. I currently run 3-4 times a week (can t do anymore because of school/lifting for my sport). Any tips or suggestions would be greatly appreciated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 weeks to prepare for basic. Hi. So in high school before i had kids i ran on cross country played basketball and softball. I tore myACL twice it s been repaired. That was 4 years ago the surgery. Well i leave for basic training Feb 6th. I have 10 weeks. How can i prepare my body. My mile is 9 30 right now trying to improve that. My push ups are miserable. I can do 10 in 2 minutes right now. But i started out at 0 in August. I can do 1 pull up which is pathetic to me but to pass the final PT test you aren t required to do any. What are tips to improve my body anyway possible I m heading back to get a gym membership tomorrow. I m 5 8 and 138. I eat pretty healthy when i remember to eat (#MomLife).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 weeks Minicut to maintain form on bulk extreme muscle loss? I am 18 years old 190m 87kg@about 15% bodyfat. Stringations on chest and unflexed abs but lovehandles and appetite is near zero which only happens to me when my bf goes too high. My maintainence is at ~36k when only workig out and not having to go to school or work + driving to everywhere. I do get my 6000 steps while walking between weights in the gym and around the house though. Thought about a minicut for 2 weeks at 1000 calories deficit to shed some fat and get appetite to come back. I would be adding in about 400 calories of LISS a day and maintain my usual DUP 6 days a week program but lower the volume. Are high muscle losses to be expected or is there anything else i should look for. Also is this an absolutely awful idea? I could find some about minicuts but nowhere any source if muscles are actually kept to a larger degree if you keep cuts short but high deficit. To clarify I am not fat and do not want to look stage ready after the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x5 For Hypertrophy? If volume is king in inducing hypertrophy then why do so many hypertrophic routines like PPL use a 3x5 rep scheme on compound lifts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 months of bodybuilding - when to cut? I ve lifted weights on and off for four years or so but recently started doing it properly and I m four months in with long term goals in mind. I m obviously not huge but have gained a reasonable amount of muscle. I m 6 2 and 226lbs/103kg - around 20% bf I want to lose weight I hate being at least 15-10kg overweight and FAT. 4 months in seems way too soon to cut but what about the 6 month mark? Or should I lift solid for a year and try to bulk as lean as possible?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">531 ohp Hello. I am doing the 531 for beginners routine. I am trying to OHP and it just does not feel good. I try to listen to my body to avoid any issues. I ve researched correct form and no matter what I do it feels bad and I end up stopping. I warm up with facepulls/dislocates but still does not feel good. However I have found that standing neutral grip dumbbell press feels very good. Compounds are very important to me as I am doing a 3 day full body routine. I have adjustable dumbbells with 2.5 plates that go up to 150 lbs so I can progress with them. My question is will replacing the barbell OHP with this standing neutral grip dumbbell press still give me the same benefits and what are your thoughts on this variation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 months until wedding, 80 lbs to drop? How feasible is this if I do cardio 4 days out of the week? I'm starting a new job driving a truck and wont have time nor equipment to work out (except pitiful hotel gyms). I will have physical activity since its furniture home delivery. Would this be possible? I'm currently eating clean with low carbs and sugar, hitting estimated 1500 calories a day post workout. 5'10 290 25 Years old Male. So much more support and information than I was expecting. Thank you everyone for your input!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A burning question about arm wrestles Me and my friend started working out about a year ago. Before we started my friend was already naturally stronger than me and beat me every time at arm wrestles. His biceps and triceps just happened to be leaner and larger than my own. A year later (note we both have been exercising in very similar amounts) I ve gained some noticeable muscle but my friend as expected has clearly stayed ahead of me with stronger bi s tri s and forearms (we lift the same amount of weights usually) But strangely enough this time around I managed to beat him. I ve tried looking into the muscles that work when arm wrestling but all of his seem more stronger at the touch. And yes I made sure to check if I was accidentally wrestling using incorrect form which I wasn t. Is there more to muscles than just size and toughness that may be taken into account to explain this? (Arm length is about the same)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ab progression Hey reddit Been going to the gym for 7 months now got really good gains in that period following PPL. Have kinda been ignoring ab and core work but starting them now. Ive been doing ab wheels for 3 sets of increasing reps and was wondering what I should be doing for progression. Tried some hanging leg raises cant do any except hanging knee raises. Think my grip strength needs improvement on that too. If anyone could suggest or point to a great ab progression exercises would appreciate it a lot Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advice for breathing patterns during leg press I m having issues with pressure building up in my face while doing leg press. I m pushing 570 at 3x10 and at this point it is really hard to remind myself to breath and relax. It is heavy as fuck but I m comfortable with the weight itself. Advice?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility Warm Up? Currently I start my gym workouts with a short jog to warm up. I think I can make better use of that time by trading out the jog for a simple agility exercise. Preferably it would be something appropriate in a relatively crowded gym. Any suggestions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am I progressing??? **Am I making progress so far?** Starting at 145lbs two and a half months ago I have been eating 2800cal a day at 1g protein/lb while doing Nsuns lift routine. In college and very busy this semester so I can only go to the gym 4x a week. I missed about a week as well so far due to work. I look to get to a normal 5-6x a week next semester though. I was failing sets little too often so I bumped by cal from 2700 up to 2800 about half way into it and made sure i was getting protein by eating chicken breasts since they get me lots of protein while not making me go over ***My lifts Two and Half Months Ago*** Squat - 170lb x 3 Bench - 120lb x 3 Deadlift - 225lb x 3 [me then](https //imgur.com/a/Spx7Z) ***My lifts Two Now*** Squat - 185lb x 3 Bench - 135lb x 3 Deadlift - 240lb x 3 [me now](https //imgur.com/a/AkPK6) It seems as though 95% of my fat is in my torso Chest belly lower back area. However I have been hitting every set for the past two weeks. Just seems like I m ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am I Setting Myself Up For Even More Failure? I have been keeping track of my stats (weight bf waist lift 1RMs) for the past year and today I decided to take a look back and see where I progressed and to my absolute surprise all of my lifts stayed the same and only my weight and bf dropped and even not that much (-16lbs and -7.5% bf). This shows me I completely wasted a year in terms of lifting. I have decided to get my shit together and get on a plan that has had good reviews (nSuns). I had be running various PPL routines during the past year and they obviously didnt work well for me because I either didnt stick with them or the gains weren t there. I am looking to set a goal for January 2019 and was hoping to see if experienced lifters here can let me know if it is realistic or far-fetched. I have already wasted a lot of time and would not like to waste anymore and would like to get some goals that I can achieve. **Current Stats** - Weight 199lbs - BF% 24.4% - Waist 40.50in - Bench 245lbs - D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am I using too much weight for bench press? Been doing the 5x5 strong lift routine for about 2/3 months now and I m always having a dilemma of if I m pushing myself too hard on the weight or not. For example right now I m doing 50kg bench (shit i know) and I get through it but always feels like I have to rush it else I might not make it through. Usually the last few reps take a big push. My question is whether this is a good thing or not? I could lower the weight and have perfect form and do it slowly but then I wouldn t be really pushing myself just working within my comfort zone. Any advice? (And no I don t have a video unfortunately) Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another EC stack question I didn t find an answer on here about timing per day. I wake up at different times every day. So one day it might be 7 am and another day it could be 10 am. Does it matter what time of day each dose is/ does it HAVE to be consistent? Or can I just do morning afternoon and evening? I ve been doing one dose about an hour after I wake up each day. I want to move on to having a 2nd dose about 4 hours later but if it s not consistent should I just stop now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anterior Pelvic Tilt and Lifting I recently self-diagnosed myself with anterior pelvic tilt and would like to take the steps necessary to fix it. I did some searching and found [this video by Alan Thrall](https //www.youtube.com/watch?v=BEn61BL4Nwk) where he explains the syptoms and fixes for APT. My only issue is that Thrall recommends not doing squats and deadlifts to those fixing APT due to already having an overly tight lower back. I recently started SL5x5 and have been enjoying squats and deadlifts and learning to do the lifts. I intend to start all of my lifts with the stretches Thrall recommends but how much of a concern would it be if I continue to lift while trying to fix my APT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone have shoe recommendations for a gym floor Playing Lacrosse for my school in a gym right now and I keep falling the treds on my ultra boosts are awful anyone have any recommendations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apart from cardiovascular health and calorie control are there any other benefits of combining cardio with a bulk? I m starting a bulk today but never thought about including cardio into my routine because I haven t thought it was necessary to control my diet as I think I m doing that well enough through eating. However if there was some sort of benefit for muscle growth recovery or something else in general than I wouldn t mind introducing it into my routine. However I would rather not eat any more food because currently my calories are high because I have a relatively fast metabolism and this is what has worked in the past (3300~ ATM) Thanks in advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are fruit juices and veg juices a good substitute to the real thing? So I ve been working out trying to cook at home more and eat healthier. I don t get enough fruit or veggies but the veggies I m working on and have found I really like spinach and asparagus but to get my fruit intake up I ve been drinking bolthouse farms fruit juices. My question is are drinking this a safe and healthy substitute to eating fruit? It s much easier for me to drink one of the juices than to cut up a bunch of fruit that might no bad in a couple days. Are juices like these actually healthy and good substitutes to the real thing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Planks really that bad? I ve seen a ton of people say planks are a waste of time and that you should do things like cable crunches and leg raises. I just dont feel much of anything when I do cable crunches and my grip strength fails on me. I cant do hanging leg raises and I know about the progression but I always end up skipping those because they bore me. Ive always liked Planks and i feel insane burning in my abs when i do them (the good kind). I know they arent the best ab exercise but are they really a waste of time? Will they not build a solid enough core until it s strong enough to handle the standing ab roller? Are there any plank variations that are more effective?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are supplements that "reduce muscle damage" good or bad for gaining muscles? Hi there I have a bunch of supplements that i ordered in a druge frenzy that i now take daily until they run out. i didnt order them for the weight lifting purposes but some of them do seem to have benefits in this regard. theres are 4 things i currently take that examine.com states that they "reduce muscle damage". the supplements are Acetyl L-Carnitine Ashwagandha-extract Coenzyme Q10 and Vitamin C. now lets say they really do this and reduce biomarker of muscle damage. is that something i want when trying to gain muscle weight? or is it the opposite and i should avoid those substances because in my understanding it is exactly the muscle damage that needs to happen for the muscle to grow afterwards. thanks for your replies in advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any gyms under $30 a month that are worth looking into in Texas? I have power lifted for years and love the sport. I don t compete as I have switched my main focus to boxing but I still wanna lift as it is a great addition to my routine and makes me feel better. That said my wallet doesn t need a workout. Does anyone have any recommendations ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a lifter what is the best cardio I can do for health benefits? I know cardio can greatly improve your cardiovascular health so as someone who lifts what would be recommended? If I recall correctly moderate 120-ish BPM cardio for 20-30 minutes is quite good for your heart health? Does it beat out HIIT training or something more intense?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At a turning point with my fitness goals and am unsure about nutrition. F/29/5 5"/128 lbs. A few years ago I was 235 pounds and finally decided to do something about it. It took me a really long time but I finally hit a BMI of 21 and am pretty happy here. I have been lifting casually for a little over a year and recently (within the past three months) have gotten more serious about it. I went from barely being able to squat an empty bar to squatting 130 today which isn t really impressive but it s a huge turning point for me. My problem is this I am ravenously hungry all of the time. I am maintaining on 1500 calories (with ~1700 calories on weekends since this is when I train the hardest). I tried maintaining on 1700 a day two months ago but I ended up gaining some obvious fat and went on a cut for a month. Now I m back to 1500. I try to reach an absolute minimum of 80g/protein a day but even when I m well over that goal I m HUNGRY. According to SailRabbit s TDEE calculator at my current activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad form in my pull ups I've lost a lot of my strength gains due to the cross country season and not lifting for awhile. I can do a few pull ups but my shoulders are scrunched up and it really isn't activating my back. Should I start with lat pull down and build up? Or keep at the bad form pull ups until they get easier and I can do them with better form?Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bare Steel vs high humidity I was looking into the Rogue Ohio Power Bar and I don t have much money. So this makes the stainless steel out of my price range but like the reviews of the bare steel. I live in northern Florida where it is pretty humid (average of 60-90% humidity annually) and am worried about rust. I looked into the black zinc option but hear that it wears off and turns into bare steel anyways. Does anyone else live in the south/humid areas and have had problems with upkeep? Or does a weekly coat of 3-in-1 take care of any problems?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been doing leg squats and calf raises every week for years. What am I neglecting in my legs? In the last two years I ve noticed that 3 days after I go running I end up getting interior knee pain. This has caused me to cut out running altogether and stick with biking and elliptical even though I love running. I have been doing leg squats and calf raises on a machine every week for years now and the thought ran through my head...what am I neglecting in my legs and could it be the cause of my runners knee (pain)? I ve read many studies online that show that runners knee is often seen with a weak gluteus muscles. What type of other leg exercises would you suggest to help those leg muscles that I have been neglecting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been lifting for years but have no goals? I m 24 and have been lifting heavy since I was in high school. I used to workout at least 4 times a week now it s usually 2-3 times a week just alternating body parts each time. I find myself very bored &amp;amp; not motivated at the gym for the last year or even longer...when I started working out I was really skinny and had motivation to get big. I m not trying to toot my own horn but I m in I m good shape and get compliments on my body all the time. How can I find some goals to make my workouts fun again? I feel like I m just maintaining and going through the motions. I ve never been into bulking and have never had weight problems since I m extremely lucky to be able to eat like a horse and not gain any weight. Help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginner Maintaining Pace? I'm a beginner. Can run a non-strenuous mile in 9.5min as of now a 5k in 35-40 min.In all my runs I get slower as the run progresses. In 1 mile runs the pace can go from 9min-10.5min/mile. In 5k runs it can go from 11min/mile to 15min/mile.Which means I'm running too fast to start and maybe also not pushing myself at the end?I've been using RunKeeper (free). RunKeeper seems to have a a shortest audio stat interval of 1 min.Is there an app that will tell me to speed up / slow down based on desired pace range? Is there an app that will tell me (somewhat accurately) my current pace in 30 second intervals.Or should I just not worry about pace and go at whatever pace feels sustainable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Bodyspace Workout Program For Small Gym? I just finished the Jim Stoppani 12 week shortcut to size program but a lot of the workouts I was unable to do or had to Jimmy rig it (no pun intended) in order to finish them due to my small gym. I have a nice set of dumbbells (from 5 all the way to 50s) a good bench some small risers workout mat treadmill and an Apollo 7000 series workout system. Does anybody have any good programs I should look into? I don t think I need a bigger gym because I think what I have is plenty enough I just want to find a decent program to fit what I already have. Thanks! EDIT Also I really liked how Jim Stoppani 12 week shortcut to size program was 4 days a week. I m sort of in a busy time so 4 days a week is a great balance for me mentally. That d be awesome of the work out someone suggests has a similar schedule. Maybe I ll just have to create my own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best type of exercise for overall fitness and mental acuity? I don t have any sport or competition goals nor do I want to be a specific body type or size. What s most important to me is - Being able to execute a wide range of physical tasks (digging hauling construction materials long-distance walking climbing lots of stairs running with dogs playing with children etc.) without feeling like my body is going to fall apart. These are all activities I feel that I should be able to do in fairly high volumes. - Maximizing mental acuity. I currently feel foggy and like I m operating at about 50% of my mental capacity all the time. This is also likely influenced by diet and sleep (which I m working on improving) but exercise plays a huge role as well. For context I m a 27-year old male with beginner lifting experience (I ve done 3x5 Stronglifts in the past but not in several months) and several high school sports. My current activity level is walking up and down the 4 flights of stairs to my apartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best way to do HIIT on exercise bike? And just in general - I m mainly wondering intervals for time. I m not new to HIIT but I ve taken a break from it and want to get back into it. I used to do longer intervals but I feel like in order to give my 100% effort the sprint intervals need to be shorter. What has worked best for you/what is recommended?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth control and muscle gain? First time posting to r/fitness so hopefully I m doing this right! A little background I m a 24 year old female who recently started using weights more. Before I was strictly into cardio and would run bike or swim only. I wanted to mix it up a little and started lifting weights. Now I ve decided to set some new goals that include gaining some muscle. The other day I had to switch my birth control by doing this my doctor said it would change the balance of my hormones. That got me thinking can birth control effect muscle gain in females? I tried researching but I don t know enough to really understand how everything works. Was hoping someone could shed some light on this topic. Thanks )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body composition and training types. Hello all I do not profess to be the all knowing fitness and training guru but I have a relatively simple question to ask to everyone who trains differently. I ask this in a purely aesthetic sense does the training regime/programmer ultimately effect the way you look? For example; If i were to train using a body building routine would this make me look somewhat different compared to a cross fit routine or strong man routine? Genetics are accountable for the look/mass and position of muscles I know this but does the training system effect the size definition? I know that Strong man makes you strong and Bodybuilding makes you look amazing but not necessary as strong. Thanks all sorry for the crud question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body Recomposition? Sorry if this is considered a "general" or simplistic question but would like someone to shed more light on this for me. Is body recomposition attainable under normal circumstances? Or should I just stick to bulking and then cutting? From this Livestrong article https //www.livestrong.com/article/362906-can-you-build-muscle-on-a-calorie-deficit/ it seems like muscle gain is possible on a caloric deficit if 1. You eat 1.6g protein per kilogram of bodyweight daily 2. You exercise with a high degree of intensity (I go to the gym 4 times a week doing HIIT exercises every other day.) How accurate is this article? I ve been following these steps although progress is hard to determine since BF% can usually only be estimated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxing for fitness - and muscle gain? I started going to boxing classes three times a week in december. It s grueling and tough sometimes. I m sure I m burning lots of calories in those classes but I d like to put on some muscle as well - will that happen just by boxing? We do push ups punch bags and stuff but overall it feels heavy on cardio. Anyone with experience/ tips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breathing exercises. Every time I go for a run or play a game of basketball I get winded. A friend suggested that I do some breathing exercises but I don t know any. Is there a direction anyone can point me to that will teach me these techniques? Also is there anything else I can do to improve my breathing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broader torso? So I was wondering How i could get a broader torso. I have broad shoulders and broad hips but my torso is still kinda small. Recently i ve began doing obliqes and dips but I wanna know if you got other good exercises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burning calories walking vs running If you are going a distance say 5km do you burn the same amount of calories more or less if you walk or if you run? Obviously running the heart rate goes up more but you are quicker so you get there faster which means less time moving. Walking is more gentle but you will be walking for a longer time so in terms of calories burned does it work out more or less the same?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable tricep pushdown and extensions?for push days I ve been doing both cable tricep pushdowns and cable tricep extensions after one another. Though recently I realized the latter excercise is actually supposed to be *overhead* cable tricep extensions (the app omits "overhead"). So I guess I m gonna switch to that next time? I ve been trying to figure out what the difference is between normal cable tricep pushdown and extensions - I thought the difference was between using a short bar and a rope but I m getting conflicting information searching. I also can t seem to figure out how these two excercises differ in which muscles are trained. Any help?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffeine and long winters. Questions! Hey I m from northern Norway and it gets really dark here. I mean we get no daylight at all. I ve been drinking Monsters Zero Sugar Free and it helps but I m wondering if I should stop? Without them I cant really focus or do anything since I m kind of half awake. I workout 6 times a week + the little daylight fucks me up bad. I eat 4 big meals daily. Any advice to keep my energy level good?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calories Burned From Consumption of Water Hey all Have a very "out there" kind of question? Water has 0 calories awesome. But does anyone know what the energy expenditure (calories burned) of processing water looks like? If someone drank tons of water per day besides the natural benefits would it also contribute some (even if just a few) burned calories? Just curious Edit I looked into it before posting this and I saw various websites say that it burns a considerable amount. I assumed this was bs but I wanted another opinion. And I m bulking btw so I m not trying to make shortcuts around cutting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calories in vs Calories out taking in account insulin and hormonal response CICO is probably the most spread "theory" here on r/Fitness and it s basically how I guide myself too. Question is is it really the way it works? Not just in terms of weight gain I understand that CICO might work well for weight changes but how about muscle vs fat gain? Specially considering sugars but not only. Given the same amount of calories will there be a difference in terms of lean gains between a person on a high fat vs low fat diet? How about eating a lot of carbs just before bed? I understand that it doesn t make a difference in terms of weight gain but what about muscle gain? Wouldn t fat be better vs carbs just before bed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can anyone explain "farm strength?" I was reading about Herschel Walker recently. In one interview he said something like "I figured if all these farm hands could get big and strong by eating like this and lifting hay bales that I could too." That reminded me of a few people I ve met over the years that are "farm strong." These guys eat once a day (coffee for breakfast next to nothing for lunch steak and potatoes for dinner) don t count macros or anything don t use a routine no supplements no steroids and they use the same muscles every single day without much of a break. Most of them smoked or used some kind of tobacco drank on a regular basis and never played organized sports (with the exception of one or two). Yet somehow they re insanely strong people. A handful of them have stepped into the gym once in their lives and throw up 300+ lbs on the bench press like it s nothing. I ve met probably 10 people like this. Some of them in my family and others I ve met in passing. All of them think I m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can cables essentially be used as weighted versions of resistant bands? What I mean is that resistant bands have a certain amount of resistance to them and by using cables you can increase the resistance and become stronger at the same time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can drinking too much fluid mess with supplement factors? i typically drink 8 water bottles a day for my gallon-goal through out the day. if i drink two right before downing my pre workout will this make the effects weaker? also by the time my workout is done i m usually at refill 5 or 6 of my water and my bladder is making me pee every 20 minutes or so. if i take my protein shake during this time will it be too watered down inside me to go into my muscles and get wasted? i try to take a sip after every workout set. i haven t tried creatine but i know i drink enough not to need it; i m still curious about it though.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I do multiple variations of squats in one workout? Will it break me or will it create ultimate gainz? Could I do overhead squatfront squat and back squats while pyramiding up the weight in one session?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I workout my triceps/chest if my biceps/back are still sore? I m currently splitting my week into push pull and legs workouts. Wednesday was pull day (biceps/back). Tonight I want to focus on push muscles (triceps/back). Will this be okay given my biceps/back muscles are still sore?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can t keep up with muscle gaining routines because of depression Hey folks. Haven t been on this subreddit before so hopefully I m not breaking any rules or anything. I m an 18 year old skinny male who weighs 130 lbs (also 5 9 if that helps). I m not completely out of shape; I m able to do cardio 3 times a week on my treadmill (about 5k which takes around 40 minutes). Our family owns one of those [home gyms](https //www.amazon.com/Marcy-150-lb-Multifunctional-Station-MWM-990/dp/B00JGRBSS6/ref=sr_1_4?s=exercise-and-fitness&amp;amp;ie=UTF8&amp;amp;qid=1512110698&amp;amp;sr=1-4&amp;amp;keywords=home+gym) and I ve attempted a couple of apps and workout routines in an attempt to gain muscle off and on over the past year. I struggle with depression and subsequently the motivation to complete a workout. I m too exhausted (from depression often) to go to failure and never see enough gain to keep me going. Couldn t keep up the energy to make protein filled meals and stuff like that. I just can t do it. I ve done some googling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you combine IF healthy diet and some occasional "bad" carbs? Hey guys I have a question regarding my current eating and exercising pattern. I (20y.o.f) have never been seriously overweight and have never had really unhealthy patterns (I mean I could occasionally eat some white bread sweets fried foods etc. but along with some really nutritious foods and lots of fruit and vegetables). But almost all of my life I was on the "puffier" side don t know how else I can describe it and it was extremely hard for me to loose weight and appear leaner even though I couldn t imagine my life without being active (not always in the gym sometimes running swimming dancing lots of walking on a daily basis etc.) Almost half a year ago I started really really focusing on eliminating as much sugar and white bread from my diet as possible and I maintained this lifestyle with very minor cheats for approximately 4 months. However even though I combined this eating pattern with my usual active lifestyle my wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you work your diaphragm with a "lift"? Lays night I was doing brachial hangs and was breathing really trying to expand my chest. My body generally lifts up a bit then relaxes down. Is this not a "lift" for the diaphragm as the only muscles engaged in my body are my forearms and the breathing muscles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardio Equipment - Estimating Calories Burned By HR **My main question** concerns cardio equipment and the est. calories burned. When I was 18 I used an elliptical in the gym and normally after a 45-60min workout I d burn roughly anywhere between 700-900 calories or atleast the machine would claim. My HR back then I generally tried keeping it anywhere between 130-150. Also back then I would wear a waist trimmer + shirt + hoodie so I felt like I burned more and the machine reading wouldn t account for that. I m 25 now and I ve been trying to get back into excercising and dieting. I m doing upright excercise bike or elliptical for 45min aiming to keep my HR anywhere between 137-150 (Atleast 70% of my Max HR). But when I finish the workout the machine normally estimates that I only burned 350-450 calories. Is this accurate??? I visited a few sites that calculate calories burned off HR &amp;amp; Age &amp;amp; Gender entered the duration of 45 min and avg.HR maintained and those sites claim I burned roughly around 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheap ways to eat healthy while loosing pounds. HI reddit fitness, I'm a 20 yr old Male about 5'10 weighing about 170, I'm looking for any tips on loosing weight and a way to eat healthy while on a college budget, if anyone could help out that'd be great. Also I'm just looking for tips on loosing weight, I'll worry about gaining muscle after I loose the fat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chin-ups goal I have 50 days to go from being able to do 5 chin ups to being able to do 10. I weight about 65kg. Any advice appreciated I understand it may not seem like a big goal (I dunno?) but I have never done routine exercise like this sets or whatever. Should I just do as many as I can every 30 minutes or hour (I have a pullup bar)? Or should I do a few repetitive sets? Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climbing as an accessory to deadlifts Was just wondering if anyone had any experience of climbing (Bouldering or similar) having significant effects on their grip/back strength and how much carryover that could have to deadlifting. I find climbing quite fun so when I dial back my training (Currently going 7 days for a couple months with a few breaks) I wouldn t mind signing up to the bouldering gym near me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confusion about Transverse Abdominis Regarding the common suggestion of "engaging your abs" during various lifts I just realized I don t fully understand the optimal way of accomplishing this. Generally I just squeeze my abs as tight as possible without focusing on specific ab muscles. However after reading about the function of the transverse abdominis (TVA) I m not sure I m doing it right. My confusion stems from the fact that when you engage your TVA your stomach sucks in (e.g. vacuums). However when I squeeze my abs during a lift my abs tend to bulge out which I assume is the rectus abdominis. I though I was doing it right because when wearing a belt you are supposed to "press your abs into the belt". However I also see suggestions of pulling your stomach towards your spine. If I focus on pulling my stomach towards my spine I don t feel as supported as when I just focus on squeezing my abs. If I m squeezing my abs am I likely already engaging my TVA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couple simple/quick questions about supplements various 40 yr old male used to work out quite a bit but haven t in 3 years about to hit it again. Current weight 179. I have no joint issues at all other than some slight shoulder pain when lifting arms above head but I truly think that due to being lazy the last 3 years -/ So I have a little fat I want to shed so I m gonna kick off with some cardio then gradually get into lifting only. Slowly but surely. However once I hit the weights I really want to build some muscle and I m thinking of using supplements for the first time ever really. So here s what I m for sure using but also considering creatine Whey protein shake and BCAA powder. From what I ve read I should be drinking BCAA just before or during workout then should be drinking whey protein shake immediately after workout. I plan to eat some 1% cottage cheese every night before sleep and maybe even take some BCAA pills immediately when I wake everyday after workout. I should ment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadlift stuck with varying results each training day. I m at a complete loss so I ll ask how I should proceed. At the start of November I progressed in deadlift to 185kg lift after managing 180kg X 5 set. After that results have varied a lot. Some days I only get 1 rep sometimes 3 or 4. However I have not reached 5 reps in one month. I m currently on a cut but how should I proceed? Should I keep hitting the 185kg lifts in deadlift or deload a bit? Edit Thanks for all the responses! I ll go with a slight deload and then work my way back up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deloading during bulk? Hello redditors Soon I will be doing a deload week my question is should I lower my calories for the week. Currently bulking eating 4000 kcal(hard gainer life) a day. And what is the best way to do a deload? After a quick search most people reccomend to use 60% of your regular lifting weight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did incorporating or increasing your carbs improve your workouts and lifts? I ve been on Keto for a while now. Fell off a few times but the past 2-3 months I ve been pretty strict and dropped about 20 pounds of which I had put on over the Summer eating junk. The last week or so have been really hard. Really feel that burn almost 24x7. I am at that point where my goal has changed from losing weight to actually putting on some mass but first I would actually like to drop a few more pounds before I start eating at a surplus. This is a question for anyone that has been limiting their carbs; did you start feeling a little better and did your workouts improve when you started incorporating more carbs post workout? When I say increasing carbs I mean maybe around 100-150g. Edit I think I am going to start with maybe 100-120g of carbs daily. Will start small and see how that works. What would be best - before or after your workouts or split them evenly before and after? Am definitely no planning on eating any c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did some weights for the first time today I ve run into a few problems Hey reddit Today I hit the gym to exclusively train my upper body and arms with barbells dumbbells and an ab crunch to finish off. When using the barbells My right hand felt like it was rubbing against the bar when I took my hand away it had all black marks on it my left hand did not. When doing the dumbbells My left arm failed to lift a 16KG weight My right arm always has to be ready to support any wild movements when my muscles fail. I feel like both are affected by a inequality in my upper body strength How can I go about fixing this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different Upper/Lower split routines There are many Upper/Lower routines but each routine has some different exercises. Does this matter or is it the same thing just a little different?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do ab wheel rollouts activate your traps? At the end of the rep are your traps antagonist movers to the weight load under your shoulder joints? It s been a minute since I took anatomy and I ve forgotten a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do those revolving grip hex bars land easier on a floor than normal hex bars? Let s say you have someone doing the same movement same weight on both a normal hex bar and one of those [fancy looking hex bars](https //www.amazon.com/Valor-Fitness-Super-Hex-Trap/dp/B016NAGTVE/ref=sr_1_8?ie=UTF8&amp;amp;qid=1511849794&amp;amp;sr=8-8&amp;amp;keywords=hex+trap+bar). All bumper plates on both bars which one has a lower chance of damaging the floor? I d have to guess the normal trap bar because of the little rubber stops on the bottom of the revolving grip hex bar have less surface area when landing than around 315 lbs of bumpers. I could also be wrong about the surface area because there are 4 separate stops on that bar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you guys test your 1RMs? If so how? Before your workout? And do you just test a particular weight and if you can do it properly wait until the next workout to do it again with 5lbs added? Or do you just plug in your 5RM or other weights into an online calculator to figure it out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does anyone else shake when you lift? Through the military and school whenever I would workout I will shake, like Im struggling, but Im really not. Its mostly when I perform chest exercises. Does anyone else do this? As an example, 2 days ago I was doing DB press and Incline DB press. I had 60lb DB's and my arms were shaking like I was stuck outside during a blizzard, but I finished off 4x8 eventually getting to 70lbs for my last set without any issue. Incline was the same way. I was using 55lb DB's and noticed on my 3rd set (doing another 4x8) I can finish, up'ed to 60lb and completed 8 reps without any issues, but was shaking. I broke my wrist a long time ago could this be an issue (though I feel no pain)? What is my weak point? What would cause me to shake - stabilizer muscles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does fat truly go away? I saw an ad that said that fat never truly goes away that the fat cells just get smaller (so they can balloon back up quickly). How true is this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does holding a flat-footed squat position improve posture? If so how? Hi! I don t remember where I read this but it is said that hold a flat footed squat for a long time improves posture particularly by reducing anterior pelvic tilt. I can t make sense of it though as I don t see what muscles would get stretched and what muscles would get strengthened in that position and to what degree that would help in posture? Does anyone well versed in biomechanics know an answer to that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does lifting more frequently give better gains? Currently doing phraks greyskull LP (3 days a week). If I could comfortably find the time would I see better gains doing a 6 day program like 2-suns 5/3/1 for example?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does segmented sleep jeopardize gains (for both cutting/bulking) as opposed to uninterrupted sleep. If so is it negligible? Title pretty much sums it up. Let s say you sleep 5 hrs + 3 hrs later in the day. Given how important it is to "get those 8 hours" will it be comparatively inferior to uninterrupted sleep to a large degree?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Repeated Bout Effect reduce Muscle Growth? I m curious to know whether the Repeated Bout Effect has any affect on muscle growth. I recall hearing that it s important to switch up exercises to keep the body challenged and it seems like this might be related to that. However I ve never seen any evidence that it would actually reduce muscle growth. It seems that if the Repeated Bout Effect reduced muscle growth then a lot of athletes would find themselves on a never-ending plateau. But then again why do some many programs emphasize switching up the types of exercises one does?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doing 1x5 vs 5x1 with minimal rest on deadlifts Hello just started deadlifting last week. Im following alan thralls five steps for performing the movement and so far so good. My first rep looks good to me but im not so sure with the other 4 in the set mainly because i have to do it right away without setting up from the start. Can i do 5 singlets instead where the only rest would be in setting up from step 1( 7 to 10 sec) or would that be detrimental to my strenght progression? Thanks in advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doing bench squats and Deadlifts on same day for all body workout? Is this a bad idea? If so how do you fit the big three into a balanced all body workout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doing Only Cardio I just went overseas and put on some weight, and before I left, I was 83kg, and now am 86kg. I was going to gym three times a week, doing 20 minutes elliptical machine, and then 40 minutes of free weight bench (4 sets of 10 reps at 52kg), planks, assisted ab crunches on the machine, lat pull downs, free weight bench flies, arm raises, and kettle bell squats.But now that I've come back and just want to lose some of the chub, I was wondering if it'd be beneficial for me to simply just watch my diet as normal (no soda, fast food, less alcohol etc) and just put in an hour of cardio.I had my first day back today and did 20 minutes elliptical, 5 minutes on the stair machine, and 5 minutes rowing.I was wondering if it'd simply be more beneficial to go three days a week, and just do an hour of cardio.Or, should I ramp it up to 5 days a week of 30 minutes cardio?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downsides to fasting for 12 days instead of 12 week cut? So over the last 5 days I've kinda not been eating that much. Maybe 400-500 calories a day. And I have been shedding weight. Around .75-1 lbs per day. I've been trying to get back on the cut routine for the last 3 weeks or so and have been having a hard time getting the scale to move downwards (hovering at around 155-157.) . But over the last 5 days I have lost 5 lbs. But this is my logic. If I am loosing 1 lbs a day, its only 12 days of a really shitty life compared to 90 days of a sorta shitty life. I would rather just knock it out as fast as possible and then start the traditional 12 week slow bulk. My question is, is the weight I am loosing right now the same as the weight I would be loosing over a 12 week cut? From what I've read the body primarily eats fat for energy when fasting. It's only when fat is gone it will then start to use muscle (I understand there is SOME muscle loss when cutting, but its primarily fat.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During a cut/bulk as long as you re hitting your protein goals does the allocation of calories from fat and carbs make a difference? I ask both for a cut and bulk because I don t know if the situation changes depending on what you re doing. During a cut if you re trying to maintain muscle while losing fat I figure you d want to enough protein equal to at least your lean body weight. However does it matter how the remaining calories are allocated (so long as you re still at a deficit)? Is there any reason to focus fat over carbs or vice versa. Now I ask the same question but during a bulk phase. I imagine you want more carbs during bulking but ultimately is it going to make a difference? Will calories from fat fuel or help your muscles grow? Or are you better off with getting carbs and keeping fat intake low? Again your caloric surplus is anywhere from 200-500 calories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eating before sleep after a good workout? My understanding is that if you eat late at night your body tends to store more of the calories as fat. Is that correct? If I have a good workout in the evening will eating a big dinner before bed result in more calories being stored as fat or would my body make use of all of the food I ate for recovery? In other words is it better to eat a big breakfast the next day and keep dinner small? or does it matter at all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eating Healthy and Counting Macros While Broke and Living with Parents So recently I decided to become more fit. I ve been hating how my body looks my energy levels have been extremely low and my body has been having more pains (back and hips) which I feel like is from having a sedentary lifestyle. I figured I would be better off getting fit while I am in my 20s that way I can maintain those habits throughout my life. I m still getting a handle on the exercise portion...my schedule really only allows me to go to the gym in the AM but I have problems waking up in the morning (lately I can t even get to work on time most days plus I m trying to find a trainer/gym to help me with proper form when it comes to exercises). But I feel like my biggest issue is probably going to be diet. I currently live at home and my mom cooks dinner most nights. The meals she makes while delicious are not the healthiest. I ve tried to ask her to cook healthier but it really isn t her responsibility to do so anymore especial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endurance. So I realise this is a very basic question but I find myself getting drowned in too much detail. I m a big fat guy 167kg who goes to the gym and fitness classes. Over the last 6 months it s become apparent that I m plenty strong but I really struggle with High intensity bursts of exercise (burpees sprints HIIT) So to improve my Ôsprint capacity I should sprinting exercises? I own an assault bike so what would be the best exercise? As many cals as possible in 60 seconds and try to improve? Thanks I realise this is probably pretty straight forward but I m unsure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercises to Strengthen Deadlift? Info 17 M 160lbs 5 8 2 years about lifting maybe 18 months of legitimate training Basically today was not my day and I knew it from the beginning. Around Thanksgiving I hit a 25lb PR from 2 months prior by hitting 390 Lbs on Deadlift for a rep. After working all the way up to 390 I tried 395 for the fuck of it but was obviously way too tired and just didn t bother a 2nd go at it. Fast forward to today I try it again I work up to it and I go for 395 I was able to get it off the floor about 3 inches but not able to actually bring it up at all. I am kind of dissapointed and it is half cause I wasn t feeling it but also I feel like I need to strengthen certain areas of my deadlift. What would you guys recommend for getting me past 395 and onto 4 plates in terms of exercises to help my deadlift specifically variations I could dabble with on my leg days. Any help is appreciated thank you in advance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed Squats Because I was Afraid. Doing the Strong Lifts 5x5 and it's been going well. Got up to 260lbs on back squats today and knocked on the first two sets struggling a bit. I got through the third, but really started getting tired. When I went for the fourth, I went down halfway on a rep, got scared and put the weight back. I couldn't get myself to continue at the weight and just moved on to the next exercise. Any advice from you guys? Should I just try again next time or deload?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feel Like Passing Out After Each Set of Deadlifts Is it normal to feel faint after each set? I only feel this way when deadlifting with the trap bar. Everything gets dark blurry I see stars and I feel like I can t catch my breath. I do 10 reps a set starting with 1 plate each side and working up to 3 plates. I do cardio twice a week for about 20-30 each session. Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish better for weightloss? Hi, So I am on a cut where I am trying to lose weight at a good pace. Currently I am under 300 calories daily but I am concerned that I am eating too much red meat. Would I see more weight loss if I switched to eating more fish instead? I am not worried about protein as I am just focused on losing wieght.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitness Machine Question Hi I posted here a couple of months ago asking about how many people actually used fitness machines and received lots of helpful replies. There were comments going either way but I came out of it feeling like I d benefit from buying a fitness machine. I ve not bought one yet though because they re very expensive especially the Concept 2 rowers that were very highly recommended. I was saving up to buy myself a new computer but considering that if I *would* use a fitness machine regularly it might change my life I think the new computer is less important right now. ------ I d like a bit of help with buying a fitness machine though - in particular - **Are there any reputable sites that sell second-hand fitness machines?** I have seen some listings on Ebay/Gumtree etc. for second hand machines but I m quite hesitant to buy off an individual with no guarantee of quality especially since I m not an expert myself and wouldn t know how to spot signs of wear/damage. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitness Question I am 22 year old male who began the Couch-to-5K programme in November in a bid to get healthier and lose a bit of weight (168lbs starting weight). I have lost about 5lbs from lowering my caloric intake and doing 3 Couch-to-5k sessions a week. These results are pretty pleasing and I do feel both physically and mentally healthier than I have been for a while. I have just finished run 3 week 5 which consisted of a 20 minute run which I was able to cope with - there are only 3 weeks left of the programme now. I still want to keep doing 90 minutes of running (30 minutes each day for 3 days of the week) after I have "graduated" from the programme. I also do want to do some weight training exercise to build muscle mass as well. So my question is is it possible to keep doing my running/cardio whilst doing weight training exercises?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folks some of you will be trying a rare Christmas swim in the next few day so here s some expert advice (from mod of r/Swimming extreme cold water &amp;amp; Channel swimmer). Also if you read nothing else please DO NOT DRINK before swimming. At Christmas time many people who would never consider getting in cold water will be thinking of a Christmas Eve Christmas Day or New Year s Day dip. If you are wondering WHY you might or should do it apart from * Taking part in a local tradition in many places; * Having a hot punch at the coast; * Supporting a local charity; * The great craic of meeting lots of people having similar fun; * Doing something that will add more zest and flavour to your Christmas dinner than anything else... A cold water dip results in a positive physical sense of well-being that occurs when warm blood displaces cold blood and the sensation never lessens with repetition unlike pretty much everything else in life and the reason many of us are called *"addicts to cold"*. **PREP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For some reason I m not enjoying working out and I m not really seeing any progress anymore In the past working out has given me a good feeling of progress of getting stronger but recently working out has become almost a chore that I really don t enjoy doing and I never see or feel any improvements. Am I just in a slump and need to snap out of it or is this something others have experienced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally is muscle lost on a deficit more than fat is gained on a surplus? More specifically if I know I am *not going to be lifting for some time* should I eat above maintenance to preserve muscle or below maintenance to stray off fat gain? I know the answer is “its preference” but assuming I don t want fat as equally as I want muscle which is the better answer? Intuitively I would figure that I should eat below maintenance but with more protein. Is this correct for my aforementioned situation? Thank you in advance and if anyone could at the least point me to a resource that would be great!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting back to the Grind I use to work out a lot from 16-22 of age. I use to work out 3 times a day. Gym run and rock climb surf or basket ball. I heard about strong lifts 2 years ago I was dedicated for like 2 months than quit. I m 27 now. I ve been doing strong lifts for the past 6 weeks. I went from 240 to 225. I don t really care about my weight. I just want to burn my fat off to get my 8 pack back. I m 5 ft 11. Just curious if its bad to just stick to strong lifts? I read that some people start it up but than end up doing other things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting bogged down with minutiae. I have a obsessive procrastination when it comes to nutrition i obsess over macro nutrients and caloric amounts to the point i get frustrated and just quit. Do any of you guys suffer from the same problem ? If so what tips would you give to eliminate this needless endeavour ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going maintenance after cutting; considering switching macros. A few questions. Hi all. I m a 25 yr old M 5 8" and just weighed in at 141 lbs after cutting down from 183. I want to start doing maintenance for a few weeks before I begin bulking and have been tracking my weight with MyFitnessPal. For the past several weeks I have had a daily net calories of 1520 and now that I switched my goal to maintenance the app is jumping my net calories all the way up 2020 per day. This seems very extreme and I m afraid going from 1520 to 2020 will cause me to gain weight (fat) because my body is used to a very low number of calories. Should I gradually build up to 2020 in maybe 100 calorie increments per week? Or should 2020 be ok to maintain? ******* Also I m thinking of switching my macros around. I ve been at 55% fat 35% protein 10% carbs for several months but now I want to take 25% from fat and add it to carbs (in the form of more vegetables fruits fiber). As long as the calories are controll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going too hard your first time Hey guys hopefully this is the right sub. I just have a question about beginning to lift. To preface I m no stranger to lifting. I used to play college football so I understand the principals and technique and all that. 3 days ago I went back into the gym for the first time in about 6 years with my buddy who is pretty into lifting and we hit back and biceps pretty hard. Afterwards (like maybe an hour after leaving the gym) I was the sorest I have ever been. I couldn t even straighten my arms because they were so tight. The next day my biceps looked a little swollen and my limited range of motion only got worse I could seriously only extend my elbows to about 45 degrees. Yesterday was worse still and today my left arm is feeling a little better but the pain in my right arm is starting to move down into the top of my forearm. Has anyone experienced anything like this? Did I just go too hard on my first day? Any advice on how to speed up the healing process? I still can t fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hobbies for gaining muscle/getting into shape? I have been working out for a few months and have really been putting in work but I need something else. I have been working out everyday until I feel my body needs a break. I was thinking about looking more into boxing or jiu jitsu. Any ideas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got sick during recovery week Hello All So I took a break from lifting 4 days ago just to recover for one week. But during those 4 days I got sick and felt really tired and bad. I am recovered now. So right now I am not sure my body rested enough and If I should extend the week couple days more or not. What is your advice?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greasing the groove for cardio This is probably a stupid thing to ask but If I was to grease the groove with cardio throughout the day would it improve my cardiovascualr fitness? I still plan on doing cardio but wondering if this would help. Throughout the day I like to jump rope on the spot for ~200reps as fast as I can. Doing this would only last a short period of time so I assume it would be far less effective than say doing a jump rope workout for ~20 minutes. But if I did this as well as doing cardio would there be any noticable improvement to my cardiovascualr abillity or not?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grip holding me back? Especially the thumb? After bent over rows seated rows and heavy shrugs my forearms are destroyed. So much so that my thumb isn t even able to grasp any decent sized weight. I m a new lifter so will this go away on its own?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guys with "skinny" forearms or feel like their forearms are why they look small in a shirt I m a small person height and weight wise and I feel like because of my small forearms I just look like I m the same size as if I didn t lift at all ever if I m wearing a shirt that covers up my upper arm. So I ve decided to start incorporating some forearm exercises into some days of my workouts. Might even consider doing it two times a week just to see how big I can get it in a month or so. I know that genetics play a role and you can t ever actually change the size of your wrists... but like I read the only way to make your forearms bigger would be to work them out directly... and while you can t make them bigger than your genetic limitations you *can* still make them bigger -- so that s why I m trying to give this a go. Just wondering if anyone here had any experiences with lack of size on the forearms and actually started working it out and noticed a difference. Even though I ve been lifting for almost 10 mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gym only has benches with "dips" in them; no flat ones (picture included). Feels weird/unsafe(?) for me so I wanted to check with /r/Fitness. [Here s what the bench looks like.](https //imgur.com/a/43nor) Hopefully the angle isn t too crappy but as you can see there s a little dip in the bench where your butt should go. I don t think it s affecting my form but it feels weird since I m used to flat benches. But other than preferring flat benches is there anything inherently wrong with using a bench like this for bench press? Has anyone used something similar at their own gym? I live in Tokyo and access to gyms with plenty of free weights is limited so it s not like I can be super picky. And again I don t think it s affecting my form and benching isn t painful or anything like that but I just thought I d ask for posterity. Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has anyone ever successfully transformed the dreaded "V" shaped butt? I m helping my girlfriend get back into shape...and have been researching some workout plans for her. She has a very classic hourglass figure...which is good. But she stores her weight on her hips and belly. She really wants to transform her butt. The shape would be described as the "V" shaped. The lower outsides (the upper/outer portion of the thigh) are pretty underdeveloped &amp;amp; look indented from the back. Almost like she s clenching all the time. From what I understand this is typical with older women due to hormonal changes (but she s only 29...and has had this butt shape her whole life). I m not sure if maybe she has an undiagnosed hormonal imbalance or its just her natural shape. But would love to be able to give her some hope she can round it out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has anyone tried Kris Gethin s 4 weeks 2 shred? If so what were your results/opinions of it. Has anyone done this plan? I d like to hear your results issues criticisms of it as I m trying out right now for myself and wonder if there is anything I should modify about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having a hard time hitting ~3000 calories. So background. I m 21 and weigh 155 and 5"11 tall. I ve been trying to bulk up but I feel like I hit a wall when it comes to eating. My appetite is really low (mainly because if my thyroid problems) and I m feeling frustrated that my progress is being stunted because of this. Has anyone had any similar problems ? And how did you overcome it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart rate for burning fat during cardio? I've been trying to keep my heart rate in the high 170's when doing cardio but I was told by a trainer that doing so actually doesn't use calories stored as fat. He said that I should keep my heart rate in the mid 130's to encourage the body to use fat reserves. Is this a real thing? I've never heard this before.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello friends I have a question about nutrients So I m currently on a diet plan and exercise plan to lose weight within 3-4 months. I used Cronometer to optimize my diet and track calories and I tried to get all the nutrients I needed with the least amount of calories because as a 16 year old I figured I needed them. daily I m getting 93% fiber 186% iron 110% calcium 646% vitamin A 174% vitamin C 258% vitamin b12 and 111% folate which is the main nutrients on the Cronometer. I generally eat foods part of a vegan diet because I figured it has the least calories overall and is most dense in nutrients. ( don t have any meat and minimal eggs) SO my question is out of all the main nutrients I m getting is there any I am "overdosing" on? I read that too much iron can be toxic and I m getting 186% of iron daily requirement or 20.4 mg. I read that there is heme and non-heme and non-heme iron which is what I m mostly getting from vegan sources so would the actual iron I m getting be less than the site sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help putting together a program for my 75 yr old father. Like the post title says, we want to start him lifting. Currently he walks 5-6 miles a few times a week, and we have recently gotten him to start using an elliptical for 45min a couple times a week, as well. He is in excellent shape for his age, but he is losing strength and wants to regain it. I am open to any suggestions for routines etc. The last time he trained was when he was in the Marines around 1960-63. Thanks in advance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help with diet and exercise for someone who struggles to grasp it. I have visited this subreddit for years never participated but have read the FAQ and applied some CICO. I ve gone from 225 to 180 pounds (6 1" 30 year old male). All things considered I m proud of what I ve done. It s still a struggle at times to not binge. My goal is to get down to 165. So that said I ve done all this without focusing on working out and without focusing on the content of what I eat just focused on calories. CICO is very easy. That said I ve hit a major plateau and I need to add exercise and start focusing on carbs and all that I think to hit my goal or at least lose some fat and gain muscle weight and end up somewhere around the goal and my current weight but with less body fat. I don t know if I have an undiagnosed learning disability like ADD or what but the moment I start reading about working out the science behind it and things like protein and carbs and all that that effects your progress when trying to ge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help with weight progression on PHUL Hi guys I am a beginner with the PHUL which i started like literally form last week. This is the program i follow - https //www.jefit.com/routines/workout-routine-database.php?id=24375 Now my concern is how do i go about on my weight progression every week? I currently do what is exactly mentioned in the program (for number of sets and reps) but i am unsure on how to increase weights every week as i progress. Any useful insights would be of immense help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey oldies ya know 50+ years of age... If you're someone who has been lifting 20 + years and have made it to the senior levels would you share with us what your life is like now? How did your training change throughout the years? Are you still training now? How is your health mobility and looks compared to friends/coworkers/family members of a similar age but who do not lift/exercise very much? Thanks for taking the time to share.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! I m looking for some help on my program! (F17) Hi! I recently got back into fitness after a few months of bad habits and want to gain muscle mass on the lower part of my body. I am 4 11" and weigh approximately 130 pounds. I plan to work out 4 times a week following a fitnessblender (a fitness youtube channel) program that consists of 3 workouts a week including hiit and strength training which are quite tough and then add in the weekend some low impact cardio. I also planned to eat 1800 calories of good food on the days I work out and 1500 (my maintainance calorie level) on the days I don t. What do you guys think? Could this be a good plan to develop some good muscle mass in the long run? I also would like to ask what my macros especially protein should look like. Today I reached 91 grams of protein 164 carbs 89 fat (i count them on myfitnesspal) but I m not sure if I m doing this right. I have been told that too much protein could harm me and I m a little scared to eat too much of it! Thank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIIT advice I like lifting but I feel like I m not getting the weight loss What are the best types of programs to use ( ex. Insanity) in order to cut the fat quickly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiking and Powerlifting - a tricky combo How can I train for Powerlifting while keeping fit enough to enjoy long distance (multi-day) often uphill hikes? I feel any endurance work I do detracts from my strength performance. I have traditionally done little cardio as part of my strength routines as I m unsure how to best combine the two. In the hikes I ve done recently the muscle burn is agonizing after a few flights of steps and so it d be great to learn how to develop both strength and endurance based muscle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How accurate are these suggested optimal volume ranges? [link](https //www.aworkoutroutine.com/optimal-workout-volume/) In the article it states "For each bigger muscle group about 60-120 total reps PER WEEK. For each smaller muscle group about 30-60 total reps PER WEEK." Does this fall into your volume per week?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Can I Use DXA Scan Information? Hey all just got a DXA scan done by Body Spec. 26yo male 5 foot 10 200lbs. My resting metabolic rate (RMR) is 1799 cal/day. Fat tissue 48.8lbs Lean tissue 147 lbs I am curious as to how to use the above information to aid in weight loss goals. Namely I am wondering what to do with RMR as I was planning on simply eating around 2000 cal/day. Any information would be great thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can this guy claim that lower calories does not mean weight loss? Could anyone knowledgeable please tell me how can Dr Berg claim in [this](https //youtu.be/QaH56AeT1eI) and [this](https //youtu.be/mDGcXTGWzaY) video that low calories does not equal weight loss? Genuinely curious because I thought the law of calorie balance was unbreakable. Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I prepare the week before a half marathon? I am running my first half marathon on Saturday in the attempt to impress a girl and the thought of a weekend away with her sounded pretty good. I have had 3 weeks notice to prepare for it. I have also found out that its not 13 miles but 16 miles instead. Also its off road and over rolling hills. Yes I have bitten off more than I can chew but it s too late to back out now. I ve been training as much as i can but so far my longest run has been 10 miles. Now I have 5 days until the half marathon. What training should i be looking at doing this week to make sure that im fresh for Saturday? Also a lot of people talk about carb loading which i know involves eating carbs but any details of any particular carbs and when to start would be appreciated. Finally what is the ideal breakfast on the morning of the run? Thanks for any help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do we physically lose weight? How do we physically lose weight? What I mean is conservation of mass dictates that if we lose weight we have to have expelled it somehow. So what is being expelled and how?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you know when a muscle is lagging behind? I read a Flex article a long time ago by Ron Coleman who was discussing power moves vs isolation. He mentioned that by cycling a routine that focuses on isolation you can get that fine muscles that you miss with big moves which will help your big lifts. But how do you keep track of the strength gains on individual muscles in big groups of muscles? If my (whatever tiny muscle way down there) is weak and I don t know it how do I know to address it. If my main goal is to be strong is it even necessary to stress over things like this? Edit Already I m seeing a classic discrepancy on this topic. Some say one thing and others say another.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does "muscle memory" work? Hey guys I haven t worked out consistently in about a year and a half. Now I m getting back to the gym as often as possible and I m curious if "muscle memory" (if that s even a thing I haven t heard a dedicated answer) Will help me out a bit after a few weeks of working out again? Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does smoking really affect gains? Long time follower but it s the first time I m posting here. I ve been overweight for the past 3-4 years but it s really starting to affect my life now. I joined a gym now hoping to get my life back on track. I also happen to be a heavy smoker. My question is how does smoking directly affect my progress at the gym? First off I have this short term goal of losing 20 kgs in the next 4-6 months. I m not even sure if it is reasonable or not. But I ve made up mind (though not able to make up my mind to quit smoking). I currently weigh 98.1 kgs and my height is 5 11 . I m 19 if that matters. Also I d love to get tips from heavy smokers who quit on how to quit. Thank you. EDIT Smoking as in cigarettes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How extreme is too extreme when it comes to caloric deficit *TLDR;* I m not sure if I m getting a healthy level calories in my current diet. Age 24 6 2” 220lb Male *Backstory * I was very fit in high school as a 3 sport athlete weighing 195lb with BF somewhere sub 10%. Got to college didn t have coaches forcing me to workout so for the most part I didn t. Also went on a primarily whiskey and beer diet. Fast forward to graduation I weighed in around 230lb with BF ~25%. Now after getting back into the real world I ve gotten back to the gym lifting regularly (5 days a week). For the past 6 months I noticed my lift weights getting much higher (almost back to where I was in my peak) but my diet was fairly poor. Typically eating a healthy breakfast and lunch then grabbing fast food for dinner. I was also going out to the bars at least once per weekend. My weight stayed pretty constant around 228lb. Starting in January I ve added cardio to my workout routine I ve cut binge drinking and start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How fast can you add to a caloric surplus? Coming off of what id now consider an incredibly stupid diet of 1200 calories. Going to the gym 6 days a week and working a job that has me lifting steel all day. Ive climbed up to 2200 over a 6 month period by slowly adding calories. (Around 100-150 a week) The past few bumps in calories has produced no weight gain im still fairly lean so id like to jump up in weight and cal before cutting in the late spring early summer. Is a jump of 300 or 400 cal and staying there a good idea? Whats the best approach to adding cal for a bulk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long after working out does your body begin to build muscle? As a sub question: What time period after working out is muscle building the most prevalent? Should you be in the highest caloric surplus during that time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long does it take for your heart to be back to normal after intense workouts? Hi So I ve been reading a lot about how fast the heart should come back down to rest pulse and that it can take several hours even after heavy workouts. How long does it take for your heart to be back at "normal" rest beats and no exhaustion? I ve just restarted training after a year of inactivity and I find my heart taking several hours to get back to normal state and I feel quite exhausted after an intense workout. I wonder if I am pushing myself too hard or if this is just beginner problems as in that my heart is not used to this kind of activity given that I barely get my pulse up in the past year of inactivity. Please share your progress and if you are having the same thing? I also read that hydration could be playing a role but I drank a lot after training yesterday and it didn t seem to do any difference on it so I wonder if it s just poor cardio and that it takes time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how much more do you squat low bar vs high bar? I squat high bar and beltless right now but im wondering what i would squat if i did low bar with a belt too. right now my beltless high bar is about 150kg is there a semi-reliable way to work it out? how do they differ for you? is the discrepancy predictable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much protein from supplements vs other sources? So I m trying to put together a new solid diet plan and I m unsure how to figure how much protein to consume from the source vs consuming whey protein supplements. What s a good target? Currently I m aiming for 220 grams approx 50 from supplements. Can I do 75 grams or more instead? Tired of cooking and eating so damn much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much sugar is okay to consume per day/ meal for healthy bulking? Just started bulking and tracking my meals a little while ago. It seems that I consume about 170g of sugar per day on what I thought was a healthy vegetarian meal plan. What should my limit be for sugar intake or is this something I shouldn t worry about? 5 11" 130 lbs 22 High Activity Level 3900 Calories Workout 5 days in a week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How safe are adjustable dumbbells? I m looking at buying a set but I m scared of the clamp/screw breaking off and the weight falling on my face when I chest press. Is my fear rational? Does anyone have any experiences with them/suggestions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How should I counteract over-strengthened muscles from dumbbell side bends? Well first thank you for any advice. Background mid 20s male overweight but not completely out of shape (~170 lbs); otherwise healthy except for too much stress. What I did a few weeks ago is tried to jumpstart my workout routine with dumbbell side bends at home at 40lbs. Dumb idea. When I was in an actual routine some months ago I did them at 20-25 instead. I wanted to get going again and I found I could lift 40 with the set I have. I also figured more muscle in the core will help build my foundation. Problem is I m pretty sure this is the cause to some lower back pain and some misalignment on my spine. I m also feeling more prone to slouch when I sit as a result. Are there any exercises stretches or other things I should do to balance or counteract what I did? If so what are they? Thank you &amp;gt;To save this from being deleted (Not asking for a diagnosis here. I have read the sidebar and I have talked to others a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How should i decided what program to select based on current stats Current stats 25 5 9 177 male Current maxes Bench 250 Deadlift 385 Ohp 150 Squat unknown I have been running Alphadestiny Naturally Enhanced for a while but feel like I m getting nowhere for a couple reasons. Firstly exercise selection. I don t know where my weak points are and that s a big part of a program that s based off westside principles. In general feel like I can get more gains running a simpler program and make consistent weekly gains. If anyone has advice let me know. I was thinking of running a 531 template using the 351 variation along with joker sets but still not sure. My goals are to get big and strong as possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to Milk Linear Progression Programs? (no results on Google and /r/fitness searches) Like the topic what is the protocol to "milk" linear progression (Squats specifically)? I ve searched it and it didn t yield any good answer It is? 3x5/ fail deload 10% ???? Squat 1x5/3x3/3x1 ??? then i ve read about 3x3 3x1 but not sure about those protocols (then i read practical programming at the novice section and still don t know understand(i know it changes to squat two times a week) atm i m doing Greyskull LP but i want to keep milking instead of switching to intermediate The reason that i ve brought this up is because i restarted training again(S/D/B/OHP) after 2months(and now im at 2 months training) but went to Greyskull and my OHP quickly failed when i ve reached 3x5 60kg(in the past and i m sure it ll continue stalling/where in Madcow i only gained 3kg after 3 cycles 64kg max) Not knowing what to do wit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to protect my knees when doing squats/deadlifts/lower body lifting? I ve started doing a lot of lower body lifting recently and I can tell that it puts a lot of pressure on my knees. I wear the proper shoes and I always gently stretch before and after. I make sure the weight isn t too much but I am definitely trying to push myself. How can i make sure to protect my knees from future damage when I get older while still making lower body gains?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to regain my diet discipline? Ever since I started working 40 hours a week I ve been going on these huge binges after work causing me to eat like 5000 calories instead of the planned 3600. I went from 190 to 210 in like 5 weeks and since I was at like 7% no real harm has been done yet but if this keeps up I m going to become fat. The good thing is that the food I binge on is still healthy and full of nutrients but it s still a ton of extra calories. Sometimes I think I enjoy the food in my diet too much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am afraid of doing heavy squats and deadlifts because of an old accident. About 2 years ago I injuried my lower back while doing a pretty light deadlift because of my terrible form. I think I did everything wrong while lifting that weight and I immedietly knew something was wrong. I couldn't move out of my bad for 2 days, the pain was too intense in my back, especially in the lower part. I could not do any sports for around 3 months because of terrible lower back pain. So in that period of time I was doing stretches, I went to chiropractor few times and after like 5 months of taking care of myself, everything went back to normal. Even though I managed to do a 90 kg / 200 lbs deadlift today, my buddy says I could easily do 110 kg / 240 lbs. But I am afraid as hell, how do I overcome this? Do I have a 100% gurantee that with a perfect posture and technique I won't injure myself?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't want to have a rest day what should I do? Hey allSo I've constantly struggled with motivating myself to continue working out and training for various reasons - some I'm aware of and some I'm not; I've found that because of the issues with motivating myself I often end up slacking off or just stopping my workouts after I have a rest day. This happens within the first couple weeks of starting a new workout routine so I was wondering if it's okay for me to not have a rest day for the first few weeks so that I can maybe get stuck into the routine more and form a habit.Is this going to be detrimental to me? Everyone seems to say that rest days are necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know not to go to the gym when sick. But what s the time frame for that? I know I ve read before not to go to the gym when your sick. But how long do I stay away? My toddler gave me strep throat (first time in 20 years I ve had it). I know it s something adults usually get over but I m on antibiotics for that and I ve had an upper respiratory infection since Dec 1. The hospital didn t want to test the respiratory infection but I finally have medicine. My husband told me not to go to the gym last night besides getting others sick. My breathing hasn t been perfect. Is their a general amount of time or is it just when I m done with medicine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I m having trouble engaging my glutes during squats. Any tips? Hey /fitness Its been good but I feel like I m not engaging my glutes during squats. Does anyone have some tips for me? Thanks in advance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need help understanding nSuns LP s worksheet... https //drive.google.com/file/d/0B8EbfzFB0mBrSjBFZ1NUUklHU1E/view Monday Bench 202.5 x8 235 x6 265 x4 265 x4 265 x4 250 x5 235 x6 220 x7 202.5 x8+ OHP 102.5 x6 122.5 x5 142.5 x3 142.5 x5 142.5 x7 142.5 x4 142.5 x6 142.5 x8 Assistance Chest Arms Back How do I read this and what are these numbers telling me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ve only got access to a small gym @ my apartment complex. Can I get good results using only these machines? So I am unable to access a commercial gym but there is a "home gym" at my apartment complex. It has machines which offer these exercises (no free weights all machined) **Weights ** - Bench Press Incline Press Shoulder Press - Lat Pulldown Low Row - Tricep Pushdown Bicep Curl - Leg Press **Cardio ** - Treadmill - Bike - Rowing Machine - Elliptical I am 30yo 5.5ft (165cm) and weight 130lb (58kg) I think I am around 20% bf right now. I have really high metabolism and have stayed at a steady 58kg for the last 5+ years. My goal is just to build lean muscle and cut my bf% to around 10-12%. I am happy to exercise 6 days a week 1 day rest and can commit up to 60 minutes a day. Can I develop a good routine just using what s available to me (including doing body-weight exercise)? I am totally new to fitness what would you recommend?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ve realized my form on the squat and deadlift isn t up to par. What s a good rep range and percentage of 1RM to use while I relearn how to do these movements? I m 6 0 and 165 lbs Squat 1RM 225 lbs Deadlift 1RM 315 lbs My squat turns into a good morning when I m using anything north of 75% of my 1RM and I can t feel my hamstrings engage at all during my deadlift. I ve been using 3x5x70% 3x5x80% and 3x3x90% to train these two lifts but I ve mostly just been winging the technique. So I want to deload and relearn how to squat and deadlift properly but I m not sure what parameters I should be using.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I weigh 280 lbs and I have to run up stairs for work 6 days a week, will I destroy my knees? So I recently got a job as a newspaper delivery man and the job involves running up a lot of stairs, it's very difficult to estimate how much, but I'd say all in all, my 4 hour shift involves perhaps 1-1,5 hours of running up stairs. Considering I weigh 280 lbs, I'm a bit worried that I am destroying my knees doing this, people have advised me before to not run until I get down to 230-ish lbs or so and I'm guessing running up stairs is worse. My stats are: 21 years old, 6 foot 2, 280 lbs. I will be doing this job for 1-2 years, 6 days a week and even if I lose the weight rather quickly I will put stress on my knees for several months, could this leave me with permanent damage? Should I be worried?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wing my scapula when I do heavy dumbbell curls. How do I fox this? I ve got a good posture and my shoulder blades are most of the time retracted but when I perform heavy dumbbell curls my shoulder blades instantly want to wing. Help would be appreciated!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm doing cheerleading, and I'm a base. I have lots of leg strength, but I want to get more explosive power. Are there any exercises I can do to increase explosive leg power? Edit: I just wanted to say thank you for all of this great advice. I'm reading through it all right now, and I'm very excited to incorporate it into my workouts. My main goal is to impress the coaches and team, and I think that I'll be able to by the first competition! Thank you for helping make this rookie better!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If my gym doesn't have a squat rack, what are some good alternatives to build lower body strength? I know squats are one of the, if not the best leg exercise. I don't want to miss out on the benefits I can get from squats. Although there might not be a complete alternative, what are exercises I can do to mitigate this loss? Lunges, leg press?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you always wanted to start griptraining but don t know how here s the official /r/griptraining beginner routine as a video. # Detailed Video https //www.youtube.com/watch?v=FGuVJAj96SE *** Hey /r/Fitness if you haven t heard of /r/GripTraining it s a subreddit dedicated to grip strength and training. David Horne who s a world champion in grip sports of all kinds has created an official beginner routine some years ago and it s also the official routine we recommend for people with weak grip. If you want stronger grip or stronger wrists you should definitely check it out! It takes only 10 minutes to do and all you need is a barbell and plates. You can find the official routine description on David s website **[here](http //web.archive.org/web/20160427205159/http //www.davidhorne-gripmaster.com/basics.html)** - to make it easier to understand i ll provide pictures and a video in this post aswell. * The routine consists of 4 different exercises that focus on your pinch grip your wrist strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you failed a PR, should you go for round two right after? Recently I attempted a deadlift PR and failed, and it got me thinking if I should really go for a round two or not (I did try and fail again lol). On one hand it seems kinda irresponsible since you might take a trip to snap city, but on the other I've seen people do multiple attempts on different lifts. Bonus question: If your form on a PR was pretty bad, would you redo it/not count it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you re eating a deficit then exercise and eat those calories back will you still lose weight? Let s say your maintenance level is 2000 but you re eating 1400 calories a day. Then you go swimming for 30 minutes and burn 200 calories. Then you go and eat a 200 calorie meal. You re still eating at a deficit to lose weight right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increasing front squat wrist flexibility I ve recently added front squats into my leg day routine and as much as I hated it at the start it s really growing on me. My problem is I ve never been able to clean grip the bar always cross armed which at heavier weights tends to compromise a little leading to some bicep pain. What s the easiest way I could increase my wrist flexibly to easily clean grip the bar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insight on Powdered Food/meal replacements? Hi friends. Has anyone had any experience with Huel for meal replacements? It seems a little too good to be true 500 calories 16g fat 47g carb 37g protein per serving. It seems fine and healthy but would it kill me to have something like this several times a week? I tend not to trust testimonials and reviews on product sites. Anyone with experience consuming Huel or just advice on meal replacements would be great. I m not aiming to use this for every meal but it would be nice to have something decent to fall back on for whenever I work late and end up with something fast and unhealthy. Thanks! Nutritional facts https //us.huel.com/pages/nutritional-information-and-ingredients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a monotonous diet okay? Is it ok to eat a monotonous diet as long as the macros are correct? I m very good with no variation diets. I ve lost a lot of weight before doing intermittent fasting eating once a day the same basic meal for months on end. It worked though I was starving myself and not lifting so I lost all my muscle and just got skinny-fat. But the point is I was mentally fine with a monotonous diet indeed it s the only kind I succeed at because constantly needing to recalculate for different foods discourages me and I quit. Now I m lifting and trying to do a cut that will actually preserve muscle so my goals are only 1-1.5 lbs lost a week eating ~1800 calories (my BMR) eating 175g protein (one per pound body weight) and 50g fat (25% of total calories) My monotonous plan is this four whey protein shakes a day plus six servings of these Tyson chicken strips I found with some mixed veggies thrown in. The whey is 120 calories per serving 24g protein 1g fat. The chicken strips are 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Fat always stored in the same places? So let's say you cut down a big deal of weight and make those sweet face gains, will the body, when bulking again, store fat in the face again or is it just random where fat will be stored?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it a waste to go to the gym if you can only get 5 hrs of sleep a day Due to working graveyard shifts and being a full-time student I only get 5 hours of sleep but I still want to build lean muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it better to squat as low as you can versus just going below parallel? I'm 28 and 5'8" and I been back squatting for about 7 weeks now and I've noticed some things that I don't really know how to use to help me improve. My form has been good so far but my main concern is just how low should I squat, almost ass to ground or just below parallel? But if I squat to just below parallel it feels better and I just have normal fatigue the next day and no soreness in my hip flexors. I am currently squatting around 80% max to work on my form because I cannot always keep my back straight past 80%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it just as effective for me to do one muscle a day as of two? So I ve been doing PPL for just about 8 months now and I ve gotten pretty tired of it. I feel that I just wanna focus on one part when I get to the gym now leading me to not work hard on the other group i have to do that day. I go the gym 6 days straight and take a rest on the 7th so I was thinking will I be making equal or greater gains by working each muscle once a week for 8 exercises rather than what I ve done (4 exercises twice a week while doing another muscle)? It s not that I m looking for really more gains but I m trying to change my routine to something I like without losing gains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it ok to hunch over while running on a treadmill? I m trying to lose some weight and have a bowflex and treadmill to help me do so. The problem with the treadmill though is it is in a room with a 6 2" ceiling. I m 6 4" to begin with and when standing on the treadmill I m even taller. So if I run on it I have to lean over pretty far. When I looked at tutorials and guides for running on a treadmill they are always running with their backs straight. So I was wondering if it is ok to be hunched over while running?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it okay to climb on my rest day or should I move it to a different day of the week? I ve been running PPL 6 days and usually go Pull Push Legs in that order (with a Sunday rest day). I ve been wanting to do some more climbing (just as a fun side thing to do with my friends). Would it be okay to go climb in the mornings on my rest day? Or would it be better for recovery for my pull muscles to move it to Saturday with my legs? Basically I want to climb but I don t want to overwork my muscles and end up either hurting myself or find myself unable to progress as well in my Pull related exercises. I also might just be overthinking this but I was hoping to get your opinions on this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it possible to gain muscle with low protein intake? I am 20/m. Been vegetarian for almost 2 years. Cutting since mid summer but it s about time I start gaining something useful. My problem is the daily protein intake (somewhere just below average). Is it possible to gain muscle like that even if it s very slow and not optimal as long as I am not in a caloric deficit. I am not aiming at being a beast. Just looking and performing a little better. Edit Came home just now and read what you guys wrote. Replying to every single one of you who gave advise here will be a bit time consuming but I still want to let you know that I am thankful for your time and help! Although the way I asked the question was pretty shitty I still got what I needed and I will definetly look into all the possible ways of acquiring protein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it possible to get a six pack without diet? (Male here 1.78m 78kg) As if not consuming more than 1700-2000 kcal per day but other than that eating whatever. Can I get a six pack just by working out? If so how much harder than a combination with proper nutrition would it be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it true that this leg machine is useless? A friend of mine who works out quite a bit recently told me that the leg machine that s suppose to work your inner and outer thighs(opening and closing your legs) is actually useless. Just curious about your input!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is lifting 6 times a week too much? Hey everyone! By no means I am trying to sound arrogant or anything it‘s just that lifting became a really fun hobby of mine and I was wondering whether 6 days/week are just too much? I‘ve read on multiple sites online that you should avoid training more than 4 times a week. Are 6 days hurting me more than benefiting and should I slow down or am I okay with going that frequently? I am currently doing a PPL routine. Never longer than ~60 mins @ the gym. Any help/advise/insight would be greatly appreciated! &amp;lt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is my insomnia negatively affecting muscle growth? Normally I wake up about 3 times during the night however the past week I ve been waking up 7 or 8 times during the night. Is this negatively affecting my muscle growth? What fixed could be done to perhaps cure the problem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is post-workout sugar supplementing really safe in the long run? We all know that the best thing to do right after the workout is to eat some simple carbs mainly sugars and maltodextrins. It is one of the few truly scientifically proven facts in bodybuilding after all. My question is is all this sugar really safe in the long run? Has any serious trial ever been done on the subject?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is squatting wide dangerous? I have hip flexor/extensor pain when I squat with loaded weight. I have heard that squatting with your feet wider apart may be a solution but am worried if that is dangerous or otherwise harmful. All feedback welcome thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is StartBodyweight going offline? (repost fro r/bodyweightfitness I just came upon this post in my facebook feed http //www.startbodyweight.com/2017/12/help-keep-startbodyweight-online.html I have always found the progressions far more useful than those of the recommended routine and it d be a shame to see this resource disappearing... I hope that the owner keeps it online! Meanwhile I suggest you grab the infographic pdf before it disappears it has all the main exercises and progressions. I think you can still download it from the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the cold bad for muscle growth? You need post workout inflammation for muscle growth the cold combats inflammation. So will taking cold showers or not dressing warm fuck with your potential to grow bigger?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a consensus on whether to lockout during exercises? After noticing a comment today and after having never really thought about it I was wondering if there is any consensus or science behind whether to lockout say your arms during bench press etc? Is locking out dangerous? After doing some research I m just finding conflicting opinions with each side claiming to be right and having data to back up their claims but in true internet forum fashion the follow up never arrives. Personally have always locked out for a brief second each rep as to me that felt like I had done the full ROM but seeing people saying not locking out prevents bad tension on joints and allows the muscles to be continually under tension and that it s better not to lock out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a major downside of not doing deadlift? Hello. I have been diagnosed some years ago with scoliosis and kyphosis. I ve been to a specialized doctor like 2 months ago and he told me to avoid any exercice which is about lifting the weight from the ground. So I know I can t do deadlifts. Is there any big downside to this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a reason why I get sick after a hard workout? Genuinely curious this is the 3rd or 4th time where I ve pushed myself more than I normally do at the gym and the next day I always feel like straight shit. It s either flu-like symptoms like fatigue sore throat loss of energy runny nose things like that. This doesn t happen normally only when I push myself far which kind of sucks because I really want to test my limits but I can t without getting sick. I figure it might have something to do with recovery time but I m not too sure. Any thoughts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a significant difference between muscle growtg and strength? So basically I m curious if signs of strength mean that you are getting bigger as well or does it certainly have to be low reps/high volume for strength and vice versa for size? I noticed getting stronger in the gym on some lifts but not getting bigger and on some body parts Im bigger but not stronger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there former fat guy muscle memory? Hi Everybody lets for example take 2 people 6 feet tall. One weighs 250lbs and the other one 150lbs. Now the 250lbs person loses weight just by reducing calories and goes down to about 150lbs bodyweight. Now if both people start resistance training will the former fat person regain the muscles he lost during the weightloss and therefore build muscle faster than the skinny person?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is upping the amount of calories I eat just as important as getting enough protein to build muscle mass? I m a pretty skinny guy looking to get bigger and I was just wondering about this. I m just worried that I ll end up getting fat for whatever reason instead of building muscle if I keep my calorie intake higher than usual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is working out in the evening detrimental? I ve been researching this question online and could not find a conclusive answer on whether it hinders or helps an individual s sleep cycle/weight maintenance regime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketogenic diet fat dilemma So I want to do the ketogenic diet for a few reasons but I run into the issue of most websites don t elaborate what foods are good fats besides salmon and avocados. I hate avocado but I m willing to eat it sometimes I love salmon but I ve seen in many sites that I shouldn t eat too much fish in comparison to beef and leafy greens. So for those who ve done the keto diet how do you get your fats and what would a normal meal day look like for you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kettlebell Vertical Pull Is this a real exercise? So I was looking for vertical pulling exercises that aren t pull-ups and found [this](https //www.youtube.com/watch?v=82JpPncFq9c) on Youtube. I ve been doing them and enjoy them. However I cannot find any other mention or demonstration of this exercise anywhere else. The video has no comments and does not appear to be from a "big name" fitness person (not that that s ironclad but it s at least somewhat reassuring \^_\^). As a lifting newb I wanted to check if this is a "real" and safe exercise? Or maybe I just don t have the right keyword? Thanks for the help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kettlebell weight question Hello everyone I m looking to buy a kettlebell but I m not sure which weight is the best. I tried out some in the store and the 16kg was the last i could lift overhead without thinking "omfg i ll drop it any moment" feel like that could be a good start for workouts or am i wrong? What s others experience with starting weights? 29yo out of shape guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of progress... Starting to feel depressed. Can anyone please give me some pointers? Short background I started lifting about 3 or 4 years ago as I was very skinny in highschool and wanted to feel a bit more confident about myself. I put on a but if muscle in about a year and... That s about it. Since then I think I ve been pretty much putting on and losing the same 10lbs over and over. I ve got slightly stronger but nothing spectacular. Here s how I look right now https //imgur.com/a/UKrBr Not even going to bother posting what I looked like one year ago or two years ago as I look the same lol. As you can also see I m holding quite a bit of fat. I try eat as clean as I can mostly brown rice chicken and veggies. Occasional cheat meal but this usually just ends up being a bowl of sugary cereal or the odd burger never anything insane like 3 pizzas and 5 large big macs. Gym about 3 times a week push day pull day legs where u try and go as hard as I can. I change my workouts every 4-6 week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of sleep when cutting I realize sleep is very important when bulking to build muscle and reduce soreness and heal etc but what about when cutting? Obviously getting more sleep would be better anyway but is the damage as big when cutting? I won t be building much if any muscle at all anyway but I don t see how it would cause your body to lose muscle either? Tried searching around but cant find much on this any ideas? Thx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legs and triceps together any problem with that? I usually do shoulders and triceps together but today after shoulders I was just dead so I figured I d squeeze tris in on legs. Is there any negative effect to doing that as in being pointless? Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legs cramp up at the start of a workout? A few squats or deadlifts will lock them up even after a good warm up. I m fat and out of shape but I was also fat and out of shape when I started lifting in highschool/college and this never happened then. I m only 26 so I m not THAT old. What gives? How do I fix it? I m unable to do a propper leg day. Other body parts are normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legs not straight I really did not know where to post this I wrote posture in the search bar and it popped up Fitnes.. I recently noticed when checking a picture of me that my legs are oddly rotating in It tough to describe but its like my thighs are pointing internally and my knees are caved in..Giving the shape that so when I stand its like the knees are approaching each other while the calves are further out it really looks weird and girly I dont recall having this before for whats its worth I worked out at the beginnig of this year for 4 months on SL5x5 ( and did have ALOT of growth in legs cuz SKWATS Im a lower body dominant person ) Is this a posture thing that can be fixed or a medical condition or is it normal.. I am sorry I couldnt include photos now phone broke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let s talk about the resting squat So we know that squaring is a very primal movement. As babies and children we get into this position constantly with no thought at all It is believed that our ancestors did as well. In less developed countries you can see people going into a flat foot squat to relax to eat or hangout. They ll sit in this position the way we sit in chairs for extended periods of time. It s theorized that the sitting position we do in chairs is unnatural for human bodies and causes imbalances and loss of mobility in the hips and thighs. It s also theorized that by hanging out in a resting squat throughout your day you might even be able to reverse some of this damage done! What are your thoughts on this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifesum on my android wear smartwatch just sort of guesses the calories?! is this doable?! Like Im enticed by the idea of not having to be specific(which i can do on the phone version) but it kind of eeks me out. Like I can see it being useful for getting through lazy days I guess but idk what do you guys think? Basically it asks how big your meal was and then depending on if you said small medium or large plops down an assumed amount of calories. I guess I could just try it for like 2 weeks and see what it do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lift weights without getting sore? Is it possible? I m a professional (classical) musician so my hands and arms are my livelihood. I cannot under any circumstances let them get sore stiff or injured. On the other hand after a lifetime of being careful not to ever stress them out my (male) 30-something-year-old upper body is about the same as a 12 year-old s. I m very aerobically healthy thanks to a life of running and competitive cycling but as I age I d like to build a little bit of muscle to help prevent problems in the future. So is it possible to build a very moderate amount of muscle without getting sore?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifting heavy on an empty stomach I ve tried doing research on this topic but there s a lot of evidence for both sides. Do any of you have any experience with lifting heavy in the morning on an empty stomach? In some articles I ve read that your body uses your muscle as a source of energy on an empty stomach. Other articles I ve read that your body actually uses fat as an energy source on an empty stomach. Which one is true? Just wondering what you guys know thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging progress Can I get some recommendations for an App on iPhone or Android for logging how much I m lifting for each exercise. I could make an excel sheet but I m lazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long term effects of the hook grip? Getting into the 500s on the deadlift. Other than muscular imbalances I m worried about biceps injuries on my supinated arm with a mixed grip as I move up in weight. I ve recently started experimenting with the hook grip. Does anyone know of any proven long term negative effects of the hook grip? I can suck it up and deal with the pain but I just want to make sure I m not doing serious nerve/ligament damage. TIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking for a pull-up bar that fits the funky tall wide and thick door trim of an older house! Hey fitness as the title says the door trims in my house are all sizes the world hasn t built since 1928. The trim is high up the walls are thick and the frame is wide. [So as you can see from this pic](https //imgur.com/75d1xY5) I need a pull up bar that is sufficiently wide sufficiently tall and sufficiently deep to accommodate my awkwardly sized dwelling. I d rather not bolt something in because I rent and don t want to risk losing any deposit. I only spent a few minutes on Amazon trying to find something like this and without success. I m surprised there aren t more options. Plenty of people live in older houses right? Thanks for your help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking to lose weight so I can get date/go to prom my senior year(next year).. I'm 17 at 6,0" and 300lbs Last Saturday was my school's prom, I realized I was home alone just sitting on my ass playing video games and I should do something. I've gotten stretch marks on my upper arms, my stomach, and the sides of my chest. I started working out yesterday. I did 8 sprints, on a 500 ft sidewalk. I paused about 20-30 sec between each. I did it after sunset because I'm embarrassed that someone will see me. What other workouts do you guys recommend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunges Can t keep balance painful for the toes 50 yo male 5 10" 210 lbs. I never did lunges growing up but some programs including an aerobics class that I like emphasizes a lot of lunges. My balance sucks I can barely do it for a second which I think leads to the second problem - pain in my toes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunges hurting the back foot? I m practicing lunges (barefoot if it matters) and it kills my back foot more that the quad. Is it it something you just get used too like deadlift hands or am I messing up?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/20/6" - Why is my bench press so inconsistent? I go to just one gym which only has the one barbell. Load it up with the same plates Some days 65kg is easy other it s impossible and even struggle with 60/62.5kg. Following the Ice Cream Fitness program and while everything else is progressing bench is going nowhere. Should I strip it back to ~50kg and start again from there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massive pump causing premature burnout? Hey there noob here just had a quick question. When doing any weight lifting I usually get a great pump and it feels really good however this pump I feel is reeealy big and I feel like I can t move very well afterwards. Like to the point where finishing 3 sets of anything is difficult due to limited movement alone because of my pump not to mention fatigue... Feels like water balloons strapped to my arms and chest.. I feel like I stretch pretty well before lifting should I stretch more? Lower my weight and focus on form and more reps? I usually try to lift heavy to build muscle could I be over lifting? Thanks in advance! Edit more info m/26 6 2" 250lbs formerly athletic trying to get back into shape with an actual program doing the recommend PPL routine been on it for 2 weeks now no particular diet plan for now trying to keep it to one large meal a day at around noon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical Advantage due to number of pulleys on a cable machine Hi all. I was just wondering if most cable-based machines are calibrated to take into account the number of pulleys the cable passes over in order to lift the weight and the mechanical advantage that can occur? For example a cable passing over two pulleys is capable of lifting twice as much weight for a given amount of energy when compared to a cable passing over only one pulley. Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melatonin naps and recovery If sleep repairs the muscles Will naps help aid also If not tired I was thinking about taking a quarter a tab of melatonin to take naps Assuming I was to do this would this mess with my sleep even if I was to take melatonin before bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro weights / plates for more consistent progress / faster plateau breaking Hi reddit! The smallest plates at my gym are 1.25kg and the dumbbells increase by 2.5kg each which makes the transition to the next higher one a tad hard sometimes. 1) What are common places to buy your own 0.625kg plates at? 2) Is there any way to add weight to non-plate dumbbells at a gym? If there was a way for me to add 1.25kg per side it would greatly benefit my progress. I thought of light chains that I could wrap around / lay on the handle or smth. similar but that sounds kinda wack tbh. Looking forward to your ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronutrients - I want to know what I need comprehensively. So I ve been lifting for 6 years now. I started in college and over the last year or so I ve started to get comprehensive with my nutrition. My macros are on point and I ve learned a lot about building muscle. I calculated my macros down to the gram I use a combination of shakes and lean high protein foods in a well-designed diet. How about micros? What do I need to be getting on a daily or weekly basis? How do micronutrients work? Are there numbers I need to hit like with macros?? How do most people hit micros? Any other tips are great too. Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military and weightlifting As it sitd right now the maximum weight allowed is 178 lbs for me and that is what I m at. I lve always been a fat body a few months ago and ive hit the gym hard but I m about to go past that weight. I will fail the bf % which is 22% and I don t know what to do. Am I able to cut more often and drop some weight then bulk it back up until I can get past the bf taping?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixing high reps and low reps on different days in same week Yes I read the wiki and my question is NOT "what rep range should I aim for." My question is "is it better to focus only on one particular rep range or can I shift between rep ranges in the same week?" For example suppose I do a full body workout 3 days a week and I do bench on all 3 days. On Day 1 I aim for high reps (12-16 reps) on dumbbell flat bench. On Day 2 I do one-arm dumbbell bench press (both low and high reps). On Day 3 I aim for high weight but low reps (4-8 reps) on dumbbell flat bench. Or suppose that I pick one rep range and keep increasing weight from there? Which of the two is "better?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobility issues with squats Ive been working out seriously for about 4 months and while things have been going great my squat has been struggling. Its because im feeling tightness in the pelvic area and in the hips. Is there any mobility exercises you guys recommend?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More sleep when on a demanding program? I ve 1 year training experience I always trained whatever I felt like on the day and pretty unsure about my goals and I don't want to end up causing any damage. But now after getting some help on this amazing subreddit I started a 2-splitprogram (press and pull) this week. Also eating 3200 calories but now 8 hours of sleep is not enough for me is this normal and will my body adapt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscles look smaller during weight gain? Hello Is it normal for muscles to look smaller while bulking? I feel like my chest looks flatter now compared to what they looked like 5-6 lbs ago. Am I imagining it? Maybe as my stomach gets bigger it makes my chest look smaller? Here s some background naturally slim guy. In September 2016 I was about 155-160 lbs (5 11") but went all the way down to 142-143 lbs by April 2017 because of health problems. In April I started doing Body Beast again while increasing my calorie intake. I am currently 161-163 lbs and working on gaining more (my current target is 170 lbs once I reach that I will probably try another 10 pounds then cut). Trying to eat 3200 calories a day; mostly milk bread goat cheese tomatoes cucumber butter honey Nutella banana yogurt orange juice potatoes ground beef stew meat whey protein (sometimes ice cream and fruits.) Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My first cut. Having some questions on my deficit. Hi as the title mentions I am about to start my first ever "cutting phase". Basic Information I am 6 1 tall (185cm) and weigh around 192 lbs (87 kg). My TDEE is 2276 kcal (spending most of my time at a desk when i am not working out). I will be aiming for 1900 kcal a day and am working out 5 times a week. Been tracking my macros and meal sizes with myfitnesspal and a small kitchen scale. My actual question Like I already mentioned my daily intake will be at 1900 kcal/day but this will not account for my workout-sessions. So should I up the intake on my workout-days and stick to 1900kcal on restdays or do I maintain 1900kcal throughout the entire cut? EDIT thank you very much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need basic advice stuck for a year So I ve been lifting for ~2 years now. The first year progress was great. Ate at a high deficit lost a lot of fat gained a lot of strength. I was going by the PPL routine got my bench up to around 150 squat to 245 deadlift to 315 (5rm for all). Bench was always my weakpoint. Through this time I had some weird injury that had me lose a lot of bench strength that I had to rebuild. After that year I was still lifting but my diet started going to shit. My bench was slowly increasing but I was definitely getting fatter. These past couple months my diet was complete shit and my strength hasn t gone up that much. I hit 200 5x5 for bench and 345 1x5 for deadlift. Squats I hadn t done in about 2 months and I just built back up to 235 3x5. I just started counting calories again and am trying to stick to 2000 calories a day. I weigh 190-195 right now but have been looking back to my progress pics and looked the best around 170. I think I ve gotten bigger in muscle since</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need opinions on "Burn Sets" Recently changed up my program as wasn t seeing results with the former (lifts were going down) so decided to try something a little more out there. Came across a 4 day split routine that included burn sets. Essentially it has you do 3-4 exercises per muscle group and on the last one makes you do as many reps as you can for 5 minutes. For example my last chest exercise is a dumbell bench press for 5 minutes. Does anyone know if these burn sets are at all effective? I ve come across some conflicting articles and after trying the routine out have come across some issues. For example in the dumbell bench press I either do a very light weight to finish the 5 minutes without stopping or I do a heavier weight and find myself needing to take breaks. What s the superior way to do this? And since my chest is pretty wrecked by the time im starting my burn set is there any point? Nobody I know does these so I m relying on Reddit to help me out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need some advice on cardio Hey guys I just basically need a little advice on cardio and would appreciate those of you who are big on it or excel at it to chip in. Basically I ve just started back to the gym a few days ago and I m probably in the worst shape I ve ever been in in my life. For the last several years both me and my girlfriend have got lazy as you do. Too much wine and too many greasy takeaways have taken their toll and we ve both put weight on. We therefore decided to start dieting and get back into training to slim down. We ve also said we d like to do the Tough Mudder in September near Manchester but honestly I think I d be dead within the first mile with my current stamina. I ve got back into weightlifting relatively easy as I m a pretty big guy and used to crush it...also I enjoy weightlifting so it s not a chore. The cardio side is more problematic though. I ve always hated it and never really been into jogging or whatever and it just creates tedium and I m jjpt so unfit stamina-wise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need some guidance on how to efficiently train given the time I have Hello r/Fitness first post here. I am 26 and have been going to the gym on and off since I was 17 but never really dedicated to it which is what I would like to change. I am currently able to go to the gym twice a week and I do some exercises at home when I m unable to go. I train my full body when I go and usually do 3 sets of 12 reps with a weight that barely allows me to complete my third set. I try to do different exercises everytime I go to train my muscles in different ways. I would like to understand how I can be more efficient in gaining mass by for example changing the weight and amount of reps or amount of sets. Also what should I be doing at home? Thanks a lot for your feedback!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pain in the 8-12 rep range To preface my goals are 1.) Not getting injured. 2.) Physique. I d say I m an intermediate lifter. I hear people all the time talk about pain or burn (lactic acid buildup) when lifting in the hypertrophy range but I never feel any. I can go to failure and it s difficult but I only ever feel pain when I exceed 15 reps do a drop set or really exaggerate the contraction. 1.) Is this a sign that I m doing something wrong? 2.) Is there any merit to chasing pain? Ex. Doing 15 reps rather than 10 because it has the burn. I m still seeing good results but I m only on my 3rd month of getting back into lifting so that doesn t mean much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing but "GPP"? I m getting back into exercise after a long lay-off. When I go into the gym I find myself drawn towards high-intensity cardio and "GPP." For instance tonight I did 2000 meters on the rower and several rounds of prowler pushes super-setted with farmers walks. If I did nothing but workouts like this for a while say several weeks what might be the pros and cons? Is this just a stupid idea? For context I m mostly interested in losing fat. I know this comes down to nutrition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition Labels Are Inaccurate. And that Doesn t Matter. #[Link to Article](https //www.strongerbyscience.com/nutrition-labels/) An article by Greg Nuckols it is a response to and expansion on [a previous article from Precision Nutrition](https //www.precisionnutrition.com/problem-with-calorie-counting-calories-in). Greg explores the variability in nutritional labels and food but ultimately shows that the variation tends to cancel itself out in the long term. &amp;gt;**TL;DR** Yes nutrition labels have errors. The errors on individual foods are sometimes (often perhaps) much larger than people assume. However unless those errors all skew in one direction your daily calorie counts will still be quite accurate and precise and their average accuracy will increase over time. If those errors do all skew in one direction your calorie counts will be less accurate but they ll probably be more precise (which ultimately is more useful anyway). In all but one fringe case knowing about the labeling error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition Q for vegetarians - where does your protein come from? I m trying to phase meat out of my diet but struggling to get 120-130g protein per day without it. I usually have a double scoop protein shake (50g protein) each day and can only eat so many eggs. Where does the bulk of your protein come from? ++ if it s meal prep-friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">once and for all is training every day hard sometimes 2/days hurting any progress? i really enjoy being in the gym. when work permits i do 2/days strength/bodybuilding in the AM and met con in the evenings. a total of 2-3 hours...i d say i average that 5 days a week the other two days maybe only 60-90 minutes of training. i make sure to get at least 8 hours sleep (work permitting) and I get in all my calories. when i am bulking i gain at around .5 pounds a week and when i am cutting i lose at about .5 a week. as long as i monitor my weight and i feel ok is "over training" really an issue? would be interested to hear some experienced peoples opinions thanks !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Hundred Pushups I m back to lifting after a year or two of crippling depression! Yaaay!! I want to be able to do 100 pushups in one go. I ve been struggling with starting [this program](http //hundredpushups.com/week1.html) and could use some advice. Currently it feels like the outside of my pecs toward the shoulder are tiring out first. What other exercise can help alleviate this? If I am unable to complete one of the days as prescribed what should I do? Maybe just wait 10 minutes and try again? Obviously I should repeat that day later that week until I can succeed. I m doing light dumb bell work otherwise to help even things out. My reason for wanting to do 100 pushups is that I want to feel a sense of pride and satisfaction. I ll be going to a gym also.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One side at a time vs leaning into the rack Ok so here is my question for everyone. I see it all the time in my gym and read about it on reddit. When re-racking the bar whilst squating I see/read of people racking one side then the other. To me this seems dangerous and unnecessary. I myself set the catches up so that I can get a slight lean into the rack before sliding down with both sides of the bar in contact with the rack. I feel this is safer and less prone to problems. It also doesn t require one to move their neck and do movements with their back and calfs whilst lifting heavy. Have I been squating incorrectly all this time? Which way is the correct way? And should I just accept that people have preference?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only have gym access two days a week, what should I do? Due to commuting to college, having to work, and other things keeping me busy, I can only get to the gym two days a week. Tuesday and Thursday mornings I have a gap between classes where I normally go workout. I'm trying to cut right now, but want to lift to keep from losing too much muscle. I try to get some cardio in five days a week and swim twice a week. I was wondering if there is a program where I can hit most of my body on these two days, and what I can do at home without weights to hit other parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrak's Variant of the Greyskull LP program has no ab/core Hello I'm super super new to fitness in general. I'm starting out with Phrak's Variant of the Greyskull LP program since that's what was recommended after reading the getting started text. I have some questions: First I'm fat and never worked out before 6ft 230lbs of fat. Can't do pull-ups program calls for negatives instead I'm confused on how to do that. There's also nothing for core(ab area) in this program should I add planking or something? I also feel like this is just a super light program any recommendations on additional work with it? Thank you everyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up new lifestyle Hey all, I've been out of shape for a while and I am looking get serious about dieting and running a routine to lose wieght. I have allegies to protein powder, so my diet will have to be changed around that. I have also tried doing a few routines that involve cardio and weighttraining, but my main goal is to lose wieght. I can't run or jog because of the weather, but can use treadmills. Any starter tips to lose weight with the best routine and diet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pins and needles/itchy when starting to run Hey guys. Weird thing has been happening to me for the past month or two. Whenever I try to start running within 30 seconds I get these weird pins and needles/itchy sensations across my face head and torso (front and back). It usually only continues for a couple minutes but it s extremely annoying and kinda worrying. I was running outside so I thought maybe it was allergies but allergy meds didn t help and it still happens when running on a treadmill. Has anyone else experienced this? What fixed it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plates under heels when squatting ? I just had a coaching session with a good coach (former professional weightlifter/powerlifter I don t remember for 10 years). Although I m not tall by any means I have a pretty long torso and short legs. He said that because of this I m leaning too much forward when squatting (especially at higher weights) and that this is causing a sort of good morning when coming back up (which would be bad for my lower back). He then said that I should warmup with some sets of front squats before squats and that I should put plates under my heels so that I stay a bit more upright when back squatting. Is he right ? I do notice that I have a problem with forward lean at high weights but he said that even at low weights there was a problem. The plates under heels technique feels weird but maybe it s just a matter of time before it becomes ok. Good depth isn t a problem for me so I don t think mobility plays a big role in this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please explain the science behind stretching 1. Why should we stretch at all? 2. Why we shouldn t stretch before workout? 3. Why we should we always stretch after workout? 4. Should we stretch static or dynamic or both? 5. When to do static stretch and when for dynamic? 6. Like how warm up depends on the main routine we follow is it same with stretching also? thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please help me pick which piece of equipment! I am having a little trouble deciding which of these two machines I should buy GHD https //www.titan.fitness/gym-equipment/other-gym-equipment/glute-hamstring-developer/glute-hamstring-developer.html OR this Dual Hyperextension https //www.titan.fitness/gym-equipment/other-gym-equipment/glute-hamstring-developer/dual-hyperextension.html I have never used a GHD and I am wondering if you can still do hyperextensions (albeit 90*) on them effectively? The thing that I like about the dual Hyper is that you can do them at 45* and 90*. I have a setup in my garage gym to do Nordic Ham curls and I kind of suck at doing them so a proper GHD might make it a bit easier and more comfortable to get better. There are lot of other exercises that I can do to effectively strengthen my hams and glutes but I am still confused. Can you do hypers effectively on a GHD? If you guys/gals had to pick one of these pieces of equipment which would it be and why? Thank you so m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post workout nutrition question Hi everyone! I have been working out for a while now (cardio + more focus on weight lifting) with the intent of losing weight and gaining muscle. I like to workout in the morning before I eat and would appreciate any input on my pre and post nutrition. Important to add that I do have metabolic syndrome so I try to keep my sugar/insulin lower and restrict fruit to berries and only after my workout. Pre greens+ supplement and 3/4 scoop vegan whey Post 1 scoop fermented l-glutamine and water (wait 5 minutes) then 1 scoop vegan protein water and 1 cup frozen berries Am I eating conscientiously to restore glucose stores repair muscles and prevent an insulin spike? I appreciate any help and input!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerlifting Belt on ATG High Bar Squats? I was gifted a 10cm wide 13mm belt. I m still squatting raw and I don t plan on using it soon. I ve recently decided to switch from low bar to high bar squats so a couple of things * High bar isn t as taxing on the core than LBBS. * Will the belt get in the way of the thighs and ribs when ATG? * Will the belt get in the way of the thighs when deadlifting? (without wearing the belt on my ribs) I saw WLers wearing tapered belts for their squats but maybe it s because they use the same belts for Oly lifts. I don t want to open the belt yet since it would lower the resale value and it takes a while to break in. Should I sell it keep it or trade it for a tapered belt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPL 4 day split? Hey I ve been researching doing PPL and everything I ve read has been super helpful but the workout I want to do is a little bit different. I can only do 4 days a week and I am running on the off days. My was to do Push pull legs and an upper body workout to get each major muscle group a second time. Any advice on this? I know starting strength would work for me but the squatting/leg work been affecting my running performance. Newbie question and I know I don t need to fill out the next part but oh well the more info I can get to you the better. Weight 83.2 KG Height 6 ft Sex Male Age 26 Your Goals Muscle gain lean body Any injuries or disorders that we should know about Nope Do you smoke? No Do you have access to a gym? Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPL at Planet Fitness Had to relocate for work. They offer free membership to Planet Fitness. Is it possible to get a good PPL workout with them not having many free weights or racks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre workout supplement and cardio I ve recently swapped out solo lifting heavier weights for classes; such as 15 minute abdominal training classes 60 minute classes of quick squats presses lifts and curls and cardio classes. Ive seen excellent results of stomach fat loss and toning. But would like to know if there s more I can do? I ve heard of pre workout drinks that increase fat burning during workouts. Is this thing and if so; what are your thoughts and advice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preacher curl advice When performing preacher curls I feel like my wrist is performing a lot of the work despite me keeping my wrist completely straight and not moving it during the curl. How do I make sure my biceps are doing most of the work? During the preacher I feel more of a strain on the biceps compared to more of a burn during concentration curls. What sensation should I be looking for in a proper curl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming multiple squat sessions per week (help). Hi all I m beginning to write my own programs and have wanted to increase my squatting frequency from once a week to 2 times (or even 3 times). I m using percentage of 1RM to determine my working weights but am not sure what percentage I would I could use during the 2nd or 3rd session of the week. For example session 1 of week 1 will be 4x5 @ 72% (on Monday). If I choose Thursday as my next squat day then would it be better to have it at a lower intensity or (assuming I m recovered from Monday) increase the intensity? I m not sure if this is the correct place to ask. Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programs for machine lifting? Hello r/fitness I just moved to a new city and the gym at my new apartment has every machine you could imagine and dumbbells. Are there any good premade plans for gyms without free weights? I didn t see anything on the sidebar for machines maybe I m just overlooking it right now though. If starting stats matter I m 5 11" 190 I haven t been lifting for about 3 months. In the past I did PPL which I could probably adapt for machines but I wasn t sure. Anyone who has to use machines have any advice? I tested all of the machines this afternoon so that I could get a fell for them the squat machine feels way different then a real squat but that was the only big difference I noticed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proper breathing with weak abdominal lining while lifting Recently I took a month off from lifting since it seemed to be bothering my lower abdomen. I have since returned to the gym but I feel like the need to force exhale every time I push (during bench press) pull (while dead lifting). I noticed that a lot of people on this sub advocate using the Valsalva Maneuver but I m scared that it might actually give me an inguinal hernia or something given my precarious condition. I can t seem to be able to inhale and exhale consistently after every rep so I m usually out of breath after a set. I ve noticed that continuously taking in large breaths of air after a set makes the funny abdominal feeling go away so I m wondering if the two are connected. How do people who lift with weak abdominal lining breathe? Any pointers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proper exercises to address asymmetric movement patterns Hey Guys I ve had a dominant left leg since as far as I can remember. Most likely from soccer and all the jumps shooting etcetera but no problems in regards to injuries. Left arch is stable and solid right one is dead(on the ground). I picked up main lifts 6-8 months ago coupled with squats/press and the problems are starting to catch up. My suspicion is that I have only reinforced the imbalances even more since I started with severe asymmetries. 1) What corrective exercise do you guys recommend to level the asymmetric imbalances? 2) One issue is my inability to push one knee out caused by an inability to rotate the ankle(externally). How can this be adressed? Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure hypertrophy programs Hello reddit! Im almost done with madcow 5x5, and so im looking to mix things up with a pure high volume hypertrophy program for the next 2-3 months. But I don't know, maybe it's a bad idea since most hypertrophy focused programs mix high and low volume days? I looked at German volume training, but found some sources claiming that people with lower volume had the same/better results. I've been doing high intensity programs for a long time, and I just feel like taking a break from all the really heavy lifting for a few months. So what do you guys think? Im a just wasting my time with that type of program? If you have any ideas/input I would really appreciate it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question about cycling preworkout. I researched preworkouts and bought Transparent lab s preseries seeing that it was the "safest" and had no proprietary blends. This is my first time taking preworkout and I know that you have to cycle them. But that s assuming you took preworkout every single day that you go to the gym. I was wondering if I only took preworkout twice a week (M/Th bench days) would I still have to cycle? And if so after around how many weeks? Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question about fasting Hello all. Over the past few months I ve been reading up and watching videos about intermittent fasting (mainly Dr. Berg videos). I ve also been trying to get in that routine but my current work schedule makes it a little difficult. I work a weird night shift schedule T W off off Sa Su Mo off off Th Fri off off off. So my sleep schedule changes every couple of days to where I m up all night and sleep during the day when I work and back to sleeping at night when I m off. I typically stay up when I get off at noon on my last work day so I can sleep that night. My question is how do I manage the eating and fasting times with this schedule? I m trying to do the 8/16 but not sure if or how I should adjust the hours. Thankfully I m only working this shift for another couple months but id like to get the process started if I can. Thanks for the advice in advance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question about nutrition for Shortcut to Shred by Jim Stoppani Hey guys Im a 21M that is slightly overweight and looking to lean out. I ve always been very athletic and active but have never been able to stick to a diet. I was reading over the nutrition plan recommended by Dr. Jim Stoppani for the workout routine short cut to shred which I just started. He uses a 200lb male as an example for how many calories to eat/day and what % of macros. I am a 200lb male so I found this convenient. However he states that a 200lb male should start his cut eating 3700 calories per day (1.5g/lb Protein 2g/lb Carb .5g/lb Fat). Now I workout twice a day with lifting and Jiu-Jitsu and am very active but never in my life have I even considered a CUT that would afford me the ability to eat almost 4000 calories a day. That seems incredibly excessive since most plans for my body type recommend &amp;lt;2500 calories. Do you think it is a good idea to give this a shot and see if it actually works or should I just stick to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question about starting Bigger Leaner Stronger About to begin the program but unfortunately due to cash limitations at the moment I will be going to a Planet Fitness. Would it be more beneficial for me to begin the workouts using the Smith Machine or just replace all the barbell exercises with using dumbbells? The one I go to has dumbbells that go up to I think 70-80 range. Or should I use the dumbbells for bench and Smith for squats? I m fairly new to lifting but I ve always been in decent shape (runner body weight stuff).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question about using jump rope for cardio Is there a trick or certain technique to jump rope without stopping or is it just one of those things that takes practice? I can hardly go 20 seconds without hitting the bottom of my foot and messing up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question on hitting macros I have hard time hitting my protein goals since I'm broken af. But I do have access to eat good carbs and healthy fatty foods. Will it impact my muscle growth? I hardly cross 100gms in protein. Are there any protein sources that are cheap and affordable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question regarding calories.. Hi all! Sorry if this is a stupid question but I have heard mixed reviews regarding this question! So I am cutting on about 15-1700 calories a day (TDEE of 2400) however I usually have a day off for drinks/dinner etc! What I wondered was (exaggerated example) say I cut 1000 calories a day 6 days a week so a 6000 calorie deficit but then on one day I had went to a 7000 surplus (just on the one day) would I technically get fat? Or can your body only consume so much? Thanks In advance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question regarding failure So I ve been following the reddit ppl for a a month and during Pull days and when I start with hammer curls 7.5Kgs (I can do 12 till failure) I do (With a 1 min rest time) 10 of them for the 1st set (leaving 2 in the tank) 9 of them in the 2nd 8 of them in the 3rd Barely 6 on the 4th By the time I get to Bicep Curls I can only do 5Kgs (Sets of 121 min rest time) Should I increase rest time between sets ?? Also I can t progress because if I go to 10Kgs I m gonna burn out by the 2nd or 3rd set So what should I do here ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions about "5/3/1 for Beginners". My English isn t very good so I don t really understand the instructions laid out in the wiki so sorry if these sound dumb. 1) It says I should do week 1 like this 1x5 @ 65% 1x5 @ 75% 1x5+ @ 85% But lower it says that for example in squats I should do "5/3/1 sets/reps then 5x5 FSL" so do I do it in the first week like 3x5+ (+ being the AMRAP set) and then in week two like 3x3+ and so on or am I interpreting this incorrectly? 2) When doing the assistance movements do I actually have to pick just one exercise from each category and do 50-100 reps of it or can I choose two or three exercises and do like 30 reps each? Because I would like to include more back/bicep work but I don t wanna do just 5x10 rows and would prefer 3x10 and 3x10 biceps curls way more. Thanks in advance!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions about those wearable weights Hey so the semester ends in less than a week and then I ll spend a month back home with a small gym in the basement before the next semester starts. And on a related note I was watching Naruto and noticed the weight stuff Bushy Brows wears. What are they? Would they work to help me not lose what I ve gained? Maybe I can perform calisthenetics while wearing them sorta like the character does? If anyones trained in a similar way can you share how the experience was? The gym that I have back on campus is pretty complete but I will be too far from it to go on a regular basis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really confused about the deadlift Should you tilt your pelvis forward or "tuck the butt in" and tilt it backwards? So I m quite the newbie. Started about a month back doing Phrak s GSLP. I ve noticed that in the deadlift not only am I feeling nothing in my hamstrings and glutes - I m also putting a huge load on my quads. It just feels like a fancy squat with my quads being fatiqued before any other muscle (and lower back also taking some beating though not a lot). Filming myself I noticed I have problems with the lockout. I feel like I squeeze my glutes completely but in the video I just look like a duck with my butt sticking out. Heard in a few places that you should tuck your butt and go into posterior pelvic tilt and initiate the movement by hinging at the hips but also seen wayyy more people advocate to "push the butt back". I m completely lost. What is the right answer? Thanks in advance! Tell me if you want a video of my atrocious duck-deadlift. Hope this thread will help other confused l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really confused about the deadlift Should you tilt your pelvis forward or "tuck the butt in" and tilt it backwards? So I m quite the newbie. Started about a month back doing Phrak s GSLP. I ve noticed that in the deadlift not only am I feeling nothing in my hamstrings and glutes - I m also putting a huge load on my quads. It just feels like a fancy squat with my quads being fatiqued before any other muscle. Filming myself I noticed I have problems with the lockout. I feel like I squeeze my glutes completely but in the video I just look like a duck with my butt sticking out. Heard in a few places that you should tuck your butt and go into posterior pelvic tilt and initiate the movement by hinging at the hips but also seen wayyy more people advocate to "push the butt back". I m completely lost. What is the right answer? Thanks in advance! Tell me if you want a video of my atrocious duck-deadlift. Hope this thread will help other confused l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right way to do single-leg leg presses? I was doing leg presses the other day one leg at a time when a personal trainer came over and said I was doing them wrong and that I should lean over and do them more sideways at a 45 degree angle. Kind of like [this](https //youtu.be/JvvrBu3lKpk). He was trying to explain other stuff too but he was speaking Chinese and my Chinese wasn t good enough to understand. Now to be honest I didn t think about the leg press form very much. I just adjusted to the seat as low as I could go without rounding my lower back placed my foot as low as possible because I m trying to target the quads and made sure not to lock out the knee since we ve all seen those leg press accident videos of people s legs getting folded over the wrong way. Besides those things I just pressed. fwiw it s a horizontal leg press machine with a sliding seat where you push yourself away from the foot pad. Does it really matter how you do it and what s the best way to go about it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routine Recommendation I am 32 years old, 6'3'' and weigh approximately 310 lbs. Here is my problem - my workouts have always been strength/football based. Squats, dead lifts, bench press, etc. with very little cardio. I am still fairly strong despite not working our regularly recently (bench max ~ 325 for example) but I want to now focus on losing weight. I have read over routines here but want to get general advice for workouts that are generally &lt;1 hour and geared towards losing weight. TL;DR - Looking for workouts for 3-4 days/wk focused on weight loss while maintaining some athleticism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rucking indoors? I often do rucking (walking with a weighted pack) I enjoy it and feels it is effective for me. However given the season and with it being so cold outside I find it hard to want to go outside in the cold (not to mention icy and snowy conditions). This last weekend I decided to try rucking indoors. My apartment isn t huge the longest route I have found is about 30 paces before I must turn. What I am wondering. Would you think that there is a significant disadvantage to rucking (or any exercise for that matter) where you must turn every 30 paces instead of being able to just go long stretches as one could outdoors?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running at various times of the day Curious if it matters. Is there a reason one should try to run in the mornings/evenings? Any tangential health impacts (positive or negative)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running/cardio while on a caloric deficit and lifting heavy and frequently? I m 18M 165lbs 5 7" between 16-18% body fat and I am still a beginner lifter (3 months). When I first started weightlifting I was overweight high body fat (23-26% according to visual guides and my mirror). I researched and came to the conclusion that it was optimal to cut and lift since I can still be at a catabolic and anabolic state almost simultaneously and I have seen tremendous progress. I run a 5-6 day lifting split. Would running be really detrimental in this case? My goals ranked highest to lowest priority Losing fat (weight) gaining muscle mass losing bodyweight just overall. Since I m on a cut will running (like 3-5 miles on a given rest day from lifting) help me burn my fat (glycogen stores) or will my body just start to break down protein (my muscles) because I m not eating enough food? On cheat days like this upcoming winter vacation I have from college where I will inevitably be eating a lot of food i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same weight for Incline and Flat Press Just started working out pretty seriously last couple months. I keep hearing that Incline Bench is usually pretty harder than the Flat. For some reason I tend to bench more or same as the Flat(200lbs). Any reason for this and any isolation work I can do separately to increase my Flat Press weight?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scared to deadlift again Hi all About a year and a half ago I was doing my warmup sets and my back popped leaving me basically bed ridden for a couple of days I never went to the doctor and stopped doing deads for a few months and everything felt back to normal. I finally figured I d give them another go and the exact same thing happened to me during my first warm up set. I made it home and once again was bed ridden for almost 5 days with extreme pain and couldn t take a step . My wife had to help me put my pants on it was a serious blow to the ego. I went to a physio therapist and turned out that I had pinched a nerve in my spine. I completed all of the treatments and started feeling better and the past 6 months or so have not had a bit of pain or bad feeling in my lower back . My doctor said I d be totally fine to get back to it . I m honestly scared shitless to try deadlifting again but miss them so badly in my routine . Would you guys get back into them or take it as a sign to forget about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science of Growth Hypertrophy and Building Muscle w/ Brad Schoenfeld [Video](https //youtu.be/Uc265c-tLGY) Brad Schoenfeld is perhaps the preeminent researcher of the science behind building muscle. In this video he discusses what peer-reviewed studies have shown about * How important is nutrient timing? * How much protein is required? How much can your body use at once? * Are dirty bulks necessary or can lean muscle be added without fat gain? * How many sets are shown to work best for muscle gains? (10 sets/muscle/week much better than 4) * Reps per set doesn t matter (as long as you hit a certain *volume load* ~~level~~) for hypertrophy but for strength lower rep ranges are vastly superior * Edit Short rest periods aren t the gospel. Long ones work better for squats even at light load. There s much more than what I ve summarized. Tons of information packed into one 46 minute video (which can be watched faster on a computer by hitting the &amp;gt; key). Give it a view and discuss. Edit I s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaking wrists during bench press - issue with the equipment? I go to multiple different gyms and at one in particular I always have issues keeping my wrists straight during the bench press. This is not a problem at any other gym and further I ve noticed that other people usually have this problem when bench pressing at this gym as well. I suspect it has something to do with the equipment . Sore wrist afterwards. Any insights or workarounds for this issue would be appreciated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I be adding my calorie burned through exercises when counting calories? I am currently trying to aim for 1800 calories a day to reach a calorie deficit of approximately 500 calories. I am doing strength training 5 times a week and doing cardio twice. Should I be including my calorie burned when exercising as to reach my 500 calories deficit a day goal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I hire a personal trainer to learn how to lift? I am 36 years old guy who has almost never lifted free weights. My fitness regime mostly consists of cardio (running cycling spinning hiking) but I started using some machines few months ago (shoulder press chest press leg extension). I also do pull-ups regularly. Now I want to include free weights in my routine but I am a bit intimidated because my right shoulder is prone to dislocation. Is it a good idea to hire a personal trainer for 2-3 sessions just to learn how to do some basic lifts with good form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I measure my farmer s walks by time or steps? So I ve added farmer s walks to my pull days for grip strength. I do them with a Fat Gripz on the dumbbell handles because I hate myself. I was thinking about how I should be measuring them. I would use distance but I have a home gym with really limited space so I m constantly turning around making it kind of pointless. So far I ve been using steps (3x32 steps) but I wonder if time would be a better measurement of progress. Maybe it doesn t really matter but does anyone have any opinion on this? What amount of steps or time would be the best for strength?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I pause lifting when having cramped muscles? I have outer buttocks cramped muscles because of weak abductors. I work on them including physiotherapy strength exercises and stretches. Still as my training weight goes up I feel this area more and more. Is there a good way to handle the cramped muscles without impeding my training program (SL5x5)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silly question from a fitness noob. So when I was in high school I was 190 pounds (I'm 6'3"). I got real sick and the meds they put me on bumped me up to 320 pounds over a year and a half. Now through just monitoring my portions and foods I'm down to 240. But my real fitness question is about exercise. I want to get back to where I was and better. My career goal is to be a police officer. That requires a physical test. The sit ups portion I am close to getting. And the run I am close to getting. I think I can get those in my time frame. However the test also has pushups. I can only do like 2 good pushups but the test requires 33 pushups in 1 minute. I guess my question is how fast can you get progress with pushups? I have 3 and 1/2 weeks to get there. If I work my ass off is it possible or should I take it slow and catch the next application opportunity (which could be who knows when)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple visual/video explanation of what happens in the body during working out and recovering? Iâ€™m trying to learn the general process of working out, breaking down muscle, refilling glycogen levels, and muscles recovering in larger size. Some cartoon video would be helpful. Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slingshot training How best would you suggest incorporating the slingshot into a bench press training regime? Currently pressing 230 for 1 225 for 2 and 200 for 5 as my maxes haven t been able to break this flat bench plateau for months now using traditional techniques and programs (floor press pause bench assisted reps rest pause sets etc). Squats at 325 and deadlift 420 switching the focus from hypertrophy to strength through 2018.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soon-to-be-homeowner planning my garage powerlifting gym. Advice? Wife and I signed on our first house last week and I am really pumped (so to speak) about putting in a home gym in the garage. Nothing fancy power rack &amp;amp; bench olympic and hex bars some plates and barbells. My reasoning for investing in this setup is mostly to save on time - between work &amp;amp; baby taking time away at the gym is getting harder and harder. I also just like being at home and don t really see the gym as a social place. For those of you who have invested in a similar setup any advice? Dos/don ts? Non-obvious stuff I should spend on versus stuff I shouldn t?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split squat vs. lunges What is the consensus on which if these two single leg exercises is King? I am currently doing PHUL and I was looking to possibly substitute the BSS for the barbell lunges on hypertrophy day. I know substitution is usually a no no but I really like the BSS. Is there a benefit to the lunge that isn t present in the BSS? Anything else to consider here? I m still a relative newb so be gentle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting a full-body beginners workout this week. Hey guys. I m 16 and have never lifted before but after doing a ton of research I feel ready to begin my journey now. The problem I have now is that I haven t bought protein yet and while I have made a diet I still need to do the shopping. I ll probably have the money and time in midweek so for now is it cool to stick to my regular ways of eating and just have a banana as a pre-workout along with a lot of water? Or is the protein necessary. I ll only have this dilemma for about 2 workouts so I need some advice on what to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting PPLPPL. Should I set "6-7 days a week exercising" for TDEE calculators? Like the title says. Most calculators online have that setting which allow you to switch between sedentary to active to whatever. Even MyFitnessPal has that Sedentary all the way to Very Active option. If I do PPLPPL 6 times a week should I put the highest value available? It really ups my calorie intake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting to count my macros/calories.. and I suck at it Maybe I m making it harder than it should be but just seems to confusing to me. First off I m using myfitnesspal premium to help me but amyway How do you go about getting your calories and macros correct if you make your own spaghetti or something at home? Or for instance I went to buffalo wild wings and had a grilled chicken sandwich where do i find to put it in on myfitnesspal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumo deadlifts make me dizzy as hell am I doing something wrong? Anyone else experience this? Conventional deadlifts take a lot out of me and I start sweating and panting halfway through my sets. But I never get super dizzy or feel like I m about to faint. With sumo deadlifts I barely go half my normal deadlift max and by the third set I start seeing stars and feel like I m about to faint. Am I doing it wrong or is this normal? Does it have anything to do with how wide my stance is? Kinda avoiding sumos now and sometimes finish without doing all my sets because i m worried i m hurting myself. It s such a good workout though and my hamstrings need the additional isolations so idk what to do. Edit forgot to add I only started lifting a couple months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporary callous replacement / hand protection? I lost the callous below my ring finger doing DLs yesterday exposing raw skin below. What s the best way to cover it up until the new skin hardens? Large band-aid? My ego will not survive wearing gloves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bench press perplexes me Hey all just like the title says. I ve been youtubing Alan Thrall s tutorials omar athleanx buff dudes you name it I ve seen guides I know to retract my scapula I ve seen the videos on how to retract it keeping a flat back the arch and all that yet I m still struggling like a motherfucker. Some stats before we continue 1.74cm / 75kg / 28years male. Bench 80kg Deadlift 140kg Squat 100kg OHP 60kg I just don t get it it s like there is no mind to muscle connection when I start to get into the heavier rounds. With a spotter with a good one that calls me a little bitch and boosts my morale maybe I ll push my 1rm to 100kg but lifting solo with all those guides in the back of my mind I still struggle to go beyond 3reps on 80kg. Advices or some tips?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The heart s response to low intensity training vs high intensity training Hey r/fitness So I recently found out about something pretty cool that I had no idea about. Many of us know about the benefits of exercise to the heart but I had no idea that the type of exercise you do determines what specific adaptations your heart makes to cope with the stress being placed on it. The left ventricle is responsible for holding oxygenated blood before it gets pumped out to the rest of the body. With any form of exercise that ventricle gets stressed with an increased volume of blood to fuel the increased energy requirement demanded by the exercise. Exercise that results in a high diastole blood pressure (such as high intensity strength training) results in a concentric hypertrophy of this left ventricle. This means the walls in the heart grow thicker to get better at forcing blood through your body very rapidly. The ventricle gets bigger but only because of an increased wall thickness while the ventricle space fo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The uses of maltodextrin? I m a noob and I just went to buy whey powder for the first time. They guy working there told me that for purposes of building muscle and gaining some mass whey alone isn t enough. He said I needed some carbohydrates. He gave me maltodextrin. Now as I understand it apart from energy and recovery it s supposed to give you those extra calories you have no will to eat so that you might grow. There is technically no need (and it would in fact be bad) to take those if you eat your perfect amount of calories every day. Am I right in understanding it? Its only purpose is to give you extra calories and revitalize you right? Nothing extraordinary?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are a million studies showing that leucine stimulates protein synthesis in skeletal muscle. But have there been any attempts to quantify this effect? Quantify as how much bigger will you get with leucine supplementation+exercise compared to exercise alone? (assuming all else being equal e.g. diet age genetics routine...) I m also a bit surprised after searching because /r/fitness appears to be quite critic of BCAAs as an anabolic trigger. Not for safety reasons of course it s not AAS but nearly everybody says BCAAs are useless if you re not training fasted. Well in light of all the studies that have shown the stimulus of protein synthesis this is a bit confusing especially because the same redditors who say this link to examine.com which actually confirms the protein synthesis statement. Anyway I m curious about studies that have measured the magnitude of this effect. Do you know about any?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thought on reverse pyramid training? Hey guys just wanted to know your thoughts about reverse pyramid training RPT for short. Basically what it is is that you have 3-4 sets excluding your warmup sets and your first set is your heaviest set. Decrease the weight by 10-15% and rest like 3 minutes. Then aim for 1-2 extra reps in your following set. Then decrease weight again and rest and aim for 1-2 more reps than the previous set. This method is great for increasing strength and i tried it myself and it works amazing. In september I was incline benching 135 for 5 reps. Now I am incline benching 155 for 7. This is the fastest rate of strength gains ever. Anyway what are your thoughts about RPT? Have y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tight on time getting older question Yes I have read the rules and Q&amp;amp;A and there are multiple conflicting answers out there. Trying to separate hype and marketing from stuff that will work.Back story: was in fantastic shape in the military worked out constantly for years and felt great. Got married job kids still go to college and had a few years where I fell off the wagon. Not too far but cardio and lifting were replaced with occasional bike rides and light hiking when I had time. So now I am getting back into shape to change careers. Worked in slow took time and have been seeing results. I am in my late 30s now and it has been 6 or so years since I maintained a serious workout schedule. Now I am working out 3 - 5 days a week and have my 1.5 mile time ~10 minutes or a little less and have been focusing on core general strength exercise for about 6 months. My Questions: My ankles and lower legs have been aching not anything serious just general stiffness that has not improved as I have gotten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time spent at the gym? When I first started lifting it was a couple years back when my friend at college started. He had started a couple months before me and convinced me to get into it too. I started working out with him and he seemed pretty knowledgeable and we d spend 2-3 hours in the gym. I m out of school know have been for about a year and a half and workout on my own. Doing some browsing on my own advice that comes up a lot is you don t need to spend that long in the gym. On my own I ve been spending anywhere from 1.5hrs in the gym to 2.5hrs between 2-4 days a week. Apparently that s too long. I can maybe see the 2-3hrs in there if I was lifting with a partner but I m not anymore and it does seem like I spend too long in the gym. I usually hit 3 different parts with 3-4 different lifts 4 sets 8-10 reps but I don t really have a set rest time- just whenever I feel ready to start the next set I ll start. Is my problem too long of rest or too many lifts/sets/reps? How long do you spend in the gym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tips dealing with the double squat sessions in sheiko programs? Hi I have been doing some sheiko programming for 3ish weeks now and I often find myself recently struggling with squat session B and my lower back tends to be sore in session B sometimes(not pain just sore) Does anyone else find this to be the case? heavy after the tons of squatting in session A. Is the answer to just suck it up and deal with it or is my squat form awful? I also do cardio sometimes and play hockey every now and then not sure if this is impeding recovery but I ve been doing this for a while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To anyone with a homegym deadlift substitute/replacements for best results? Hey fitness crew! I m very excited to be getting a power rack fid bench and weights soon for my second floor apt. I plan on following a program here but many of them involve deadlift. I plan on using plywood osb boards and thick rubber mats or horse stall mats for my platform for the power rack. My only slight concern is deadlifting. I won t be dropping any weights on the floor for any lift. Would I be okay with this lift or should I add in substitutes for the programs I want to follow? Thanks for advice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking calories burnt on a stationary bike I recently got a stationary exercise bike in the house planning on using it daily for at least 30 min and once my stamina isn t as bad go into HIIT for fat burn. I have a fitbit Alta HR and was wondering if the exercise reading on it combined with the heart rate sensor would be a good indication of calorie burn? Also how should I start with the bike? I do weight training but I haven t really done cardio in a while so am quite out of shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training for Mass during Hockey Season? I play hockey 4 times a week and i m trying to put on some mass since i m 5 11 138lbs &amp;amp; 16 playing with guys 30+ lbs heavier then me. My worry is if playing hockey every 2 days will have a big effect on my ability to gain lean muscle. I m especially worried about training legs since i ve heard you should avoid cardio the days before and after leg day. What are some tips you could give me to help me make sure i m putting on the weight i want to while playing hockey? Should i eat more? What should i be doing in general. Sorry for not asking a specific question just looking for some information that could help me along the way... Thanks in advance. )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training for power followed immediately by hypertrophy -- overdoing it? Currently when doing the big 3 lifts I start with an easy warm-up set followed by 5 sets of 5 reps at around 90-95% max. Rest time is around 2 30 between sets. Then I *immediately* follow this by dropping the weight 20% and push 5 sets of 10 reps at around 70-75% max. 1 15 to 1 30 between sets. The idea here is I have 5 sets working for power followed immediately by 5 sets working for hypertrophy. Is my logic here correct or am I overdoing it by trying to do both in quick succession? (I also continue on to 25-40 minutes of assistance exercises following the big lift.) Or should I be doing something more along the lines of a split like PHAT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transitioning from cutting to bulking phase. please share OWN experience. i ve been (and am) on a long cut. now that i m getting to the 10-12% bodyfat territory i wonder what it s best practice to get into bulking to the 15-17%? read about *reverse dieting* about *straight on bulking calories* and so on. all come with proves it s the best and only option. so it s kinda hard to make the choice this being the first proper cut and i don t want to spoil it all because i got it wrong the next step... please share YOUR OWN EXPERIENCE on this matter!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri-Trap Bars? https //www.flamanfitness.com/olympic-tri-trap-international-bar.html A salesman talked someone into buying one of these guys for me for Christmas. I m finding benching it is very awkward as I have to hold it on the inside grips to balance the weight which means I have a more limited range of motion. designed to work on this bar. Anyone have experience with one of these or resources to point me in the right direction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triceps gains questions Been back at the gym for 2-3 months now and my arms have grown significantly however I want to know how to make my triceps actually "pop" so to speak. On one hand I read things that say you need to not overwork your arms. But on the other hand I see posts saying you need to hit them hard. What do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triceps taking all the abuse during arm workouts. Is this common? This has always been an issue for me... my triceps seem to take all the abuse on just about every arm workout (dumbbell press bicep curls hammer curls power clean etc). I ve checked my form and even lowered weight volume to mask sure I m doing things right... At this point my burning triceps are holding things back! I can t get my biceps to burn after a set of hammer curls because my triceps can t take any more abuse... Has this happened to anyone else? What is the workaround?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trying to restart my lifting again have few questions I m not so sure about... i sprained my L3-L4 vertebrae last year in a squat accident and had to stop lifting heavy and am fine now but due to issues i don t really want to get into more or less stopped going to the gym regularly. so now I ve been going to the gym again and have a few worries 1. I ve lost at least 10 pounds of muscle how long would it take to get that back? or where could i look to get a better know-how of this? 2. my lifts where 215/435/415 on a proper power lifting program how long would it take to get there again? even if its a few good sources for where i could go could you guys help?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two questions from a complete beginner Hi everyone I ve been doing bodyweight exercises for about a week and feel ready to start hitting the gym starting next Monday. I have found this program which I feel suits my needs (I want to be in good shape to start volleyball after half a year of pause with pretty demanding trainings and I also want to gain some muscle mass) https //www.muscleandfitness.com/workouts/workout-routines/complete-mf-beginners-training-guide-plan I have two questions regarding the training though 1) I m really a noob concerning weight what weight should I be using for the exercises? If it depends on my own capacity what sensation should I go for? 2) I m wondering how much time is ideal between sets. Also should I do all three sets one after the other or go around every exercise thrice (or does it even matter)? Thanks in advance for your precious insight!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uneven oblique/plank question 2 parts of this question thanks in advance to anyone for answers. First up my right oblique is considerably larger/more defined than my left. What is strange is that there is no strength difference that i can notice. Is it advisable to just work the left twice a week and the right once? Also simpler question. What side does a side plank work primarily? If I am on my right arm does it work my left side? Have tried once amd barely works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very light-headed after deadlifts. I have always noticed this today as soon as I did the first rep of the first set I was so so dizzy and I felt loke collapsing but I said screw it and did the next rep and it started to fade away a bit. Is this normal? Thanks wanna note that I m cutting and have always been since I started lifting and always experienced this dizziness but today it was just more powerful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very sore in lower back after squats Doing 531 for beginners and getting very very sore in my lower back after squat day. As in can t really put on my socks while standing sore. Previously done Phraks for 3 months like the wiki recommends. Didn t have this big an issue then. Thinking it might have something to do with my form? Here s a video of my amrap set at the second week (85% if I remember correctly) [Form check ](https //streamable.com/fggiy) Doing plenty of warm ups (agile 8 plus box jumps plus 40% 50% 60% build up before 531) and trying to stretch every evening before bed. Anyone see anything obviously wrong with the form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viability of Zercher squats as an assistance movement in 531 for Beginners?? Been looking for a quad dominant assistance movement that also hits the upper body well and the Zercher squat appears to fit the bill. How wise would it be to program it in and what TM% should be used?? A few things to consider and thought process as to why I want to add these as an accessory movement * I do BJJ and the movement itself appears to have more crossover/application than a front squat. Want to make my assistance work for now heavier on push/pull movements as my upper body is lacking in comparison to my lower body. The Zercher appears to kill two birds with one stone and helps greatly with the training economy. For reference I already have GHRs and Reverse Hypers programmed for core/leg assistance work so definitely looking for something that hits the anterior chest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall sit plate rows ? I saw a guy at the gym doing wall sits while rowing two 25lb plates. It looked like a good lat finisher but i didnt get a good look on the form. Has anyone done these before and could elaborate or link me anything thatd help ? Much appreciated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warning sign on myprotein (lab door) I was browsing labdoor.com and was startled by a warning sign on a protein product i ve used multiple times. (myprotein impact whey) https //labdoor.com/review/myprotein-impact-whey-protein [WARNING These products contain lead and mercury chemicals known to the State of California to cause cancer and birth defects or other reproductive harm.] what does this mean? Does the powder itself contain these chemicals? or maybe the plastic tub itself? Got me worried! Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Fasting instead of Cutting I was wondering what your thoughts were on Water Fasting (only drinking water) instead of Cutting. Ideally I d bulk .5lbs a week for 7 weeks. Then water fast for 5 days losing 3lbs. Basically 1 week of fasting vs 3 weeks of cutting 1lb a week. Even if I lost muscle I d have 2 extra weeks to bulk to gain it back. Thoughts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak squat Anyone else have a relatively very weak squat? Im doing the beginner ppl routine and my current bench max is 5 sets of 120 x 5. This is the exact same weight/reps/sets as my back squat max. I understand that a typical ratio has a bench number at approximately 75% of back squat. Does anyone else have or had this weakness? Did it "correct" itself over time? I.e. Did your squat progress faster than your bench until that approximate 75% ratio was achieved? Im doing my best to stay with perfect form. I could squat heavier but not without letting my knees float inwards or have my back lean forwards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are people s opinion on intermittent fasting if your goal is to gain muscle? Is intermittent fasting a viable diet option if you are trying to gain muscle or is it only a good idea to use when trying to lose weight? If you still have a calorie surplus are there any pros of fasting? Would love some input and insight on this diet plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are some activities that really involve your brain? Ive been trying to get back into excercising since my main method of longboarding doesn t work for me anymore I mean I can but its light and only for a few minutes. I enjoyed "parkour" in highschool and love riding horses. But I live away from them and keeps me from trying training for parkour again. I noticed the link between all this is that my brain is actively scanning my environment and making quick decisions. I don t get the same feeling from going to the gym and completing repetitive sets. Any ideas of what I can pick up? Or how i can make the gym more interesting? Tldr version Need some ideas on how to get my brain actively involved in workouts instead of staring at the ceiling in repetitive boredom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are some additional exercises I should do on top of Stronglifts 5x5? I like using SL 5x5 as it is simple and straightforward but I ve heard it will not help you look any bigger as it is not a hypertrophy work out. I want to build strength but I also want it to show in muscle size. Are there any modifications to SL 5x5 I should do or extra lifts or exercises i should do to achieve this? I m about 6 3" and 175 lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the best type of resistance bands? I workout at home and have the non-handle type. I have a sneaking suspicion that they get more elastic over time (less resistance). Anyone have the handle type resistance bands? Are they any better?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the downsides to working out two days in a row with Phraks as a beginner? I ve been working out since november and Im on phraks with the 3 day split. I was wondering is it a bad idea to train today if I trained yesterday? Will my body not progress as much? Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What books would you recommend to someone who wants to get into weightlifting (Dieting nutrition supplementation training and workouts) ?. I am going back into weightlifting after not doing it for a while and i have since forgotten alot of the important things and want to learn and educate myself on the subject aswell as learn how to properly execute and do the different things (Dieting nutrition supplementation training and workouts).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can I do to prepare the night prior in order to have a great lifting session the next day? What things could I do between now and bed time in order to have a great lifting sesh tomorrow? Furthermore what things can I do from when I wake up to when I actually hit the gym? Ideally someone would give me a time line of the 24 hours prior to getting into the gym that lead to the best lifting session of my life. Thanks all!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do I do to improve my balance? My balance pretty much sucks and I would like to know if there are any exercises I can do to improve it? Edit thanks for all the great responses guys and gals I m sure I ll be solid as a statue in no time haha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you do when you have weeks where it s hard? Some days it feels very hard to do the full routine and even though I m not hitting the gym enough to be overworked my body and mind feels like FUUUCK. I still go but I do like 20-30 minutes instead of 45-1hour. I am trying to gain muscle weight now. early 30 s/male/5 10/173lbs/medium-athletic build/ Been working out seriously about 4-5 times a week for 1 hour a day for about 6 months. I know there s a lot of people that will say "Just do it just push yourself all the way" but does that fit my goals? My goals are to look good and be somewhat thick. I m not competing for strong man or anything. But does that matter? What do you do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you eat to boost your workout? Hello /r/fitness, I am anything but a professional, I just workout every few days to keep my body in a good shape. Even so, I am interested in making the most of my workout. I've been consuming some energy bars to boost my workout, but not too much. Few days ago, I've come across some post about the health benefits of raisins (1), and I've read that they are as good as any energy bar or sport snack, only natural and healthier. This was backed up by a study (2) proving this to be true. I am wondering what do you think about this from your personal experience - are raisins (or other dried fruits) as effective? Are there other, better options, to boost your workout? Thanks in advance for sharing your opinions!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does r/fitness think about Dr. Greger s "Daily Dozen"? Here s a link if you re unfamiliar https //nutritionfacts.org/video/dr-gregers-daily-dozen-checklist/ It consists of * Beans (3 servings) * Berries (1 serving) * Other fruits (3 servings) * Cruciferous vegetables (1 serving) * Other greens (1 serving) * Other vegetables (2 servings) * Flaxseeds (1 serving) * Nuts (1 serving) * Spices (1 serving) * Whole grains (3 servings) * 5+ cups of water * Are these all actually good guidelines to follow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What else should I do during Smolov Jr. for bench? Looking for advice from people who have been through a Smolov Jr. cycle. During January I m going to try the 3-day program (4 weeks instead of 3) to see if it helps get my bench numbers up. I usually run a full-body routine twice a week (time constraints). For chest I ll do bench press and then one accessory usually dips or flyes. I know it s recommended to cut accessories during a Smolov cycle so I ll stop those during the Smolov cycle. But what about shoulder work? I usually do military press and side raises to finish. Would it be wise to reduce this as well if I m benching 3 times a week? I ll keep on doing the usual back and leg work but I m cautious of burning out since I find squats pretty brutal at the best of times. I don t do deadlifts because it interferes with my running so rows and pull-ups usually. Thanks guys!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens if somebody doesn t eat enough protein? Bodybuilding/powerlifting/weightlifting wise what happens if an athlete doesn t consume enough protein? Mental and physical effects? The rate that they gain strength and or mass?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens if somebody doesn’t eat enough protein? Bodybuilding/powerlifting/weightlifting wise, what happens if an athlete doesn’t consume enough protein? Mental and physical effects? The rate that they gain strength and or mass?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens to my body composition if I stop lifting and eat at maintenance with high protein? I m sick fairly regularly and advised not to do much exercise then and my usual strategy is to cut down my calories to maintenance (taking into account the lowered exercise too) and keep protein high. I always feel like my muscles shrink a bit over this period and my fat level increases is this in my head? It s usually for 1-3 weeks. And my bodyweight stays the same (measured right after waking up). I know that muscle doesnt turn into fat. But I know that you need to do a minimum amount of lifting to maintain muscle which I don t do during this time. And I also know that since I m eating at maintenance then my bodyweight is staying the same. So putting the two together doesn t that mean that I have to be gaining fat in order to compensate for the lost muscle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is most effectice if you want to get your cardiovascular system healthy? I lift 3-6 times a week at high intensities and low reps. I am really short of breath quickly and since my father and others in my family died of early heartattacks i really want to start early keeping my heart healthy. What would be the most effectice way of doing so? I searched a lot on different sites and different sites say different things. HIT 3 times a week? "Normal" long dreading cardio on the treadmill? Are all kinds of cardio equally effetive? (Rows, bike, treadmill, calisthenics circles etc.) What equipment should i get? To be able to perform HIT i have to see my momentary HR because otherwise i couldn't be regulating to be in the right Zone. FitBit? Chestbelt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the minimum amount of recovery you need? background Male 18 183 pounds 13% BF measured by calipers 6 2. I am a stimulus addict. I love the experience of working out whether it be lifting weights cardio agility work plyometrics calisthenics it can be anything. My personality just doesn t allow me to be still I have severe ADHD and I need to constantly move so that may be part of it. I usually workout once a day for five days and on two to three of those days I will workout again depending. This is coupled with cardio on all of those five days usually twice. And I just do whatever on the weekends depending on how I feel weights or cardio. I don t get very sore or DOMS but I do notice that my lifts suffer depending on what workouts I do and how close they are to each other. I get 8-10 hours of sleep a night and drink water by the gallon. I have been doing this routine for about six months. Is this routine sustainable or should I tone it back? My main concern is acquiring overuse injuries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the proper breathing technique for pallof press? Exhale when stretching out and inhale when retracting? Or do you inhale flex core and hold breath stretch out retract exhale repeat?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the relationship between energy balance and muscle gain? Does a diet with a caloric surplus of 1000 kcals result in more muscle gain than a diet with a caloric surplus of 500 kcals assuming that the only difference is 500 extra kcals of rice (for example) and not something nutritionally important? Has anyone performed any studies on this? Another interesting question is if you have a low caloric surplus of let s say 100 kcals (being this precise is of course almost impossible but think hypothetically) and assuming you regularly do resistance training will all of your weight gained be muscle as opposed to fat or will you always gain a certain amount of fat no matter how small your caloric surplus is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is with the difference in strength between individuals? I have been working out consistantly for 6 months and before that on and off. This fat guy (short not sure if that makes it easier for him) who drinks and does no exercise could do 50 push ups. I can do 20/15/10 for a total of 45 in 3 sets. I can bench 60kg 5 times. Is there something I m missing here? We are both males in our early 30 s I m somewhat athletic/normal build.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Program/Routine Should I Follow Given Available Equipment? Goal Put on lean mass look good aesthetically Wrist wraps solve this issue for weightlifting. Experience-wise I m still a beginner. I had been lifting for about six months prior to my injury but was eating at maintenance so I didn t gain much. I m trying to figure out what kind of program/routine I should follow given the equipment I have available to me at home. I have a small home gym upstairs that has dumbbells a pullup bar a bench and machines for leg press lat pulldown cable rows tricep pushdowns etc. What I m lacking is a barbell and power rack for barbell deadlifts and squats. Bench hasn t been a big issue since I ve been able to use dumbbells. In addition to this home gym I use my school gym available to me during a fitness class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should I be able to Overhead Press in order to perform handstand pushups? Hi all I was wondering how much I should be able to Overhead Press (1RM) in terms of bodyweight percentage in order to be able to do 1 handstand pushup. Is it simply your bodyweight or do you have a different experience? Similarly what strength goals would you set for other barbell lifts if you wanted to achieve the strength necessary for the planche? People who can do the planche what can you bench and OHP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should I include in my TDEE calculation? I m trying to lose weight and I go to a big university where I bike everywhere and different amounts each day. I was wondering if I should include that in my TDEE calculation or count that as a separate cardio exercise. I plan to go lift heavy 3/7 days of the week and was wondering if I should include that in my TDEE too or just a separate exercise each day. I have a Fitbit that can track calories burned. I know it s not the most reliable thing but seems better than nothing. Thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to eat before working out in the morning? But the question is I need fuel to workout and in such a small time span what can I eat that s small but is easy to digest and will fuel my workout?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to eat before working out in the morning? I am planning to start heading to the gym in the morning. I have class at 9am and it takes me an hour to get to school so I have to be at my bus stop by 8am. I figure that the time it ll take for me to wake up get ready head to the gym workout shower and have breakfast will be 2 1/2 hours so I will wake up at 5 30 am. But the question is I need fuel to workout and in such a small time span what can I eat that s small but is easy to digest and will fuel my workout?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to look for in Stationary Cardio equipment TLDR How do I know if a Stationary bike/Treadmill is any good before buying? I have a Powercage in the garage and am looking to get some (hopefully cheap - 200ish) Cardio equipment to compliment my lifting; preferably a bike otherwise a treadmill or other alternative will do. I have young Children and work out whilst they sleep so have a monitor on hand in case they wake up (hence cannot get my Cardio outside). Any hints on what to buy/look for? Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would be considered low carb for me? Hi all I m beginning to lose 60 pounds. I ve lost almost this amount before but did it very poorly (not eating). Obviously I gained it all back when I went to college. I m still in college and I want to lose that weight that I ve gained. I m currently 225. I m trying to get down to 160ish or so since I ve recently joined the military and they need me to lose some weight. I want to cut carbs out. Well not completely but I want to drastically cut carbs. If I plan on losing 2 pounds a week how many carbs should I be eating a day? Or roughly I don t know. Doing things the right way is new to me so to say. Thank you so much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When and how should I readjust macros or increase cardio after weight loss? Happy New Year y all. I paid for online coaching for 12 weeks and lost some weight. I started the program at 170 lbs and now am 163 lbs. The coaching included a lifting and macro instruction. The program is coming to it s last week and I still want to continue reaching fitness goals but not sure how without the paid weekly instruction. I can follow instruction and advice but am afraid to create my own... I ve searched on /r/fitness about when to adjust macros but there I could not find any real consensus on how much cardio to increase or how much g s carbs fat or protein should change? Right now my macros are 70 f / 245 c / 150 p. On a refeed day my macros are 70f / 310 c/ 140 p. My cardio currently is 200 kcal 4 times a week. Edit I m 5 10 Progress pics Week 2 https //imgur.com/gHcLwfj Week 11 https //imgur.com/spXuYr6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cutting can you eat at a larger deficit when you re body fat % is high compared to when its low? So say I m starting my cut at 20% body fat could I eat at a larger deficit (and maybe slightly less protein) than when I m at 15% body fat and still not risk an increased loss of muscle mass?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When doing sets that alternate arms do set amounts refer to the total amount or the amount per arm? For example if a routine calls for 4x10 hammer curls would I hit 40 reps each hand or 40 reps total?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When is it safe to one rep max? I m part of the New Years resolution gym crowd but I m confident I ll stick with it. Not a complete beginner but it s been about 5 years between serious gym stints. My questions is is it too early to try my one rep max? I d like a benchmark to build on. I just don t want to hurt myself lol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When its a barbell I can only squat 50kg. When I squat with a human body on my back I can easily squat 70+kg. Why is that? Hey guys I am a kinda new lifter been doing it for a few months now althought not always consistently because of injuries and such but I am improving. To my question I am working with Greyskull LP and I found it very good. Currently when it comes to squat I am able to do 50kg for reps (I know I am weak af). I do them focused and I really have to put all in it to do so. However if I am joking around with my wife (65kg) or my brother (73kg) and carry them like [this](https //media.defense.gov/2016/Nov/03/2001663446/-1/-1/0/161025-M-KS936-309.JPG) I can easily squat them attg. What is the reason for this? Is there a difference in bodymechanics when squatting barbells and humans/other things (e.g. sandbag)? Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When running stairs I m limited by how fast my legs can move. I do not have the same issue with hills. How do I train/improve this? So when running up stairs I do not get out of breathe or feel weak. I just can t go faster my legs seem to have this limit of how fast they can move. They can go a lot faster downwards or when running hills. my brother for example seems to be able to rotate a lot faster again it not being an issue of endurance or muscle power. Is there a way to train or improve this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When setting up for a deadlift by which method are you meant to make your shins touch the bar? By leaning forward into the bar or by dropping your butt down and leaning back slightly? I ve seen videos teaching both methods. Personally I feel as though the second method better engages the hamstrings and gives me a better sense that I am "pulling" something out of the ground.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When should I transition? Hey guys so I ve been working out since mid-September so around 4 months and have progressed decently. My question is should I consider switching to an intermediate program come the summer months (2 months). Also what kind of program do you guys recommend for bodybuilding. I m trying to focus a lot on physique rather than strength but am open to trying new things. My starting lifts (4 months ago) and current lifts are below. Bench (5x5) 75lbs --&amp;gt; 155lbs Squat (3x5) 95lbs --&amp;gt; 155lbs Deadlift (1x5) 115lbs --&amp;gt; 275lbs (focused on form in the beginning so probably not representative of how much I could actually lift) Barbell row (5x5) 45 lbs --&amp;gt; 105lbs Overhead Press (5x5) 55lbs --&amp;gt; 95lbs Any feedback is appreciated. Thanks! EDIT Currently doing Metallica s 6-day PPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When to switch off of a program like ICF? I am about to complete the first 12 weeks of ICF. I haven t missed a day yet and have been progressing pretty well. My squats have really shot passed everything else my deadlift is now pretty close to what I m squatting and my bench is lagging way behind. I am unable to do OHP due to an old injury so I do 45 degree incline bench press. I have added a couple of extra accessories like Face Pulls and cable flys but other than those changes I have stuck to the program. Here are my lifts 5x5 progression is in a bit less than 12 weeks * Squat 80lbs &amp;gt; 250lbs (deloaded down to 225lbs and do more reps.) * Deadlift 80lbs &amp;gt; 250lbs * OHP started at 50lbs and made it to 65lbs before aggravating an old injury and switching to incline at the recommendation of my doctor. Now I am up to about 120lbs incline * Bench started at 70lbs and am up to 140lbs also 37M 5 10" 180lbs My main question is even though I am still progressing... I am getting a little bored with this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where can I purchase a good weight set with the tools I need Hi r/fitness over the last year I ve worked pretty hard at losing weight and getting in shape and it s going well so far! I ve gotten down to a good weight and gotten my cardio up with running/biking but when I started looking into getting stronger I saw two main options Body weight workouts and weightlifting. BW is hard for me because a number of preexisting wrist injuries that make handstands/pushups etc kind of a bad idea so I figured weight lifting was the way to go (most of the wrist issue is being pushed at/past 90 degrees like in a pushup or handstand). I decided to buy a weight set but honestly I m having trouble finding any good weight sets and I feel like I dont quite know what I need on top of that. I tried using the side bar but didn t see much about it past what workouts I should do (which did help me get an idea of what I need to buy a bit). Does anyone have any recommendations or advice on this? Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which bands for chin/up assistance I am 5 7 185lbs and would like to buy some bands to assist with chin/ups. Any suggestions on specifics or brands I should look for ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which days to eat protein on? I m currently training with weights 3/5 weekdays after work. On my lunch break in work I can afford to eat a high protein salad 2 or 3 times a week the other days opting for a more carb and fat heavy lunch. In my head it makes sense to have the carb lunch on days I train (energy) and the protein meal on rest days (recovery) but I know that s very basic. I will still have a whey protein shake after a weight session regardless of the lunch I ve had. I wanted to see if anyone had some advice on which way I should be doing this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which fruits and vegetables should be the anchor of any diet that aspires to be perfect in terms of micronutritional value? I see the term "superfood" thrown around pretty regurlarly and the amount of items that leave and join that list can tend to be quite confusing. I usually try to structure my meal plan into at least one fruit heavy and one vegetable heavy meal. The remaining meals I usually try to fill out with as much fiber and filling foods as possible. My daily diet as of right now (in terms of fruits and veggies) contain Berries Kiwis Bananas Spinache Broccoli and Peas/Carrots. Is there any item I should add to that list? Am I getting all I need to from it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which resistance bands have the most even resistance curve? I m looking for bands that have a very even resistance curve as close to linear as possible. I ve noticed some bands give more even resistance as you stretch them whereas others go from zero to 100 resistance all of a sudden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which sheiko s program works best for me Hi Been running nsuns since august and wanted to switch things up. My lifts are Bench 105kg *2 reps Squat 140kg * 1rep Deadlift 185kg *3reps I want to get my bench up but also still focus on the other two. Has anyone run a sheiko program and could you tell me your experience with it? I was thinking about starting 29 then 37. But Im not sure when and how much to increase the weights. UPDATE I m going to run Sheikos Universal 1 followed by Universal 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do legs cramp more often than other muscle groups? I m just getting back into lifting. Nothing too strenuous. After a workout my arms back chest etc is tight . That good kind of tightness. However during and after my leg workouts my muscles just go crazy. I stretch a ton before and during but my leg muscles seem to hurt a lot more than any other group. Is this true for everyone or is it just something I need to work through? For example I can do 40lb dumbell curls and be fine but just using my bodyweight for calf raises causes cramps. What s the deal??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do my abs and lower back get so tired during dumbbell rows on my right side? When I do db rows with my right arm my lower back and abs feel like they re working really hard and limit how many reps I can do. When I do my left side though I don t feel them at all and it feels perfectly fine. Both sides look the same when I look in the mirror while doing it. What s causing this and how do I fix it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do people say 5/3/1 is low volume? After doing Warm up sets Main sets with last set AMRAP Joker Sets First Set Last BBB Accessories Please explain why this is seen as low volume?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do programs such as 5/3/1 SL SS etc focus on push so much but less on pull ? So in all strength programs the basic is - Get your bench squat deadlift up. Ocasionally this will include OHP but why isn t this evened out by rows and pull-ups ? It s always said that we should equal our pushing with our pulling or even exceed it so why do all the programs focus on pushing only ? 5/3/1 SS and many others do not include this. Hell even SL which includes rows as a basic lift does not include pull-ups as a must to even out OHP (counting it just as an accessory lift). Is it because people focus on "powerlifting" style training ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do we have to eat so much to bulk? So as we all know you have to eat big to get big and if you bulk hard then you gain fat in addition to muscle. But why does "dirty" bulking lead to more muscle gain than "clean" bulking? I usually hear from experts and more experienced lifters that there s a certain "maximum" amount of muscle you can gain in a certain amount of time (though there s a lot of debate as to what that is). Why can t we just eat enough protein to build that muscle enough carbs to refill glycogen stores and enough surplus energy to fulfill those metabolic processes required to build muscle and thus gain only muscle without fat? Does the body partition some of the energy to fat storage while there s still potential muscle that can be gained?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do we protract the scapulae during a pushup but not on bench? There s a popular pushup video by /u/antranik https //youtu.be/4dF1DOWzf20?t=55s in which he mentions that retracting the scapulae can lead to scapular winging which is painful and bad for your shoulders. There s also this bench video https //youtu.be/JJ5iCcKzg2Q?t=1m54s which says you have to retract the fuckin scapula to protect your shoulders on bench. Are they both right? What makes these exercises different from each other?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does it feel easier and/or smoother to squat more weight? I am now on the verge of making my normal squat weight 100kg. I do 2 sets of 95kg then finish my workout with a set of 100kg. Its not a lot more weight but why does the 100kg feel "easier" or smoother to lift like feeling more stable with my form is more solid? I am thinking its at least partially mental like my mind is saying "this shit is heavy so concentrate and don t fuck up" more but it may just be bio mechanically easier as well. Whats going on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is that most people in the gym are for ever beginners? Like I see lots of people who after years of lifting... or whatever.. they keep lifting with terrible technique they add more weight and the work out looks has lost all its shape and they think they are cool but they will never get any results doing all bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is there so much conflicting information? I have had this problem with both diet. The latest example would be finding these charts and planning to do one chart per day but immediately in the comments I see users warning how bad they are and they destroy the body. Then there are forum posts and blogs providing conflicting information about how great/terrible the humble egg is. Why does all this have to be so complicated? Link to the charts https //imgur.com/a/iP2gK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why We Fell For Clean Eating - The Guardian A compelling long read from The Guardian describing the who what and why of the clean eating movement -- and its links to disordered eating. I think it s hard to comprehend just how pervasive this movement has been in our society and how we are all changing our behaviours and language in response. The history the author has compiled brings to light a number of issues with the movement including something that I have always struggled with -- that loudest voices in the room are young traditionally beautiful able-bodied women who are convinced that their diet changes are all that is stopping the general populace from also becoming all of the above. View the article [here](https //www.theguardian.com/lifeandstyle/2017/aug/11/why-we-fell-for-clean-eating?CMP=share_btn_fb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wide vs close grip bench press Doing which could I lift more? When you re doing wide grip bench the ROM is shorter but you mostly use your chest muscles on the other hand when you re doing close grip bench the bar travels a longer distance but you re also using the triceps so in theory if I didn t care which muscles I trained and just wanted my 1RM on bench to be higher which should I do? (I realize that this depends on how strong my triceps and chest are but if I wanted to have higher bench in the long run which should I train for?).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wide vs close grip pull-ups? Which variant do you prefer? And could you please announce what differs between those two variants? Thanks and a nice rest weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will carbs from last night carry me through my workout this morning? I had a big dinner last night with alot of protein a few simple carbs and also complex carbs. That was at 8pm last night. Now it s 8am today and I don t have enough time to eat a meal and let it settle before I hit the gym. Will that carbs I ate last night fuel my workout?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will doing squats and no deadlift be bad for my knees?? I have never been a serious deadlifter. It s the most exhausting one and whenever I do it I feel super lazy the rest of the workout so usually I just do all other exercises first and sometimes do deadlift last. I squat 3x a week. Because squats don t work hamstrings as much as deadlift if I keep squashing a lot and don t do any hamstring direct work will somehow damage my knees? Or is the amount worked in squats enough? For the record my knees still feel healthy now..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will increasing activity level and increasing calories have an impact on progress? For example would a person who only does weight training and eats at a maintenance of 2500 calories see different results than somebody who does a lot of cardio and eats at a maintenance of 3500?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will squatting with a small weight under your heels slow your progress? Ive read that putting a small weight under your heels when you squat will help with ankle mobility. Would using them hinder your progress at all? My goal is just to add on muscle mass so its not like Im looking to compete professionally. Would using small weights hurt me at all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will Strength programs inhibit or assist with muscle up training? A long term goal of mine has been to perform a muscle up with reasonable good technique and while I have made some good progress with pull ups and dips I have a long way to go. At the moment I am also following Wendler s 5/3/1 to make some strength gains with the main 3 lifts but was wondering if there was a better/more suitable program to combine with a muscle up program? Basically I m asking is training for muscle ups going to have a large impact on strength gains?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will This Intermittent Fasting Schedule Work? So I want to try Intermittent fasting. I usually skip breakfast and work out in the morning so the 16 hr fast schedule (eating from 12-8) seems like it will work best. However I only lift 3 days a week. Will only fasting on these days work or do I really need to do it every day? EDIT I guess more specifically my question is will it have any positive affect on my overall health or goals. My goal isn t really to lose weight. In fact I m lifting to gain muscle and during the eating period I would be putting down significant protein for that goal. I honestly heard a few big fitness guys (Terry Crews for example) talk about it and say they really liked it so I figured I d give it a shot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter break home routine equipment purchase Hey all College student here home for 1 month for winter break. Gym membership cost not worth it for just 1 month decided to work out at home. Planning to buy this [60-lb dumbbell set](https //www.amazon.com/dp/B0077XVIS6) and this [pull-up bar](https //www.amazon.com/dp/B000HBUNAO). Using the dumbbells for bench press hammer curls bicep curls overhead triceps extensions shoulder press side lateral raises and dumbbell squats. Using the pull-up bar for (obv) pull ups. Any suggestions/tips would be appreciated. Thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work outs for tennis beginners I don t know if any of you guys would have a lot of knowledge for this specifically but my news years goal was to actually get going to the gym on a regular basis and to start playing tennis (though weather isn t very conducive to that). I was curious if anyone knew about workouts geared towards beginners in the sport. I use this website to help me plan out routines previously. Take a look I ll probably understand better in the context of it anyway. https //www.bodbot.com/Workout_Generator.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workout for while I am extremely sore? So I worked out for the first time in a couple years. I used to be very athletic and competitive but some stuff changed and I ended up quitting. Now I am very sedantary just sitting at my desk all day. So I decided I would start working out again. I worked out on Saturday and woke up to discover that every single muscle hurt a lot. My arms are sore my shoulders are sore my abs are sore and my legs are sore. Any movement hurts. And today it is worse. I can t even walk normally. I tried to do one squat and it was nearly impossible. I was planning on working out again today what should I do? Should I just attempt to workout again like I did before should I skip it should I go for something lighter if so what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workout Program Calculator I remember there used to be a cool calculator that would ask you a bunch of questions and based on your answers would recommend you a workout plan. I ve looked everywhere on both google and this subreddit using the search function but couldn t find anything. If someone can provide the link to it I d be really thankful )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would i have too much volume? Just started cutting while doing Coolcicada s PPL. Id also like to started couch to 5k to improve my cardio fitness. Would that be too much volume while on a cut or will it be ok? Im 18 and 6 3 if that changes anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrist flexibility exercises I have cysts that grow in my wrist which make it difficult to bend them. Awhile ago I did some wrist curls and got rid of the cysts temporarily. When I told my doctor he suggested that I work and stretch my wrists to keep the cysts away and get rid of them when they show up. Are there any wrist stretches and exercises you would suggest?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1134,7 +1156,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1142,33 +1164,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1177,329 +1225,68 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>866520</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="11614320" cy="9143640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9360">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="65.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="65.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>358</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1507,12 +1294,12 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>358</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1520,12 +1307,12 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>358</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1533,12 +1320,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>358</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1546,12 +1333,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>359</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1559,12 +1346,12 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>359</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1572,12 +1359,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>359</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1585,12 +1372,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>358</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1598,12 +1385,12 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>358</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1611,12 +1398,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>359</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1624,12 +1411,12 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>359</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1637,12 +1424,12 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>358</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1650,12 +1437,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>358</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1663,12 +1450,12 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>359</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1676,12 +1463,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>358</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1689,12 +1476,12 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>359</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1702,12 +1489,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>359</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1715,12 +1502,12 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>358</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1728,12 +1515,12 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>358</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1741,12 +1528,12 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>358</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1754,12 +1541,12 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>358</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1767,12 +1554,12 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>359</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1780,12 +1567,12 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>358</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1793,12 +1580,12 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>358</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1806,12 +1593,12 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>358</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1819,12 +1606,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>358</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1832,12 +1619,12 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>359</v>
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1845,12 +1632,12 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>358</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1858,12 +1645,12 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>359</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1871,12 +1658,12 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>358</v>
+        <v>31</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1884,12 +1671,12 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>358</v>
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1897,12 +1684,12 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>359</v>
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1910,12 +1697,12 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>359</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1923,12 +1710,12 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>358</v>
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1936,12 +1723,12 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>358</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1949,12 +1736,12 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>358</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1962,12 +1749,12 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>358</v>
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1975,12 +1762,12 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>358</v>
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1988,12 +1775,12 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>358</v>
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2001,12 +1788,12 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>358</v>
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2014,12 +1801,12 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>358</v>
+        <v>42</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2027,12 +1814,12 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>359</v>
+        <v>43</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2040,12 +1827,12 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>358</v>
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2053,12 +1840,12 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>359</v>
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2066,12 +1853,12 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>358</v>
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2079,12 +1866,12 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>358</v>
+        <v>47</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2092,12 +1879,12 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>359</v>
+        <v>48</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2105,12 +1892,12 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>359</v>
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2118,12 +1905,12 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>359</v>
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2131,12 +1918,12 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>359</v>
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2144,12 +1931,12 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>359</v>
+        <v>52</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2157,12 +1944,12 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>359</v>
+        <v>53</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2170,12 +1957,12 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>359</v>
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2183,12 +1970,12 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>358</v>
+        <v>55</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2196,12 +1983,12 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>358</v>
+        <v>56</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2209,12 +1996,12 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>358</v>
+        <v>57</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2222,12 +2009,12 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>359</v>
+        <v>58</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2235,12 +2022,12 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>359</v>
+        <v>59</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2248,12 +2035,12 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>358</v>
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2261,12 +2048,12 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>358</v>
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2274,12 +2061,12 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>358</v>
+        <v>62</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2287,12 +2074,12 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>359</v>
+        <v>63</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2300,12 +2087,12 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>358</v>
+        <v>64</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2313,12 +2100,12 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>359</v>
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2326,12 +2113,12 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>358</v>
+        <v>66</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2339,12 +2126,12 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>358</v>
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2352,12 +2139,12 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>358</v>
+        <v>68</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2365,12 +2152,12 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>358</v>
+        <v>69</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2378,12 +2165,12 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>358</v>
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2391,12 +2178,12 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>358</v>
+        <v>71</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2404,12 +2191,12 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>358</v>
+        <v>72</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2417,12 +2204,12 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>358</v>
+        <v>73</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2430,12 +2217,12 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>358</v>
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2443,12 +2230,12 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>358</v>
+        <v>75</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2456,12 +2243,12 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>359</v>
+        <v>76</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2469,12 +2256,12 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>359</v>
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2482,12 +2269,12 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>358</v>
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2495,12 +2282,12 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>358</v>
+        <v>79</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2508,12 +2295,12 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>359</v>
+        <v>80</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2521,12 +2308,12 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>358</v>
+        <v>81</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2534,12 +2321,12 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>358</v>
+        <v>82</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2547,12 +2334,12 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>358</v>
+        <v>83</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2560,12 +2347,12 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>358</v>
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2573,12 +2360,12 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>358</v>
+        <v>85</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2586,12 +2373,12 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>358</v>
+        <v>86</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2599,12 +2386,12 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>358</v>
+        <v>87</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2612,12 +2399,12 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>358</v>
+        <v>88</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2625,12 +2412,12 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>358</v>
+        <v>89</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2638,12 +2425,12 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>359</v>
+        <v>90</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2651,12 +2438,12 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>358</v>
+        <v>91</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2664,12 +2451,12 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>359</v>
+        <v>92</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2677,12 +2464,12 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>359</v>
+        <v>93</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2690,12 +2477,12 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>359</v>
+        <v>94</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2703,12 +2490,12 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>358</v>
+        <v>95</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2716,12 +2503,12 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>358</v>
+        <v>96</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2729,12 +2516,12 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>358</v>
+        <v>97</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2742,12 +2529,12 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>358</v>
+        <v>98</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2755,12 +2542,12 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>358</v>
+        <v>99</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2768,12 +2555,12 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>358</v>
+        <v>100</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2781,12 +2568,12 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>358</v>
+        <v>101</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2794,12 +2581,12 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>358</v>
+        <v>102</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2807,12 +2594,12 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>358</v>
+        <v>103</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2820,12 +2607,12 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>359</v>
+        <v>104</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -2833,12 +2620,12 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>358</v>
+        <v>105</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2846,12 +2633,12 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>358</v>
+        <v>106</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2859,12 +2646,12 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>358</v>
+        <v>107</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2872,12 +2659,12 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>359</v>
+        <v>108</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -2885,12 +2672,12 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>358</v>
+        <v>109</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2898,12 +2685,12 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>358</v>
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2911,12 +2698,12 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>358</v>
+        <v>111</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2924,12 +2711,12 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>359</v>
+        <v>112</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -2937,12 +2724,12 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>359</v>
+        <v>113</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2950,12 +2737,12 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>358</v>
+        <v>114</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2963,12 +2750,12 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>358</v>
+        <v>115</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2976,12 +2763,12 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>358</v>
+        <v>116</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2989,12 +2776,12 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>358</v>
+        <v>117</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3002,12 +2789,12 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>359</v>
+        <v>118</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3015,12 +2802,12 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>359</v>
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3028,12 +2815,12 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>358</v>
+        <v>120</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3041,12 +2828,12 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>359</v>
+        <v>121</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3054,12 +2841,12 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3067,12 +2854,12 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3080,12 +2867,12 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>358</v>
+        <v>124</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3093,12 +2880,12 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3106,12 +2893,12 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -3119,12 +2906,12 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>358</v>
+        <v>127</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3132,12 +2919,12 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3145,12 +2932,12 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>358</v>
+        <v>128</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -3158,12 +2945,12 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -3171,12 +2958,12 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -3184,12 +2971,12 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -3197,12 +2984,12 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3210,12 +2997,12 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -3223,12 +3010,12 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -3236,12 +3023,12 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>358</v>
+        <v>135</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -3249,12 +3036,12 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -3262,12 +3049,12 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>358</v>
+        <v>137</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -3275,12 +3062,12 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3288,12 +3075,12 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -3301,12 +3088,12 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -3314,12 +3101,12 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>358</v>
+        <v>141</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -3327,12 +3114,12 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>358</v>
+        <v>142</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -3340,12 +3127,12 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>359</v>
+        <v>143</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -3353,12 +3140,12 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>359</v>
+        <v>144</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3366,12 +3153,12 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -3379,12 +3166,12 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -3392,12 +3179,12 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>359</v>
+        <v>147</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3405,12 +3192,12 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3418,12 +3205,12 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -3431,12 +3218,12 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -3444,12 +3231,12 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3457,12 +3244,12 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>358</v>
+        <v>152</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -3470,12 +3257,12 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -3483,12 +3270,12 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3496,12 +3283,12 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3509,12 +3296,12 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -3522,12 +3309,12 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>359</v>
+        <v>157</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -3535,12 +3322,12 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3548,12 +3335,12 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>358</v>
+        <v>159</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -3561,12 +3348,12 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>358</v>
+        <v>160</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -3574,12 +3361,12 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>358</v>
+        <v>161</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -3587,12 +3374,12 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -3600,12 +3387,12 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -3613,12 +3400,12 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3626,12 +3413,12 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>358</v>
+        <v>165</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -3639,12 +3426,12 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>358</v>
+        <v>166</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -3652,12 +3439,12 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>358</v>
+        <v>167</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -3665,12 +3452,12 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -3678,12 +3465,12 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -3691,12 +3478,12 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3704,12 +3491,12 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>358</v>
+        <v>171</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -3717,12 +3504,12 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -3730,12 +3517,12 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -3743,12 +3530,12 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -3756,12 +3543,12 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -3769,12 +3556,12 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -3782,12 +3569,12 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>358</v>
+        <v>177</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -3795,12 +3582,12 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -3808,12 +3595,12 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -3821,12 +3608,12 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -3834,12 +3621,12 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>358</v>
+        <v>181</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -3847,12 +3634,12 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -3860,12 +3647,12 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -3873,12 +3660,12 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -3886,12 +3673,12 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>359</v>
+        <v>185</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -3899,12 +3686,12 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>358</v>
+        <v>186</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -3912,12 +3699,12 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -3925,12 +3712,12 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>359</v>
+        <v>188</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -3938,12 +3725,12 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -3951,12 +3738,12 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -3964,12 +3751,12 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -3977,12 +3764,12 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>359</v>
+        <v>192</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -3990,12 +3777,12 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -4003,12 +3790,12 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>358</v>
+        <v>194</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -4016,12 +3803,12 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -4029,12 +3816,12 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>358</v>
+        <v>196</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4042,12 +3829,12 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4055,12 +3842,12 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4068,12 +3855,12 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>358</v>
+        <v>199</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -4081,12 +3868,12 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4094,12 +3881,12 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4107,12 +3894,12 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>358</v>
+        <v>202</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4120,12 +3907,12 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>359</v>
+        <v>203</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4133,12 +3920,12 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4146,12 +3933,12 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4159,12 +3946,12 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4172,12 +3959,12 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4185,12 +3972,12 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4198,12 +3985,12 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>359</v>
+        <v>209</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -4211,12 +3998,12 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4224,12 +4011,12 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>358</v>
+        <v>211</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4237,12 +4024,12 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>359</v>
+        <v>212</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4250,12 +4037,12 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4263,12 +4050,12 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4276,12 +4063,12 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4289,12 +4076,12 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>358</v>
+        <v>216</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4302,12 +4089,12 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4315,12 +4102,12 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4328,12 +4115,12 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4341,12 +4128,12 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4354,12 +4141,12 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>358</v>
+        <v>221</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4367,12 +4154,12 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4380,12 +4167,12 @@
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4393,12 +4180,12 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>359</v>
+        <v>224</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4406,12 +4193,12 @@
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>358</v>
+        <v>225</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4419,12 +4206,12 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4432,12 +4219,12 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4445,12 +4232,12 @@
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4458,12 +4245,12 @@
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>358</v>
+        <v>229</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4471,12 +4258,12 @@
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4484,12 +4271,12 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4497,12 +4284,12 @@
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4510,12 +4297,12 @@
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>358</v>
+        <v>233</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4523,12 +4310,12 @@
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>358</v>
+        <v>234</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4536,12 +4323,12 @@
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>358</v>
+        <v>235</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4549,12 +4336,12 @@
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>358</v>
+        <v>236</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4562,12 +4349,12 @@
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4575,12 +4362,12 @@
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>358</v>
+        <v>238</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4588,12 +4375,12 @@
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>359</v>
+        <v>239</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -4601,12 +4388,12 @@
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4614,12 +4401,12 @@
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -4627,12 +4414,12 @@
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>358</v>
+        <v>242</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4640,12 +4427,12 @@
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -4653,12 +4440,12 @@
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>358</v>
+        <v>243</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -4666,12 +4453,12 @@
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -4679,12 +4466,12 @@
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4692,12 +4479,12 @@
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -4705,12 +4492,12 @@
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -4718,12 +4505,12 @@
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>359</v>
+        <v>248</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -4731,12 +4518,12 @@
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>358</v>
+        <v>249</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -4744,12 +4531,12 @@
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -4757,12 +4544,12 @@
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
     </row>
-    <row r="252" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -4770,12 +4557,12 @@
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>359</v>
+        <v>252</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -4783,12 +4570,12 @@
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -4796,12 +4583,12 @@
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -4809,12 +4596,12 @@
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -4822,12 +4609,12 @@
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>358</v>
+        <v>256</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -4835,12 +4622,12 @@
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -4848,12 +4635,12 @@
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
     </row>
-    <row r="259" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -4861,12 +4648,12 @@
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -4874,12 +4661,12 @@
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -4887,12 +4674,12 @@
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>358</v>
+        <v>261</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -4900,12 +4687,12 @@
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -4913,12 +4700,12 @@
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -4926,12 +4713,12 @@
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -4939,12 +4726,12 @@
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
     </row>
-    <row r="266" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -4952,12 +4739,12 @@
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
     </row>
-    <row r="267" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -4965,12 +4752,12 @@
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="268" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>359</v>
+        <v>267</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -4978,12 +4765,12 @@
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
     </row>
-    <row r="269" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -4991,12 +4778,12 @@
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
     </row>
-    <row r="270" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -5004,12 +4791,12 @@
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
     </row>
-    <row r="271" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>358</v>
+        <v>270</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -5017,12 +4804,12 @@
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
     </row>
-    <row r="272" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -5030,12 +4817,12 @@
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
     </row>
-    <row r="273" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -5043,12 +4830,12 @@
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
     </row>
-    <row r="274" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -5056,12 +4843,12 @@
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
     </row>
-    <row r="275" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -5069,12 +4856,12 @@
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -5082,12 +4869,12 @@
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
     </row>
-    <row r="277" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -5095,12 +4882,12 @@
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
     </row>
-    <row r="278" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>358</v>
+        <v>277</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -5108,12 +4895,12 @@
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
     </row>
-    <row r="279" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -5121,12 +4908,12 @@
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -5134,12 +4921,12 @@
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
     </row>
-    <row r="281" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -5147,12 +4934,12 @@
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>358</v>
+        <v>281</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -5160,12 +4947,12 @@
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>358</v>
+        <v>282</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -5173,12 +4960,12 @@
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
     </row>
-    <row r="284" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>359</v>
+        <v>283</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -5186,12 +4973,12 @@
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
     </row>
-    <row r="285" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -5199,12 +4986,12 @@
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>358</v>
+        <v>285</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -5212,12 +4999,12 @@
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
     </row>
-    <row r="287" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -5225,12 +5012,12 @@
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="288" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -5238,12 +5025,12 @@
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
     </row>
-    <row r="289" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>358</v>
+        <v>288</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -5251,12 +5038,12 @@
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
     </row>
-    <row r="290" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -5264,12 +5051,12 @@
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
     </row>
-    <row r="291" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -5277,12 +5064,12 @@
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
     </row>
-    <row r="292" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>359</v>
+        <v>291</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -5290,12 +5077,12 @@
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
     </row>
-    <row r="293" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -5303,12 +5090,12 @@
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
     </row>
-    <row r="294" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>359</v>
+        <v>293</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -5316,12 +5103,12 @@
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
     </row>
-    <row r="295" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -5329,12 +5116,12 @@
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
     </row>
-    <row r="296" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -5342,12 +5129,12 @@
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
     </row>
-    <row r="297" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -5355,12 +5142,12 @@
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
     </row>
-    <row r="298" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>358</v>
+        <v>297</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -5368,12 +5155,12 @@
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
     </row>
-    <row r="299" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -5381,12 +5168,12 @@
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
     </row>
-    <row r="300" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>359</v>
+        <v>299</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -5394,12 +5181,12 @@
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
     </row>
-    <row r="301" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>358</v>
+        <v>300</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -5407,12 +5194,12 @@
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
     </row>
-    <row r="302" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>359</v>
+        <v>301</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -5420,12 +5207,12 @@
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="303" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -5433,12 +5220,12 @@
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="304" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -5446,12 +5233,12 @@
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>358</v>
+        <v>304</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5459,12 +5246,12 @@
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -5472,12 +5259,12 @@
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -5485,12 +5272,12 @@
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
     </row>
-    <row r="308" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>358</v>
+        <v>307</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -5498,12 +5285,12 @@
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -5511,12 +5298,12 @@
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -5524,12 +5311,12 @@
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
     </row>
-    <row r="311" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -5537,12 +5324,12 @@
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -5550,12 +5337,12 @@
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>358</v>
+        <v>312</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -5563,12 +5350,12 @@
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -5576,12 +5363,12 @@
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -5589,12 +5376,12 @@
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -5602,12 +5389,12 @@
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>358</v>
+        <v>316</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -5615,12 +5402,12 @@
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -5628,12 +5415,12 @@
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -5641,12 +5428,12 @@
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -5654,12 +5441,12 @@
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>358</v>
+        <v>320</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -5667,12 +5454,12 @@
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -5680,12 +5467,12 @@
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -5693,12 +5480,12 @@
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -5706,12 +5493,12 @@
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -5719,12 +5506,12 @@
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -5732,12 +5519,12 @@
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -5745,12 +5532,12 @@
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -5758,12 +5545,12 @@
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -5771,12 +5558,12 @@
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -5784,12 +5571,12 @@
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>358</v>
+        <v>330</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -5797,12 +5584,12 @@
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -5810,12 +5597,12 @@
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>358</v>
+        <v>332</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -5823,12 +5610,12 @@
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
     </row>
-    <row r="334" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -5836,12 +5623,12 @@
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -5849,12 +5636,12 @@
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -5862,12 +5649,12 @@
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -5875,12 +5662,12 @@
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -5888,12 +5675,12 @@
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -5901,12 +5688,12 @@
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -5914,12 +5701,12 @@
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -5927,12 +5714,12 @@
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -5940,12 +5727,12 @@
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -5953,12 +5740,12 @@
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
     </row>
-    <row r="344" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -5966,12 +5753,12 @@
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
     </row>
-    <row r="345" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -5979,12 +5766,12 @@
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -5992,12 +5779,12 @@
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -6005,12 +5792,12 @@
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -6018,12 +5805,12 @@
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -6031,12 +5818,12 @@
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -6044,12 +5831,12 @@
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -6057,12 +5844,12 @@
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -6070,12 +5857,12 @@
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -6083,12 +5870,12 @@
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -6096,12 +5883,12 @@
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -6109,12 +5896,12 @@
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -6122,12 +5909,12 @@
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -6135,12 +5922,12 @@
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -6148,12 +5935,12 @@
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
     </row>
-    <row r="359" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -6161,12 +5948,12 @@
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
     </row>
-    <row r="360" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -6175,7 +5962,13 @@
       <c r="G360" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>